--- a/Backend/OCI.xlsx
+++ b/Backend/OCI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\OCI_to_AZURE\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C0813A-DF04-48B0-8ABD-9CFF9B16F7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5BFE18-5670-4F03-AA7D-986B0F3B3F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,95 +21,96 @@
     <sheet name="VCN" sheetId="6" r:id="rId6"/>
     <sheet name="Subnets" sheetId="7" r:id="rId7"/>
     <sheet name="Route_Table" sheetId="8" r:id="rId8"/>
-    <sheet name="RT_Attachment" sheetId="9" r:id="rId9"/>
-    <sheet name="IGW" sheetId="10" r:id="rId10"/>
-    <sheet name="NAT" sheetId="11" r:id="rId11"/>
-    <sheet name="SGW" sheetId="12" r:id="rId12"/>
-    <sheet name="NSG" sheetId="13" r:id="rId13"/>
-    <sheet name="NSG_Rules" sheetId="14" r:id="rId14"/>
-    <sheet name="security_list_rules" sheetId="15" r:id="rId15"/>
-    <sheet name="Security_List_Associations" sheetId="16" r:id="rId16"/>
-    <sheet name="DRG" sheetId="17" r:id="rId17"/>
-    <sheet name="drop_down_rule_set" sheetId="18" state="hidden" r:id="rId18"/>
-    <sheet name="Database_Dropdown" sheetId="19" state="hidden" r:id="rId19"/>
-    <sheet name="LB Rule Set Dropdown" sheetId="20" state="hidden" r:id="rId20"/>
-    <sheet name="drop_down_rule_comp" sheetId="21" state="hidden" r:id="rId21"/>
+    <sheet name="RG" sheetId="22" r:id="rId9"/>
+    <sheet name="RT_Attachment" sheetId="9" r:id="rId10"/>
+    <sheet name="IGW" sheetId="10" r:id="rId11"/>
+    <sheet name="NAT" sheetId="11" r:id="rId12"/>
+    <sheet name="SGW" sheetId="12" r:id="rId13"/>
+    <sheet name="NSG" sheetId="13" r:id="rId14"/>
+    <sheet name="NSG_Rules" sheetId="14" r:id="rId15"/>
+    <sheet name="security_list_rules" sheetId="15" r:id="rId16"/>
+    <sheet name="Security_List_Associations" sheetId="16" r:id="rId17"/>
+    <sheet name="DRG" sheetId="17" r:id="rId18"/>
+    <sheet name="drop_down_rule_set" sheetId="18" state="hidden" r:id="rId19"/>
+    <sheet name="Database_Dropdown" sheetId="19" state="hidden" r:id="rId20"/>
+    <sheet name="LB Rule Set Dropdown" sheetId="20" state="hidden" r:id="rId21"/>
+    <sheet name="drop_down_rule_comp" sheetId="21" state="hidden" r:id="rId22"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
-    <definedName name="bm_shapes_drop" localSheetId="18">Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="20">[5]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="17">[3]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="19">Database_Dropdown!#REF!</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="21">[5]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="18">[3]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="bm_shapes_drop">#REF!</definedName>
-    <definedName name="char_set" localSheetId="18">Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="20">[5]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="17">[3]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="19">#REF!</definedName>
+    <definedName name="char_set" localSheetId="19">Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="21">[5]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="18">[3]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="20">#REF!</definedName>
     <definedName name="char_set" localSheetId="3">#REF!</definedName>
     <definedName name="char_set">#REF!</definedName>
     <definedName name="D3D1000" localSheetId="3">'[2]DBSystems-VM-BM'!#REF!</definedName>
     <definedName name="D3D1000">#REF!</definedName>
-    <definedName name="db_sersion_drop" localSheetId="18">Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="20">[5]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="17">[3]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="19">Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="21">[5]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="18">[3]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="3">#REF!</definedName>
     <definedName name="db_sersion_drop">#REF!</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="18">Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="20">[5]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="17">[3]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="19">Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="21">[5]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="18">[3]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="exa_shapes_drop">#REF!</definedName>
-    <definedName name="Header_Size" localSheetId="18">'[4]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="20">'[5]Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="17">#REF!</definedName>
-    <definedName name="Header_Size" localSheetId="19">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="19">'[4]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="21">'[5]Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="18">#REF!</definedName>
+    <definedName name="Header_Size" localSheetId="20">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="3">'[2]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">#REF!</definedName>
-    <definedName name="license_type_drop" localSheetId="18">Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="20">[5]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="license_type_drop" localSheetId="17">[3]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="19">Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="21">[5]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="18">[3]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="3">#REF!</definedName>
     <definedName name="license_type_drop">#REF!</definedName>
-    <definedName name="nchar_set" localSheetId="18">Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="20">[5]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="17">[3]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="19">#REF!</definedName>
+    <definedName name="nchar_set" localSheetId="19">Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="21">[5]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="18">[3]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="20">#REF!</definedName>
     <definedName name="nchar_set" localSheetId="3">#REF!</definedName>
     <definedName name="nchar_set">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="18">'[4]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="20">'[5]Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="17">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="19">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="19">'[4]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="21">'[5]Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="18">#REF!</definedName>
+    <definedName name="Response_Code" localSheetId="20">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="3">'[2]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="19">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="21">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="18">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="20">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="17">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="3">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
     <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
-    <definedName name="software_drop" localSheetId="18">Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="20">[5]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="17">[3]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="19">Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="21">[5]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="18">[3]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="3">#REF!</definedName>
     <definedName name="software_drop">#REF!</definedName>
-    <definedName name="VM_Shapes" localSheetId="18">Database_Dropdown!$A$2:$A$12</definedName>
+    <definedName name="VM_Shapes" localSheetId="19">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes">#REF!</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="18">Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="20">[5]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="17">[3]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="19">Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="21">[5]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="18">[3]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="VM_shapes_drop">#REF!</definedName>
-    <definedName name="workload_drop" localSheetId="18">Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="20">[5]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="17">[3]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="19">Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="21">[5]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="18">[3]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="3">#REF!</definedName>
     <definedName name="workload_drop">#REF!</definedName>
   </definedNames>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="798">
   <si>
     <t xml:space="preserve">
 CD3 Automation Toolkit Release - v2024.2.0</t>
@@ -877,37 +878,19 @@
     <t>LZdemo-Hub-vcn-Firewall-subnet</t>
   </si>
   <si>
-    <t>firewall</t>
-  </si>
-  <si>
     <t>LZdemo-Hub-vcn-PublicLB-subnet</t>
   </si>
   <si>
-    <t>publiclb</t>
-  </si>
-  <si>
     <t>Spoke-Devops-Devops-subnet</t>
   </si>
   <si>
-    <t>devops</t>
-  </si>
-  <si>
     <t>Spoke-prod-DB-subnet</t>
   </si>
   <si>
-    <t>db</t>
-  </si>
-  <si>
     <t>Spoke-prod-oke-subnet</t>
   </si>
   <si>
-    <t>oke</t>
-  </si>
-  <si>
     <t>Spoke-prod-opensearch-subnet</t>
-  </si>
-  <si>
-    <t>opensearch</t>
   </si>
   <si>
     <t>Route_Table_Name</t>
@@ -2649,6 +2632,9 @@
   </si>
   <si>
     <t>Security</t>
+  </si>
+  <si>
+    <t>Network_Region</t>
   </si>
 </sst>
 </file>
@@ -5056,6 +5042,84 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5071,7 +5135,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>239</v>
@@ -5079,7 +5143,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
         <v>242</v>
@@ -5093,7 +5157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -5114,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5128,13 +5192,13 @@
         <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5145,7 +5209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -5166,13 +5230,13 @@
         <v>239</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5180,13 +5244,13 @@
         <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5194,13 +5258,13 @@
         <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5208,13 +5272,13 @@
         <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5225,7 +5289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -5244,7 +5308,7 @@
         <v>239</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5252,7 +5316,7 @@
         <v>242</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5260,7 +5324,7 @@
         <v>244</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5268,7 +5332,7 @@
         <v>246</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5279,7 +5343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -5305,387 +5369,387 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H2" t="s">
-        <v>319</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D10" t="s">
-        <v>319</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5696,7 +5760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -5718,589 +5782,589 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" t="s">
         <v>377</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>378</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>379</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>380</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>381</v>
-      </c>
-      <c r="F1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J1" t="s">
-        <v>386</v>
-      </c>
-      <c r="K1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" t="s">
         <v>388</v>
       </c>
-      <c r="B3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E3" t="s">
-        <v>394</v>
-      </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" t="s">
         <v>389</v>
       </c>
-      <c r="C4" t="s">
-        <v>395</v>
-      </c>
       <c r="D4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" t="s">
         <v>391</v>
       </c>
-      <c r="E4" t="s">
-        <v>396</v>
-      </c>
-      <c r="F4" t="s">
-        <v>397</v>
-      </c>
       <c r="G4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C6" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D6" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F6" t="s">
         <v>243</v>
       </c>
       <c r="G6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" t="s">
         <v>389</v>
       </c>
-      <c r="C8" t="s">
-        <v>395</v>
-      </c>
       <c r="D8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F8" t="s">
         <v>391</v>
       </c>
-      <c r="E8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F8" t="s">
-        <v>397</v>
-      </c>
       <c r="G8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F10" t="s">
         <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" t="s">
         <v>389</v>
       </c>
-      <c r="C12" t="s">
-        <v>395</v>
-      </c>
       <c r="D12" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F12" t="s">
         <v>391</v>
       </c>
-      <c r="E12" t="s">
-        <v>396</v>
-      </c>
-      <c r="F12" t="s">
-        <v>397</v>
-      </c>
       <c r="G12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D13" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J13" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E14" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F14" t="s">
         <v>247</v>
       </c>
       <c r="G14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E15" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" t="s">
         <v>389</v>
       </c>
-      <c r="C16" t="s">
-        <v>395</v>
-      </c>
       <c r="D16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E16" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" t="s">
         <v>391</v>
       </c>
-      <c r="E16" t="s">
-        <v>396</v>
-      </c>
-      <c r="F16" t="s">
-        <v>397</v>
-      </c>
       <c r="G16" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F17" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G17" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J17" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C18" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D18" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E18" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F18" t="s">
         <v>247</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C19" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D19" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E19" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F19" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" t="s">
         <v>389</v>
       </c>
-      <c r="C20" t="s">
-        <v>395</v>
-      </c>
       <c r="D20" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" t="s">
+        <v>390</v>
+      </c>
+      <c r="F20" t="s">
         <v>391</v>
       </c>
-      <c r="E20" t="s">
-        <v>396</v>
-      </c>
-      <c r="F20" t="s">
-        <v>397</v>
-      </c>
       <c r="G20" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C21" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D21" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G21" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J21" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D22" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E22" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F22" t="s">
         <v>247</v>
       </c>
       <c r="G22" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C23" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D23" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E23" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F23" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G23" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B24" t="s">
+        <v>383</v>
+      </c>
+      <c r="C24" t="s">
         <v>389</v>
       </c>
-      <c r="C24" t="s">
-        <v>395</v>
-      </c>
       <c r="D24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E24" t="s">
+        <v>390</v>
+      </c>
+      <c r="F24" t="s">
         <v>391</v>
       </c>
-      <c r="E24" t="s">
-        <v>396</v>
-      </c>
-      <c r="F24" t="s">
-        <v>397</v>
-      </c>
       <c r="G24" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C25" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D25" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G25" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J25" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -6308,7 +6372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -6328,7 +6392,7 @@
         <v>248</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6336,47 +6400,47 @@
         <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -6387,7 +6451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6401,7 +6465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AN50"/>
   <sheetViews>
@@ -6445,130 +6509,130 @@
     <col min="35" max="35" width="13.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="38" max="150" width="28.44140625" style="35" customWidth="1"/>
-    <col min="151" max="16384" width="28.44140625" style="35"/>
+    <col min="38" max="151" width="28.44140625" style="35" customWidth="1"/>
+    <col min="152" max="16384" width="28.44140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="28" customFormat="1" ht="148.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="V1" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="W1" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="X1" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="Z1" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="AA1" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="AE1" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AH1" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AN1" s="27" t="s">
         <v>439</v>
-      </c>
-      <c r="AI1" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="AJ1" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="AK1" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL1" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="AM1" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="AN1" s="27" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6576,100 +6640,100 @@
         <v>3</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="G2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="J2" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="L2" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="N2" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="O2" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="P2" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="Q2" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="R2" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="S2" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="T2" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="U2" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="V2" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="W2" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="X2" s="30" t="s">
         <v>462</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>463</v>
-      </c>
-      <c r="T2" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="V2" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>468</v>
       </c>
       <c r="Y2" s="30" t="b">
         <v>1</v>
       </c>
       <c r="Z2" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD2" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE2" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="AF2" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="AG2" s="30" t="s">
         <v>469</v>
-      </c>
-      <c r="AA2" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="AB2" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="AC2" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="AD2" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="AE2" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="AF2" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="AG2" s="30" t="s">
-        <v>475</v>
       </c>
       <c r="AH2" s="30">
         <v>301</v>
@@ -6678,19 +6742,19 @@
         <v>8</v>
       </c>
       <c r="AJ2" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="AK2" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="AL2" s="29" t="s">
         <v>471</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="AL2" s="29" t="s">
-        <v>477</v>
       </c>
       <c r="AM2" s="29" t="b">
         <v>0</v>
       </c>
       <c r="AN2" s="29" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="29" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6698,94 +6762,94 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" t="s">
+        <v>477</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="J3" s="30" t="s">
         <v>479</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="G3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>484</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>462</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>485</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M3" s="30"/>
       <c r="N3" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="T3" s="30" t="s">
         <v>487</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>491</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="T3" s="30" t="s">
-        <v>493</v>
       </c>
       <c r="U3" s="30"/>
       <c r="V3" s="30" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="W3" s="30" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Y3" s="30" t="b">
         <v>0</v>
       </c>
       <c r="Z3" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC3" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE3" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="AF3" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="AG3" s="30" t="s">
         <v>497</v>
-      </c>
-      <c r="AA3" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB3" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC3" s="30" t="s">
-        <v>499</v>
-      </c>
-      <c r="AD3" s="30" t="s">
-        <v>500</v>
-      </c>
-      <c r="AE3" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="AF3" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="AG3" s="30" t="s">
-        <v>503</v>
       </c>
       <c r="AH3" s="30">
         <v>302</v>
@@ -6794,19 +6858,19 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="30" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AK3" s="29" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="AL3" s="29" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AM3" s="29" t="b">
         <v>1</v>
       </c>
       <c r="AN3" s="29" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6814,76 +6878,76 @@
         <v>5</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="L4" s="30" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="30" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="U4" s="30"/>
       <c r="V4" s="30"/>
       <c r="W4" s="30"/>
       <c r="X4" s="30" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="Y4" s="30"/>
       <c r="Z4" s="30" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AA4" s="30" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AB4" s="30"/>
       <c r="AC4" s="30" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AD4" s="30" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AE4" s="30" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AF4" s="32" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AH4" s="30">
         <v>303</v>
@@ -6892,7 +6956,7 @@
         <v>32</v>
       </c>
       <c r="AN4" s="29" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -6900,18 +6964,18 @@
         <v>6</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
@@ -6919,7 +6983,7 @@
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P5" s="31"/>
       <c r="Q5" s="30"/>
@@ -6930,19 +6994,19 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="30" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="30"/>
       <c r="AD5" s="30" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AE5" s="30" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AF5" s="32" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AG5" s="30"/>
       <c r="AH5" s="30">
@@ -6957,14 +7021,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6989,10 +7053,10 @@
       <c r="AB6" s="30"/>
       <c r="AC6" s="30"/>
       <c r="AD6" s="30" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AE6" s="30" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AF6" s="33"/>
       <c r="AG6" s="30"/>
@@ -7006,14 +7070,14 @@
         <v>8</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -7038,10 +7102,10 @@
       <c r="AB7" s="30"/>
       <c r="AC7" s="30"/>
       <c r="AD7" s="30" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AE7" s="30" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AF7" s="33"/>
       <c r="AG7" s="30"/>
@@ -7053,14 +7117,14 @@
         <v>9</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -7085,10 +7149,10 @@
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
       <c r="AD8" s="30" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AE8" s="30" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AF8" s="33"/>
       <c r="AG8" s="30"/>
@@ -7100,14 +7164,14 @@
         <v>10</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -7132,10 +7196,10 @@
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
       <c r="AD9" s="30" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="AE9" s="30" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AF9" s="33"/>
       <c r="AG9" s="30"/>
@@ -7147,14 +7211,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
@@ -7179,10 +7243,10 @@
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
       <c r="AD10" s="30" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="AE10" s="30" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AF10" s="33"/>
       <c r="AG10" s="30"/>
@@ -7194,14 +7258,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -7226,10 +7290,10 @@
       <c r="AB11" s="30"/>
       <c r="AC11" s="30"/>
       <c r="AD11" s="30" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AE11" s="30" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AF11" s="33"/>
       <c r="AG11" s="30"/>
@@ -7242,7 +7306,7 @@
       </c>
       <c r="F12" s="30"/>
       <c r="G12" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -7268,7 +7332,7 @@
       <c r="AC12" s="30"/>
       <c r="AD12" s="30"/>
       <c r="AE12" s="30" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AF12" s="33"/>
       <c r="AG12" s="30"/>
@@ -7281,7 +7345,7 @@
       </c>
       <c r="F13" s="30"/>
       <c r="G13" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -7307,7 +7371,7 @@
       <c r="AC13" s="30"/>
       <c r="AD13" s="30"/>
       <c r="AE13" s="30" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AF13" s="33"/>
       <c r="AG13" s="30"/>
@@ -7320,7 +7384,7 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
@@ -7346,7 +7410,7 @@
       <c r="AC14" s="30"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="30" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AF14" s="33"/>
       <c r="AG14" s="30"/>
@@ -7359,7 +7423,7 @@
       </c>
       <c r="F15" s="30"/>
       <c r="G15" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
@@ -7385,7 +7449,7 @@
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
       <c r="AE15" s="30" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="AF15" s="33"/>
       <c r="AG15" s="30"/>
@@ -7398,7 +7462,7 @@
       </c>
       <c r="F16" s="30"/>
       <c r="G16" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
@@ -7424,7 +7488,7 @@
       <c r="AC16" s="30"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="30" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="AF16" s="33"/>
       <c r="AG16" s="30"/>
@@ -7437,7 +7501,7 @@
       </c>
       <c r="F17" s="30"/>
       <c r="G17" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -7463,7 +7527,7 @@
       <c r="AC17" s="30"/>
       <c r="AD17" s="30"/>
       <c r="AE17" s="30" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AF17" s="33"/>
       <c r="AG17" s="30"/>
@@ -7476,7 +7540,7 @@
       </c>
       <c r="F18" s="30"/>
       <c r="G18" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
@@ -7502,7 +7566,7 @@
       <c r="AC18" s="30"/>
       <c r="AD18" s="30"/>
       <c r="AE18" s="30" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="AF18" s="33"/>
       <c r="AG18" s="30"/>
@@ -7515,7 +7579,7 @@
       </c>
       <c r="F19" s="30"/>
       <c r="G19" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -7541,7 +7605,7 @@
       <c r="AC19" s="30"/>
       <c r="AD19" s="30"/>
       <c r="AE19" s="30" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="AF19" s="33"/>
       <c r="AG19" s="30"/>
@@ -7554,7 +7618,7 @@
       </c>
       <c r="F20" s="30"/>
       <c r="G20" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -7580,7 +7644,7 @@
       <c r="AC20" s="30"/>
       <c r="AD20" s="30"/>
       <c r="AE20" s="30" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="AF20" s="33"/>
       <c r="AG20" s="30"/>
@@ -7593,7 +7657,7 @@
       </c>
       <c r="F21" s="30"/>
       <c r="G21" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -7619,7 +7683,7 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="30"/>
       <c r="AE21" s="30" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="AF21" s="33"/>
       <c r="AG21" s="30"/>
@@ -7632,7 +7696,7 @@
       </c>
       <c r="F22" s="30"/>
       <c r="G22" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -7658,7 +7722,7 @@
       <c r="AC22" s="30"/>
       <c r="AD22" s="30"/>
       <c r="AE22" s="30" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AF22" s="33"/>
       <c r="AG22" s="30"/>
@@ -7671,7 +7735,7 @@
       </c>
       <c r="F23" s="30"/>
       <c r="G23" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -7697,7 +7761,7 @@
       <c r="AC23" s="30"/>
       <c r="AD23" s="30"/>
       <c r="AE23" s="30" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="AF23" s="33"/>
       <c r="AG23" s="30"/>
@@ -7710,7 +7774,7 @@
       </c>
       <c r="F24" s="30"/>
       <c r="G24" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -7736,7 +7800,7 @@
       <c r="AC24" s="30"/>
       <c r="AD24" s="30"/>
       <c r="AE24" s="30" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AF24" s="33"/>
       <c r="AG24" s="30"/>
@@ -7749,7 +7813,7 @@
       </c>
       <c r="F25" s="30"/>
       <c r="G25" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
@@ -7775,7 +7839,7 @@
       <c r="AC25" s="30"/>
       <c r="AD25" s="30"/>
       <c r="AE25" s="30" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="AF25" s="33"/>
       <c r="AG25" s="30"/>
@@ -7788,7 +7852,7 @@
       </c>
       <c r="F26" s="30"/>
       <c r="G26" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -7814,7 +7878,7 @@
       <c r="AC26" s="30"/>
       <c r="AD26" s="30"/>
       <c r="AE26" s="30" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="AF26" s="33"/>
       <c r="AG26" s="30"/>
@@ -7827,7 +7891,7 @@
       </c>
       <c r="F27" s="30"/>
       <c r="G27" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
@@ -7853,7 +7917,7 @@
       <c r="AC27" s="30"/>
       <c r="AD27" s="30"/>
       <c r="AE27" s="30" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="AF27" s="33"/>
       <c r="AG27" s="30"/>
@@ -7866,7 +7930,7 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -7892,7 +7956,7 @@
       <c r="AC28" s="30"/>
       <c r="AD28" s="30"/>
       <c r="AE28" s="30" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AF28" s="33"/>
       <c r="AG28" s="30"/>
@@ -7905,7 +7969,7 @@
       </c>
       <c r="F29" s="30"/>
       <c r="G29" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -7931,7 +7995,7 @@
       <c r="AC29" s="30"/>
       <c r="AD29" s="30"/>
       <c r="AE29" s="30" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AF29" s="33"/>
       <c r="AG29" s="30"/>
@@ -7944,7 +8008,7 @@
       </c>
       <c r="F30" s="30"/>
       <c r="G30" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
@@ -7970,7 +8034,7 @@
       <c r="AC30" s="30"/>
       <c r="AD30" s="30"/>
       <c r="AE30" s="30" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="AF30" s="33"/>
       <c r="AG30" s="30"/>
@@ -7983,7 +8047,7 @@
       </c>
       <c r="F31" s="30"/>
       <c r="G31" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
@@ -8009,7 +8073,7 @@
       <c r="AC31" s="30"/>
       <c r="AD31" s="30"/>
       <c r="AE31" s="30" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AF31" s="33"/>
       <c r="AG31" s="30"/>
@@ -8022,7 +8086,7 @@
       </c>
       <c r="F32" s="30"/>
       <c r="G32" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
@@ -8048,7 +8112,7 @@
       <c r="AC32" s="30"/>
       <c r="AD32" s="30"/>
       <c r="AE32" s="30" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AF32" s="33"/>
       <c r="AG32" s="30"/>
@@ -8061,7 +8125,7 @@
       </c>
       <c r="F33" s="30"/>
       <c r="G33" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -8087,7 +8151,7 @@
       <c r="AC33" s="30"/>
       <c r="AD33" s="30"/>
       <c r="AE33" s="30" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="AF33" s="33"/>
       <c r="AG33" s="30"/>
@@ -8100,7 +8164,7 @@
       </c>
       <c r="F34" s="30"/>
       <c r="G34" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
@@ -8126,7 +8190,7 @@
       <c r="AC34" s="30"/>
       <c r="AD34" s="30"/>
       <c r="AE34" s="30" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AF34" s="33"/>
       <c r="AG34" s="30"/>
@@ -8139,7 +8203,7 @@
       </c>
       <c r="F35" s="30"/>
       <c r="G35" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -8165,7 +8229,7 @@
       <c r="AC35" s="30"/>
       <c r="AD35" s="30"/>
       <c r="AE35" s="30" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AF35" s="33"/>
       <c r="AG35" s="30"/>
@@ -8178,7 +8242,7 @@
       </c>
       <c r="F36" s="30"/>
       <c r="G36" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
@@ -8204,7 +8268,7 @@
       <c r="AC36" s="30"/>
       <c r="AD36" s="30"/>
       <c r="AE36" s="30" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AF36" s="33"/>
       <c r="AG36" s="30"/>
@@ -8217,7 +8281,7 @@
       </c>
       <c r="F37" s="30"/>
       <c r="G37" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
@@ -8243,7 +8307,7 @@
       <c r="AC37" s="30"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AF37" s="33"/>
       <c r="AG37" s="30"/>
@@ -8256,7 +8320,7 @@
       </c>
       <c r="F38" s="30"/>
       <c r="G38" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
@@ -8282,7 +8346,7 @@
       <c r="AC38" s="30"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="AF38" s="33"/>
       <c r="AG38" s="30"/>
@@ -8295,7 +8359,7 @@
       </c>
       <c r="F39" s="30"/>
       <c r="G39" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -8321,7 +8385,7 @@
       <c r="AC39" s="30"/>
       <c r="AD39" s="30"/>
       <c r="AE39" s="30" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="AF39" s="33"/>
       <c r="AG39" s="30"/>
@@ -8334,7 +8398,7 @@
       </c>
       <c r="F40" s="30"/>
       <c r="G40" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -8359,7 +8423,7 @@
       <c r="AC40" s="30"/>
       <c r="AD40" s="30"/>
       <c r="AE40" s="30" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="AF40" s="33"/>
       <c r="AG40" s="30"/>
@@ -8371,7 +8435,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="K41" s="30"/>
       <c r="M41" s="30"/>
@@ -8384,7 +8448,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="K42" s="30"/>
       <c r="M42" s="30"/>
@@ -8396,7 +8460,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="K43" s="30"/>
       <c r="M43" s="30"/>
@@ -8408,7 +8472,7 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="K44" s="30"/>
       <c r="M44" s="30"/>
@@ -8469,7 +8533,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="92.109375" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A1:XFD1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:M108"/>
   <sheetViews>
@@ -8495,782 +8657,782 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>627</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>628</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="I1" s="38" t="s">
         <v>629</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="J1" s="38" t="s">
         <v>630</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="K1" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>632</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>633</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>634</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>635</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>637</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>638</v>
       </c>
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="H2" s="19" t="s">
         <v>640</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>642</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>645</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>646</v>
       </c>
       <c r="I2" s="18">
         <v>80</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="K2" s="19">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>649</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>654</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>655</v>
       </c>
       <c r="I3" s="18">
         <v>40</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="K3" s="19">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="F4" s="19"/>
       <c r="H4" s="5" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="L4" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F5" s="19"/>
       <c r="H5" s="19" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="L5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F6" s="19"/>
       <c r="H6" s="19" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F7" s="19"/>
       <c r="H7" s="19" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F8" s="19"/>
       <c r="H8" s="19" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F9" s="19"/>
       <c r="H9" s="19" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F10" s="19"/>
       <c r="H10" s="19" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F12" s="19"/>
       <c r="H12" s="19" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="H14" s="19" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15" s="19" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H16" s="19" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="19" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="19" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="19" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="19" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H21" s="19" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="19" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H23" s="19" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H24" s="19" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H25" s="19" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H26" s="19" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H27" s="19" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H28" s="19" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H29" s="19" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H30" s="19" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H31" s="19" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H32" s="19" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H33" s="19" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H34" s="19" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H35" s="19" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H36" s="19" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H37" s="19" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H38" s="19" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H39" s="19" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H40" s="19" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H41" s="19" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H42" s="19" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H43" s="19" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H44" s="19" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H45" s="19" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H46" s="19" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H47" s="19" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H48" s="19" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="19" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50" s="19" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="19" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="19" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H53" s="19" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H54" s="19" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H55" s="19" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H56" s="19" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H57" s="19" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H58" s="19" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H59" s="19" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H60" s="19" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H61" s="19" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H62" s="19" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H63" s="19" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H64" s="19" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H65" s="19" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H66" s="19" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H67" s="19" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H68" s="19" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H69" s="19" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H70" s="19" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H71" s="19" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H72" s="19" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H73" s="19" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H74" s="19" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H75" s="19" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H76" s="19" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H77" s="19" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H78" s="19" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H79" s="19" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H80" s="19" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H81" s="19" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H82" s="19" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H83" s="19" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H84" s="19" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H85" s="19" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H86" s="19" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H87" s="19" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H88" s="19" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H89" s="19" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H90" s="19" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H91" s="19" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H92" s="19" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H93" s="19" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H94" s="19" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H95" s="19" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H96" s="19" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H97" s="19" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H98" s="19" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H99" s="19" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H100" s="19" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H101" s="19" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H102" s="19" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H103" s="19" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H104" s="19" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H105" s="19" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H106" s="19" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H107" s="19" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H108" s="19" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -9279,105 +9441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="92.109375" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="A1:XFD1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -9397,36 +9461,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E2" s="11">
         <v>301</v>
@@ -9437,16 +9501,16 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E3" s="16">
         <v>302</v>
@@ -9457,16 +9521,16 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E4" s="16">
         <v>303</v>
@@ -9477,13 +9541,13 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="16">
@@ -9495,10 +9559,10 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C6" s="10"/>
       <c r="E6" s="16">
@@ -9508,189 +9572,189 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="16" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9702,7 +9766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -9718,16 +9782,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9735,7 +9799,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -9743,7 +9807,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9751,7 +9815,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9759,7 +9823,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -10954,9 +11018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12672,7 +12734,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12708,11 +12770,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12736,36 +12796,6 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>262</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation sqref="A1:D1" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
@@ -12776,7 +12806,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="87" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -12796,16 +12826,16 @@
         <v>239</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -14513,16 +14543,16 @@
         <v>242</v>
       </c>
       <c r="B342" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C342" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D342" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E342" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -14530,16 +14560,16 @@
         <v>242</v>
       </c>
       <c r="B343" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C343" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D343" t="s">
         <v>245</v>
       </c>
       <c r="E343" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -14547,16 +14577,16 @@
         <v>242</v>
       </c>
       <c r="B344" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C344" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D344" t="s">
         <v>247</v>
       </c>
       <c r="E344" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -14564,16 +14594,16 @@
         <v>242</v>
       </c>
       <c r="B345" t="s">
+        <v>261</v>
+      </c>
+      <c r="C345" t="s">
         <v>267</v>
       </c>
-      <c r="C345" t="s">
-        <v>273</v>
-      </c>
       <c r="D345" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E345" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -14581,16 +14611,16 @@
         <v>242</v>
       </c>
       <c r="B346" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C346" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D346" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E346" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -14598,16 +14628,16 @@
         <v>242</v>
       </c>
       <c r="B347" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C347" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D347" t="s">
         <v>245</v>
       </c>
       <c r="E347" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -14615,16 +14645,16 @@
         <v>242</v>
       </c>
       <c r="B348" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C348" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D348" t="s">
         <v>247</v>
       </c>
       <c r="E348" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -14632,16 +14662,16 @@
         <v>242</v>
       </c>
       <c r="B349" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C349" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D349" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E349" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -14649,16 +14679,16 @@
         <v>244</v>
       </c>
       <c r="B350" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C350" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D350" t="s">
         <v>243</v>
       </c>
       <c r="E350" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -14666,16 +14696,16 @@
         <v>244</v>
       </c>
       <c r="B351" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C351" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D351" t="s">
         <v>247</v>
       </c>
       <c r="E351" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -14683,16 +14713,16 @@
         <v>244</v>
       </c>
       <c r="B352" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C352" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D352" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E352" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -14700,16 +14730,16 @@
         <v>246</v>
       </c>
       <c r="B353" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C353" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D353" t="s">
         <v>243</v>
       </c>
       <c r="E353" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -14717,16 +14747,16 @@
         <v>246</v>
       </c>
       <c r="B354" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C354" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D354" t="s">
         <v>245</v>
       </c>
       <c r="E354" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -14734,16 +14764,16 @@
         <v>246</v>
       </c>
       <c r="B355" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C355" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D355" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E355" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -14751,16 +14781,16 @@
         <v>246</v>
       </c>
       <c r="B356" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C356" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D356" t="s">
         <v>243</v>
       </c>
       <c r="E356" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -14768,16 +14798,16 @@
         <v>246</v>
       </c>
       <c r="B357" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C357" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D357" t="s">
         <v>245</v>
       </c>
       <c r="E357" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -14785,16 +14815,16 @@
         <v>246</v>
       </c>
       <c r="B358" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C358" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D358" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E358" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -14802,16 +14832,16 @@
         <v>246</v>
       </c>
       <c r="B359" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C359" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D359" t="s">
         <v>243</v>
       </c>
       <c r="E359" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -14819,16 +14849,16 @@
         <v>246</v>
       </c>
       <c r="B360" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C360" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D360" t="s">
         <v>245</v>
       </c>
       <c r="E360" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -14836,16 +14866,356 @@
         <v>246</v>
       </c>
       <c r="B361" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C361" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D361" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E361" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>242</v>
+      </c>
+      <c r="B362" t="s">
+        <v>261</v>
+      </c>
+      <c r="C362" t="s">
+        <v>262</v>
+      </c>
+      <c r="D362" t="s">
+        <v>263</v>
+      </c>
+      <c r="E362" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>242</v>
+      </c>
+      <c r="B363" t="s">
+        <v>261</v>
+      </c>
+      <c r="C363" t="s">
+        <v>265</v>
+      </c>
+      <c r="D363" t="s">
+        <v>245</v>
+      </c>
+      <c r="E363" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>242</v>
+      </c>
+      <c r="B364" t="s">
+        <v>261</v>
+      </c>
+      <c r="C364" t="s">
+        <v>266</v>
+      </c>
+      <c r="D364" t="s">
+        <v>247</v>
+      </c>
+      <c r="E364" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>242</v>
+      </c>
+      <c r="B365" t="s">
+        <v>261</v>
+      </c>
+      <c r="C365" t="s">
+        <v>267</v>
+      </c>
+      <c r="D365" t="s">
+        <v>268</v>
+      </c>
+      <c r="E365" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>242</v>
+      </c>
+      <c r="B366" t="s">
+        <v>270</v>
+      </c>
+      <c r="C366" t="s">
+        <v>262</v>
+      </c>
+      <c r="D366" t="s">
+        <v>263</v>
+      </c>
+      <c r="E366" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>242</v>
+      </c>
+      <c r="B367" t="s">
+        <v>270</v>
+      </c>
+      <c r="C367" t="s">
+        <v>265</v>
+      </c>
+      <c r="D367" t="s">
+        <v>245</v>
+      </c>
+      <c r="E367" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>242</v>
+      </c>
+      <c r="B368" t="s">
+        <v>270</v>
+      </c>
+      <c r="C368" t="s">
+        <v>266</v>
+      </c>
+      <c r="D368" t="s">
+        <v>247</v>
+      </c>
+      <c r="E368" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>242</v>
+      </c>
+      <c r="B369" t="s">
+        <v>270</v>
+      </c>
+      <c r="C369" t="s">
+        <v>267</v>
+      </c>
+      <c r="D369" t="s">
+        <v>268</v>
+      </c>
+      <c r="E369" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>244</v>
+      </c>
+      <c r="B370" t="s">
+        <v>271</v>
+      </c>
+      <c r="C370" t="s">
+        <v>272</v>
+      </c>
+      <c r="D370" t="s">
+        <v>243</v>
+      </c>
+      <c r="E370" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>244</v>
+      </c>
+      <c r="B371" t="s">
+        <v>271</v>
+      </c>
+      <c r="C371" t="s">
+        <v>266</v>
+      </c>
+      <c r="D371" t="s">
+        <v>247</v>
+      </c>
+      <c r="E371" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>244</v>
+      </c>
+      <c r="B372" t="s">
+        <v>271</v>
+      </c>
+      <c r="C372" t="s">
+        <v>273</v>
+      </c>
+      <c r="D372" t="s">
+        <v>274</v>
+      </c>
+      <c r="E372" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>246</v>
+      </c>
+      <c r="B373" t="s">
         <v>275</v>
+      </c>
+      <c r="C373" t="s">
+        <v>272</v>
+      </c>
+      <c r="D373" t="s">
+        <v>243</v>
+      </c>
+      <c r="E373" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>246</v>
+      </c>
+      <c r="B374" t="s">
+        <v>275</v>
+      </c>
+      <c r="C374" t="s">
+        <v>265</v>
+      </c>
+      <c r="D374" t="s">
+        <v>245</v>
+      </c>
+      <c r="E374" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>246</v>
+      </c>
+      <c r="B375" t="s">
+        <v>275</v>
+      </c>
+      <c r="C375" t="s">
+        <v>273</v>
+      </c>
+      <c r="D375" t="s">
+        <v>274</v>
+      </c>
+      <c r="E375" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>246</v>
+      </c>
+      <c r="B376" t="s">
+        <v>276</v>
+      </c>
+      <c r="C376" t="s">
+        <v>272</v>
+      </c>
+      <c r="D376" t="s">
+        <v>243</v>
+      </c>
+      <c r="E376" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>246</v>
+      </c>
+      <c r="B377" t="s">
+        <v>276</v>
+      </c>
+      <c r="C377" t="s">
+        <v>265</v>
+      </c>
+      <c r="D377" t="s">
+        <v>245</v>
+      </c>
+      <c r="E377" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>246</v>
+      </c>
+      <c r="B378" t="s">
+        <v>276</v>
+      </c>
+      <c r="C378" t="s">
+        <v>273</v>
+      </c>
+      <c r="D378" t="s">
+        <v>274</v>
+      </c>
+      <c r="E378" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>246</v>
+      </c>
+      <c r="B379" t="s">
+        <v>277</v>
+      </c>
+      <c r="C379" t="s">
+        <v>272</v>
+      </c>
+      <c r="D379" t="s">
+        <v>243</v>
+      </c>
+      <c r="E379" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>246</v>
+      </c>
+      <c r="B380" t="s">
+        <v>277</v>
+      </c>
+      <c r="C380" t="s">
+        <v>265</v>
+      </c>
+      <c r="D380" t="s">
+        <v>245</v>
+      </c>
+      <c r="E380" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>246</v>
+      </c>
+      <c r="B381" t="s">
+        <v>277</v>
+      </c>
+      <c r="C381" t="s">
+        <v>273</v>
+      </c>
+      <c r="D381" t="s">
+        <v>274</v>
+      </c>
+      <c r="E381" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -14857,78 +15227,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF9D345-25A1-4E98-B957-498877CDDE08}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.21875" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
+    <dataValidation sqref="A1" xr:uid="{BBF49F5A-E7AF-4025-9613-2F2323EBB54A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backend/OCI.xlsx
+++ b/Backend/OCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\OCI_to_AZURE\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E229E1-EC63-4B31-B85D-DD1FB76D78C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7BFC03-BD54-46F3-8624-5206A35B7BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -21,96 +21,95 @@
     <sheet name="VCN" sheetId="6" r:id="rId6"/>
     <sheet name="Subnets" sheetId="7" r:id="rId7"/>
     <sheet name="Route_Table" sheetId="8" r:id="rId8"/>
-    <sheet name="RG" sheetId="9" r:id="rId9"/>
-    <sheet name="RT_Attachment" sheetId="10" r:id="rId10"/>
-    <sheet name="IGW" sheetId="11" r:id="rId11"/>
-    <sheet name="NAT" sheetId="12" r:id="rId12"/>
-    <sheet name="SGW" sheetId="13" r:id="rId13"/>
-    <sheet name="NSG" sheetId="14" r:id="rId14"/>
-    <sheet name="NSG_Rules" sheetId="15" r:id="rId15"/>
-    <sheet name="security_list_rules" sheetId="16" r:id="rId16"/>
-    <sheet name="Security_List_Associations" sheetId="17" r:id="rId17"/>
-    <sheet name="DRG" sheetId="18" r:id="rId18"/>
-    <sheet name="drop_down_rule_set" sheetId="19" state="hidden" r:id="rId19"/>
-    <sheet name="Database_Dropdown" sheetId="20" state="hidden" r:id="rId20"/>
-    <sheet name="LB Rule Set Dropdown" sheetId="21" state="hidden" r:id="rId21"/>
-    <sheet name="drop_down_rule_comp" sheetId="22" state="hidden" r:id="rId22"/>
+    <sheet name="RT_Attachment" sheetId="9" r:id="rId9"/>
+    <sheet name="RG" sheetId="10" r:id="rId10"/>
+    <sheet name="NAT" sheetId="12" r:id="rId11"/>
+    <sheet name="SGW" sheetId="13" r:id="rId12"/>
+    <sheet name="NSG" sheetId="14" r:id="rId13"/>
+    <sheet name="NSG_Rules" sheetId="15" r:id="rId14"/>
+    <sheet name="security_list_rules" sheetId="16" r:id="rId15"/>
+    <sheet name="Security_List_Associations" sheetId="17" r:id="rId16"/>
+    <sheet name="DRG" sheetId="18" r:id="rId17"/>
+    <sheet name="drop_down_rule_set" sheetId="19" state="hidden" r:id="rId18"/>
+    <sheet name="Database_Dropdown" sheetId="20" state="hidden" r:id="rId19"/>
+    <sheet name="LB Rule Set Dropdown" sheetId="21" state="hidden" r:id="rId20"/>
+    <sheet name="drop_down_rule_comp" sheetId="22" state="hidden" r:id="rId21"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
-    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
-    <definedName name="bm_shapes_drop" localSheetId="19">Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="21">[5]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="18">[3]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="18">Database_Dropdown!#REF!</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="20">[1]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="17">[2]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="bm_shapes_drop">#REF!</definedName>
-    <definedName name="char_set" localSheetId="19">Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="21">[5]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="18">[3]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="20">#REF!</definedName>
+    <definedName name="char_set" localSheetId="18">Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="20">[1]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="17">[2]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="19">#REF!</definedName>
     <definedName name="char_set" localSheetId="3">#REF!</definedName>
     <definedName name="char_set">#REF!</definedName>
-    <definedName name="D3D1000" localSheetId="3">'[2]DBSystems-VM-BM'!#REF!</definedName>
+    <definedName name="D3D1000" localSheetId="3">'[3]DBSystems-VM-BM'!#REF!</definedName>
     <definedName name="D3D1000">#REF!</definedName>
-    <definedName name="db_sersion_drop" localSheetId="19">Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="21">[5]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="18">[3]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="18">Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="20">[1]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="17">[2]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="3">#REF!</definedName>
     <definedName name="db_sersion_drop">#REF!</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="19">Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="21">[5]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="18">[3]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="18">Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="20">[1]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="17">[2]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="exa_shapes_drop">#REF!</definedName>
-    <definedName name="Header_Size" localSheetId="19">'[4]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="21">'[5]Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="18">#REF!</definedName>
-    <definedName name="Header_Size" localSheetId="20">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="3">'[2]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="18">'[4]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="20">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="17">#REF!</definedName>
+    <definedName name="Header_Size" localSheetId="19">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="3">'[3]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">#REF!</definedName>
-    <definedName name="license_type_drop" localSheetId="19">Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="21">[5]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="license_type_drop" localSheetId="18">[3]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="18">Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="20">[1]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="17">[2]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="3">#REF!</definedName>
     <definedName name="license_type_drop">#REF!</definedName>
-    <definedName name="nchar_set" localSheetId="19">Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="21">[5]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="18">[3]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="20">#REF!</definedName>
+    <definedName name="nchar_set" localSheetId="18">Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="20">[1]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="17">[2]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="19">#REF!</definedName>
     <definedName name="nchar_set" localSheetId="3">#REF!</definedName>
     <definedName name="nchar_set">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="19">'[4]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="21">'[5]Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="18">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="20">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="3">'[2]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="18">'[4]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="20">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="17">#REF!</definedName>
+    <definedName name="Response_Code" localSheetId="19">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="3">'[3]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="19">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="21">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="18">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="20">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="17">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="3">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
-    <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
-    <definedName name="software_drop" localSheetId="19">Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="21">[5]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="18">[3]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="Shape_Option_DB">[5]Database!$B$10:$J$10</definedName>
+    <definedName name="software_drop" localSheetId="18">Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="20">[1]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="17">[2]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="3">#REF!</definedName>
     <definedName name="software_drop">#REF!</definedName>
-    <definedName name="VM_Shapes" localSheetId="19">Database_Dropdown!$A$2:$A$12</definedName>
+    <definedName name="VM_Shapes" localSheetId="18">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes">#REF!</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="19">Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="21">[5]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="18">[3]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="18">Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="20">[1]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="17">[2]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="VM_shapes_drop">#REF!</definedName>
-    <definedName name="workload_drop" localSheetId="19">Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="21">[5]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="18">[3]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="18">Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="20">[1]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="17">[2]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="3">#REF!</definedName>
     <definedName name="workload_drop">#REF!</definedName>
   </definedNames>
@@ -119,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="454">
   <si>
     <t xml:space="preserve">
 CD3 Automation Toolkit Release - v2024.2.0</t>
@@ -140,114 +139,12 @@
     <t>Defined Tags</t>
   </si>
   <si>
-    <t>eastus</t>
-  </si>
-  <si>
-    <t>devops-nprod-cmp</t>
-  </si>
-  <si>
-    <t>Landing Zone compartment for all devops nprod related resources.</t>
-  </si>
-  <si>
-    <t>devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>Landing Zone compartment for all devops prod related resources.</t>
-  </si>
-  <si>
-    <t>LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>Landing Zone compartment for all network related resources: VCNs, subnets, network gateways, security lists, NSGs, load balancers, VNICs, and others.</t>
-  </si>
-  <si>
-    <t>nprod-cmp</t>
-  </si>
-  <si>
-    <t>Landing Zone compartment for all non productions related resources.</t>
-  </si>
-  <si>
-    <t>prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>Landing Zone compartment for all productions related resources.</t>
-  </si>
-  <si>
     <t>U_ids</t>
   </si>
   <si>
     <t>Matching Rule</t>
   </si>
   <si>
-    <t>LZdemo-announcement-reader-group</t>
-  </si>
-  <si>
-    <t>Landing Zone group for reading Console announcements.</t>
-  </si>
-  <si>
-    <t>fb9d71eb-abe1-41ee-a7f9-23530aaaee3d</t>
-  </si>
-  <si>
-    <t>LZdemo-auditor-group</t>
-  </si>
-  <si>
-    <t>Landing Zone group for auditing the tenancy.</t>
-  </si>
-  <si>
-    <t>LZdemo-cost-admin-group</t>
-  </si>
-  <si>
-    <t>Landing Zone group for Cost Management.</t>
-  </si>
-  <si>
-    <t>LZdemo-cred-admin-group</t>
-  </si>
-  <si>
-    <t>Landing Zone group for managing users credentials in the tenancy.</t>
-  </si>
-  <si>
-    <t>LZdemo-iam-admin-group</t>
-  </si>
-  <si>
-    <t>Landing Zone group for managing IAM resources in the tenancy.</t>
-  </si>
-  <si>
-    <t>LZdemo-network-admin-group</t>
-  </si>
-  <si>
-    <t>Landing Zone group for managing networking in compartment LZdemo-network-cmp.</t>
-  </si>
-  <si>
-    <t>LZdemo-storage-admin-group</t>
-  </si>
-  <si>
-    <t>Landing Zone group for Storage Management.</t>
-  </si>
-  <si>
-    <t>devops-nprod-admin-group</t>
-  </si>
-  <si>
-    <t>Group for managing app development related services in compartment devops-nprod-cmp.</t>
-  </si>
-  <si>
-    <t>devops-prod-admin-group</t>
-  </si>
-  <si>
-    <t>Group for managing app development related services in compartment devops-prod-cmp.</t>
-  </si>
-  <si>
-    <t>nprod-admin-group</t>
-  </si>
-  <si>
-    <t>Group for managing app development related services in compartment nprod-cmp.</t>
-  </si>
-  <si>
-    <t>prod-admin-group</t>
-  </si>
-  <si>
-    <t>Group for managing app development related services in compartment prodUPDATE-cmp.</t>
-  </si>
-  <si>
     <t>User Name</t>
   </si>
   <si>
@@ -275,567 +172,6 @@
     <t>Compartment Name</t>
   </si>
   <si>
-    <t>Devops-prod-admin-policy</t>
-  </si>
-  <si>
-    <t>policy for devops-prod-admin-group group to manage Workload related services.</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to read all-resources in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage functions-family in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage api-gateway-family in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage ons-family in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage streams in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage cluster-family in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage alarms in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage metrics in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage logging-family in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage instance-family in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage volume-family in compartment devops-prod-cmp where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage object-family in compartment devops-prod-cmp where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage file-family in compartment devops-prod-cmp where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage repos in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage orm-stacks in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage orm-jobs in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage orm-config-source-providers in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to read audit-events in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to read work-requests in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage bastion-session in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to manage cloudevents-rules in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to read instance-agent-plugins in compartment devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to read virtual-network-family in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to use subnets in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to use network-security-groups in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to use vnics in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to use load-balancers in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to read app-catalog-listing in compartment LandingZoneComp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to read instance-images in compartment LandingZoneComp</t>
-  </si>
-  <si>
-    <t>allow group devops-prod-admin-group to read repos in compartment LandingZoneComp</t>
-  </si>
-  <si>
-    <t>LZdemo-iam-admin-policy</t>
-  </si>
-  <si>
-    <t>Landing Zone policy for LZdemo-iam-admin-group group to manage IAM resources in Landing Zone enclosing compartment (compartment LandingZoneComp).</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage policies in compartment LandingZoneComp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage compartments in compartment LandingZoneComp</t>
-  </si>
-  <si>
-    <t>LZdemo-network-admin-policy</t>
-  </si>
-  <si>
-    <t>Landing Zone policy for LZdemo-network-admin-group group to manage network related services.</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to read all-resources in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage virtual-network-family in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage dns in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage load-balancers in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage alarms in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage metrics in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage ons-family in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage orm-stacks in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage orm-jobs in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage orm-config-source-providers in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to read audit-events in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to read work-requests in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage instance-family in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage volume-family in compartment LZdemo-network-cmp where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage object-family in compartment LZdemo-network-cmp where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage file-family in compartment LZdemo-network-cmp where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage bastion-session in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to manage cloudevents-rules in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to read instance-agent-plugins in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>devops-nprod-admin-policy</t>
-  </si>
-  <si>
-    <t>policy for devops-nprod-admin-group group to manage Workload related services.</t>
-  </si>
-  <si>
-    <t>nprod-admin-policy</t>
-  </si>
-  <si>
-    <t>policy for nprod-admin-group group to manage Workload related services.</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to read all-resources in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage functions-family in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage api-gateway-family in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage ons-family in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage streams in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage cluster-family in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage alarms in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage metrics in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage logging-family in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage instance-family in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage volume-family in compartment nprod-cmp where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage object-family in compartment nprod-cmp where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage file-family in compartment nprod-cmp where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage repos in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage orm-stacks in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage orm-jobs in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage orm-config-source-providers in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to read audit-events in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to read work-requests in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage bastion-session in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to manage cloudevents-rules in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to read instance-agent-plugins in compartment nprod-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to read virtual-network-family in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to use subnets in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to use network-security-groups in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to use vnics in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to use load-balancers in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to read app-catalog-listing in compartment LandingZoneComp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to read instance-images in compartment LandingZoneComp</t>
-  </si>
-  <si>
-    <t>allow group nprod-admin-group to read repos in compartment LandingZoneComp</t>
-  </si>
-  <si>
-    <t>prod-admin-policy</t>
-  </si>
-  <si>
-    <t>policy for prod-admin-group group to manage Workload related services.</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to read all-resources in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage functions-family in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage api-gateway-family in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage ons-family in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage streams in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage cluster-family in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage alarms in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage metrics in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage logging-family in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage instance-family in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage volume-family in compartment prodUPDATE-cmp where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage object-family in compartment prodUPDATE-cmp where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage file-family in compartment prodUPDATE-cmp where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage repos in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage orm-stacks in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage orm-jobs in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage orm-config-source-providers in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to read audit-events in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to read work-requests in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage bastion-session in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to manage cloudevents-rules in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to read instance-agent-plugins in compartment prodUPDATE-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to read virtual-network-family in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to use subnets in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to use network-security-groups in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to use vnics in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to use load-balancers in compartment LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to read app-catalog-listing in compartment LandingZoneComp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to read instance-images in compartment LandingZoneComp</t>
-  </si>
-  <si>
-    <t>allow group prod-admin-group to read repos in compartment LandingZoneComp</t>
-  </si>
-  <si>
-    <t>LZdemo-announcement-reader-policy</t>
-  </si>
-  <si>
-    <t>Landing Zone LZdemo-announcement-reader-group's root compartment policy.</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-announcement-reader-group to read announcements in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-announcement-reader-group to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>LZdemo-auditor-policy</t>
-  </si>
-  <si>
-    <t>Landing Zone LZdemo-auditor-group's root compartment policy.</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to inspect all-resources in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read instances in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read load-balancers in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read buckets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read nat-gateways in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read public-ips in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read file-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read instance-configurations in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read network-security-groups in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read resource-availability in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read audit-events in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read users in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read vss-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-auditor-group to read data-safe-family in tenancy</t>
-  </si>
-  <si>
-    <t>LZdemo-cost-admin-root-policy</t>
-  </si>
-  <si>
-    <t>Landing Zone LZdemo-cost-admin-group's root compartment policy.</t>
-  </si>
-  <si>
-    <t>define tenancy usage-report as ocid1.tenancy.oc1..aaaaaaaaned4fkpkisbwjlr56u7cj63lf3wffbilvqknstgtvzub7vhqkggq</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-cost-admin-group to manage usage-report in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-cost-admin-group to manage usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>endorse group LZdemo-cost-admin-group to read objects in tenancy usage-report</t>
-  </si>
-  <si>
-    <t>LZdemo-credential-admin-policy</t>
-  </si>
-  <si>
-    <t>Landing Zone LZdemo-cred-admin-group's root compartment policy.</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-cred-admin-group to inspect users in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-cred-admin-group to inspect groups in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-cred-admin-group to manage users in tenancy  where any {request.operation = 'ListApiKeys',request.operation = 'ListAuthTokens',request.operation = 'ListCustomerSecretKeys',request.operation = 'UploadApiKey',request.operation = 'DeleteApiKey',request.operation = 'UpdateAuthToken',request.operation = 'CreateAuthToken',request.operation = 'DeleteAuthToken',request.operation = 'CreateSecretKey',request.operation = 'UpdateCustomerSecretKey',request.operation = 'DeleteCustomerSecretKey',request.operation = 'UpdateUserCapabilities'}</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-cred-admin-group to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>LZdemo-iam-admin-root-policy</t>
-  </si>
-  <si>
-    <t>Landing Zone LZdemo-iam-admin-group's root compartment policy.</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to inspect users in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to inspect groups in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to read policies in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage groups in tenancy where all {target.group.name != 'Administrators', target.group.name != 'LZdemo-cred-admin-group'}</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to inspect identity-providers in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage identity-providers in tenancy where any {request.operation = 'AddIdpGroupMapping', request.operation = 'DeleteIdpGroupMapping'}</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage dynamic-groups in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage authentication-policies in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage network-sources in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage quota in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to read audit-events in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage tag-defaults in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage tag-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage orm-stacks in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage orm-jobs in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-iam-admin-group to manage orm-config-source-providers in tenancy</t>
-  </si>
-  <si>
-    <t>LZdemo-network-admin-root-policy</t>
-  </si>
-  <si>
-    <t>Landing Zone LZdemo-network-admin-group's root compartment policy.</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group LZdemo-network-admin-group to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>LZdemo-services-policy</t>
-  </si>
-  <si>
-    <t>Landing Zone policy for OCI services: Cloud Guard, Vulnerability Scanning and OS Management.</t>
-  </si>
-  <si>
-    <t>Allow service cloudguard to read all-resources in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service cloudguard to use network-security-groups in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service osms to read instances in tenancy</t>
-  </si>
-  <si>
     <t>Compartment_Name</t>
   </si>
   <si>
@@ -872,9 +208,6 @@
     <t>Network_Region</t>
   </si>
   <si>
-    <t>Internet_GW_Name</t>
-  </si>
-  <si>
     <t>NAT_GW_Name</t>
   </si>
   <si>
@@ -921,6 +254,42 @@
   </si>
   <si>
     <t>Source_Port_Range</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>icmp_options</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>source_type</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>destination_type</t>
+  </si>
+  <si>
+    <t>tcp_options</t>
+  </si>
+  <si>
+    <t>udp_options</t>
+  </si>
+  <si>
+    <t>Security_List_Name</t>
   </si>
   <si>
     <t>Fixed Reference</t>
@@ -2386,7 +1755,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2485,7 +1854,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2509,60 +1877,41 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Database"/>
+      <sheetName val="Release-Info"/>
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
       <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
       <sheetName val="VCNs"/>
+      <sheetName val="DRGs"/>
       <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
       <sheetName val="Subnets"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="AddRouteRules"/>
-      <sheetName val="AddSecRules"/>
+      <sheetName val="DRGRouteRulesinOCI"/>
       <sheetName val="RouteRulesinOCI"/>
       <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
       <sheetName val="DedicatedVMHosts"/>
       <sheetName val="Instances"/>
       <sheetName val="BlockVols"/>
-      <sheetName val="Tags"/>
-      <sheetName val="TagServer"/>
-      <sheetName val="TagVolume"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="Sheet 2"/>
-      <sheetName val="Data_Validation Values"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="Rule Set Dropdown"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DB_System_VM"/>
+      <sheetName val="DB_System_BM"/>
+      <sheetName val="DB_System_EXA"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
+      <sheetName val="Database_Dropdown"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -2582,14 +1931,1443 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23">
+        <row r="2">
+          <cell r="E2">
+            <v>301</v>
+          </cell>
+          <cell r="F2">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>302</v>
+          </cell>
+          <cell r="F3">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>303</v>
+          </cell>
+          <cell r="F4">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>307</v>
+          </cell>
+          <cell r="F5">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>308</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve">11.2.0.4 </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OLTP</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Exadata.Quarter2.92</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>LICENSE_INCLUDED</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>AL16UTF16</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>AL32UTF8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>STANDARD_EDITION</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>12.1.0.2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>DSS</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Exadata.Half2.184</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>BM.DenseIO1.36</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>BRING_YOUR_OWN_LICENSE</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>UTF8</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>AR8ADOS710</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ENTERPRISE_EDITION</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>12.2.0.1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Exadata.Full2.368</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>AR8ADOS720</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>18.0.0.0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Exadata.Quarter1.84</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>AR8APTEC715</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v xml:space="preserve">18.9.0.0 </v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Exadata.Half1.168</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>AR8ARABICMACS</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>18.10.0.0</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Exadata.Full1.336</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>AR8ASMO8X</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>18.11.0.0</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>AR8ISO8859P6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>19.0.0.0</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Exadata.Half3.200</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>AR8MSWIN1256</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>19.6.0.0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Exadata.Quater3.100</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>AR8MUSSAD768</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v xml:space="preserve">19.7.0.0 </v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Exadata.Full3.400</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>AR8NAFITHA711</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>19.8.0.0</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>AR8NAFITHA721</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>20.0.0.0</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>AR8SAKHR706</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>20.3.0.0</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>AR8SAKHR707</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15" t="str">
+            <v>AZ8ISO8859P9E</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16" t="str">
+            <v>BG8MSWIN</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17" t="str">
+            <v>BG8PC437S</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18" t="str">
+            <v>BLT8CP921</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19" t="str">
+            <v>BLT8ISO8859P13</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20" t="str">
+            <v>BLT8MSWIN1257</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21" t="str">
+            <v>BLT8PC775</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22" t="str">
+            <v>BN8BSCII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23" t="str">
+            <v>CDN8PC863</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24" t="str">
+            <v>CEL8ISO8859P14</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25" t="str">
+            <v>CL8ISO8859P5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26" t="str">
+            <v>CL8ISOIR111</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27" t="str">
+            <v>CL8KOI8R</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="I28" t="str">
+            <v>CL8KOI8U</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="I29" t="str">
+            <v>CL8MACCYRILLICS</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30" t="str">
+            <v>CL8MSWIN1251</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31" t="str">
+            <v>EE8ISO8859P2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32" t="str">
+            <v>EE8MACCES</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="I33" t="str">
+            <v>EE8MACCROATIANS</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="I34" t="str">
+            <v>EE8MSWIN1250</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35" t="str">
+            <v>EE8PC852</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36" t="str">
+            <v>EL8DEC</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="I37" t="str">
+            <v>EL8ISO8859P7</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="I38" t="str">
+            <v>EL8MACGREEKS</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="I39" t="str">
+            <v>EL8MSWIN1253</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40" t="str">
+            <v>EL8PC437S</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41" t="str">
+            <v>EL8PC851</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42" t="str">
+            <v>EL8PC869</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43" t="str">
+            <v>ET8MSWIN923</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44" t="str">
+            <v>HU8ABMOD</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45" t="str">
+            <v>HU8CWI2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46" t="str">
+            <v>IN8ISCII</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47" t="str">
+            <v>IS8PC861</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48" t="str">
+            <v>IW8ISO8859P8</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49" t="str">
+            <v>IW8MACHEBREWS</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50" t="str">
+            <v>IW8MSWIN1255</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51" t="str">
+            <v>IW8PC1507</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="I52" t="str">
+            <v>JA16EUC</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53" t="str">
+            <v>JA16EUCTILDE</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="I54" t="str">
+            <v>JA16SJIS</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55" t="str">
+            <v>JA16SJISTILDE</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56" t="str">
+            <v>JA16VMS</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57" t="str">
+            <v>KO16KSC5601</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58" t="str">
+            <v>KO16KSCCS</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59" t="str">
+            <v>KO16MSWIN949</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60" t="str">
+            <v>LA8ISO6937</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61" t="str">
+            <v>LA8PASSPORT</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62" t="str">
+            <v>LT8MSWIN921</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63" t="str">
+            <v>LT8PC772</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64" t="str">
+            <v>LT8PC774</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65" t="str">
+            <v>LV8PC1117</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66" t="str">
+            <v>LV8PC8LR</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67" t="str">
+            <v>LV8RST104090</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68" t="str">
+            <v>N8PC865</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69" t="str">
+            <v>NE8ISO8859P10</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70" t="str">
+            <v>NEE8ISO8859P4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="I71" t="str">
+            <v>RU8BESTA</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="I72" t="str">
+            <v>RU8PC855</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="I73" t="str">
+            <v>RU8PC866</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="I74" t="str">
+            <v>SE8ISO8859P3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="I75" t="str">
+            <v>TH8MACTHAIS</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="I76" t="str">
+            <v>TH8TISASCII</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="I77" t="str">
+            <v>TR8DEC</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="I78" t="str">
+            <v>TR8MACTURKISHS</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="I79" t="str">
+            <v>TR8MSWIN1254</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="I80" t="str">
+            <v>TR8PC857</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="I81" t="str">
+            <v>US7ASCII</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="I82" t="str">
+            <v>US8PC437</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="I83" t="str">
+            <v>UTF8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="I84" t="str">
+            <v>VN8MSWIN1258</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="I85" t="str">
+            <v>VN8VN3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="I86" t="str">
+            <v>WE8DEC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="I87" t="str">
+            <v>WE8DG</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="I88" t="str">
+            <v>WE8ISO8859P1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="I89" t="str">
+            <v>WE8ISO8859P15</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="I90" t="str">
+            <v>WE8ISO8859P9</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="I91" t="str">
+            <v>WE8MACROMAN8S</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="I92" t="str">
+            <v>WE8MSWIN1252</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="I93" t="str">
+            <v>WE8NCR4970</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="I94" t="str">
+            <v>WE8NEXTSTEP</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="I95" t="str">
+            <v>WE8PC850</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="I96" t="str">
+            <v>WE8PC858</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="I97" t="str">
+            <v>WE8PC860</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="I98" t="str">
+            <v>WE8ROMAN8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="I99" t="str">
+            <v>ZHS16CGB231280</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="I100" t="str">
+            <v>ZHS16GBK</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="I101" t="str">
+            <v>ZHT16BIG5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="I102" t="str">
+            <v>ZHT16CCDC</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="I103" t="str">
+            <v>ZHT16DBT</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="I104" t="str">
+            <v>ZHT16HKSCS</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="I105" t="str">
+            <v>ZHT16MSWIN950</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="I106" t="str">
+            <v>ZHT32EUC</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="I107" t="str">
+            <v>ZHT32SOPS</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="I108" t="str">
+            <v>ZHT32TRIS</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release-Info"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVols"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DB_System_VM"/>
+      <sheetName val="DB_System_BM"/>
+      <sheetName val="DB_System_EXA"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="Database_Dropdown"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve">11.2.0.4 </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OLTP</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Exadata.Quarter2.92</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>LICENSE_INCLUDED</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>AL16UTF16</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>AL32UTF8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>STANDARD_EDITION</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>12.1.0.2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>DSS</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Exadata.Half2.184</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>BM.DenseIO1.36</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>BRING_YOUR_OWN_LICENSE</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>UTF8</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>AR8ADOS710</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ENTERPRISE_EDITION</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>12.2.0.1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Exadata.Full2.368</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>AR8ADOS720</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>18.0.0.0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Exadata.Quarter1.84</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>AR8APTEC715</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v xml:space="preserve">18.9.0.0 </v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Exadata.Half1.168</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>AR8ARABICMACS</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>18.10.0.0</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Exadata.Full1.336</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>AR8ASMO8X</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>18.11.0.0</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>AR8ISO8859P6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>19.0.0.0</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Exadata.Half3.200</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>AR8MSWIN1256</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>19.6.0.0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Exadata.Quater3.100</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>AR8MUSSAD768</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v xml:space="preserve">19.7.0.0 </v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Exadata.Full3.400</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>AR8NAFITHA711</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>19.8.0.0</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>AR8NAFITHA721</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>20.0.0.0</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>AR8SAKHR706</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>20.3.0.0</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>AR8SAKHR707</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15" t="str">
+            <v>AZ8ISO8859P9E</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16" t="str">
+            <v>BG8MSWIN</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17" t="str">
+            <v>BG8PC437S</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18" t="str">
+            <v>BLT8CP921</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19" t="str">
+            <v>BLT8ISO8859P13</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20" t="str">
+            <v>BLT8MSWIN1257</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21" t="str">
+            <v>BLT8PC775</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22" t="str">
+            <v>BN8BSCII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23" t="str">
+            <v>CDN8PC863</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24" t="str">
+            <v>CEL8ISO8859P14</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25" t="str">
+            <v>CL8ISO8859P5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26" t="str">
+            <v>CL8ISOIR111</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27" t="str">
+            <v>CL8KOI8R</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="I28" t="str">
+            <v>CL8KOI8U</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="I29" t="str">
+            <v>CL8MACCYRILLICS</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30" t="str">
+            <v>CL8MSWIN1251</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31" t="str">
+            <v>EE8ISO8859P2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32" t="str">
+            <v>EE8MACCES</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="I33" t="str">
+            <v>EE8MACCROATIANS</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="I34" t="str">
+            <v>EE8MSWIN1250</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35" t="str">
+            <v>EE8PC852</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36" t="str">
+            <v>EL8DEC</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="I37" t="str">
+            <v>EL8ISO8859P7</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="I38" t="str">
+            <v>EL8MACGREEKS</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="I39" t="str">
+            <v>EL8MSWIN1253</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40" t="str">
+            <v>EL8PC437S</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41" t="str">
+            <v>EL8PC851</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42" t="str">
+            <v>EL8PC869</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43" t="str">
+            <v>ET8MSWIN923</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44" t="str">
+            <v>HU8ABMOD</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45" t="str">
+            <v>HU8CWI2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46" t="str">
+            <v>IN8ISCII</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47" t="str">
+            <v>IS8PC861</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48" t="str">
+            <v>IW8ISO8859P8</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49" t="str">
+            <v>IW8MACHEBREWS</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50" t="str">
+            <v>IW8MSWIN1255</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51" t="str">
+            <v>IW8PC1507</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="I52" t="str">
+            <v>JA16EUC</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53" t="str">
+            <v>JA16EUCTILDE</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="I54" t="str">
+            <v>JA16SJIS</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55" t="str">
+            <v>JA16SJISTILDE</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56" t="str">
+            <v>JA16VMS</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57" t="str">
+            <v>KO16KSC5601</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58" t="str">
+            <v>KO16KSCCS</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59" t="str">
+            <v>KO16MSWIN949</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60" t="str">
+            <v>LA8ISO6937</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61" t="str">
+            <v>LA8PASSPORT</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62" t="str">
+            <v>LT8MSWIN921</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63" t="str">
+            <v>LT8PC772</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64" t="str">
+            <v>LT8PC774</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65" t="str">
+            <v>LV8PC1117</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66" t="str">
+            <v>LV8PC8LR</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67" t="str">
+            <v>LV8RST104090</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68" t="str">
+            <v>N8PC865</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69" t="str">
+            <v>NE8ISO8859P10</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70" t="str">
+            <v>NEE8ISO8859P4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="I71" t="str">
+            <v>RU8BESTA</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="I72" t="str">
+            <v>RU8PC855</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="I73" t="str">
+            <v>RU8PC866</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="I74" t="str">
+            <v>SE8ISO8859P3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="I75" t="str">
+            <v>TH8MACTHAIS</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="I76" t="str">
+            <v>TH8TISASCII</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="I77" t="str">
+            <v>TR8DEC</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="I78" t="str">
+            <v>TR8MACTURKISHS</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="I79" t="str">
+            <v>TR8MSWIN1254</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="I80" t="str">
+            <v>TR8PC857</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="I81" t="str">
+            <v>US7ASCII</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="I82" t="str">
+            <v>US8PC437</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="I83" t="str">
+            <v>UTF8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="I84" t="str">
+            <v>VN8MSWIN1258</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="I85" t="str">
+            <v>VN8VN3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="I86" t="str">
+            <v>WE8DEC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="I87" t="str">
+            <v>WE8DG</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="I88" t="str">
+            <v>WE8ISO8859P1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="I89" t="str">
+            <v>WE8ISO8859P15</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="I90" t="str">
+            <v>WE8ISO8859P9</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="I91" t="str">
+            <v>WE8MACROMAN8S</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="I92" t="str">
+            <v>WE8MSWIN1252</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="I93" t="str">
+            <v>WE8NCR4970</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="I94" t="str">
+            <v>WE8NEXTSTEP</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="I95" t="str">
+            <v>WE8PC850</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="I96" t="str">
+            <v>WE8PC858</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="I97" t="str">
+            <v>WE8PC860</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="I98" t="str">
+            <v>WE8ROMAN8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="I99" t="str">
+            <v>ZHS16CGB231280</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="I100" t="str">
+            <v>ZHS16GBK</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="I101" t="str">
+            <v>ZHT16BIG5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="I102" t="str">
+            <v>ZHT16CCDC</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="I103" t="str">
+            <v>ZHT16DBT</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="I104" t="str">
+            <v>ZHT16HKSCS</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="I105" t="str">
+            <v>ZHT16MSWIN950</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="I106" t="str">
+            <v>ZHT32EUC</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="I107" t="str">
+            <v>ZHT32SOPS</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="I108" t="str">
+            <v>ZHT32TRIS</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2710,41 +3488,77 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Release-Info"/>
+      <sheetName val="LB Rule Set Dropdown"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Database"/>
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
       <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
       <sheetName val="VCNs"/>
       <sheetName val="VCN Info"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="ADW_ATP"/>
       <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
+      <sheetName val="AddRouteRules"/>
+      <sheetName val="AddSecRules"/>
       <sheetName val="RouteRulesinOCI"/>
       <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
       <sheetName val="DedicatedVMHosts"/>
       <sheetName val="Instances"/>
       <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_BM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="Database_Dropdown"/>
+      <sheetName val="Tags"/>
+      <sheetName val="TagServer"/>
+      <sheetName val="TagVolume"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="Sheet 2"/>
+      <sheetName val="Data_Validation Values"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -2764,1454 +3578,8 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v xml:space="preserve">11.2.0.4 </v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OLTP</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Exadata.Quarter2.92</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>LICENSE_INCLUDED</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>AL16UTF16</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>AL32UTF8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>STANDARD_EDITION</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>12.1.0.2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>DSS</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Exadata.Half2.184</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>BM.DenseIO1.36</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>BRING_YOUR_OWN_LICENSE</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>UTF8</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>AR8ADOS710</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ENTERPRISE_EDITION</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>12.2.0.1</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Exadata.Full2.368</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>AR8ADOS720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>18.0.0.0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Exadata.Quarter1.84</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>AR8APTEC715</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v xml:space="preserve">18.9.0.0 </v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Exadata.Half1.168</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>AR8ARABICMACS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>18.10.0.0</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Exadata.Full1.336</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>AR8ASMO8X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>18.11.0.0</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>AR8ISO8859P6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>19.0.0.0</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Exadata.Half3.200</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>AR8MSWIN1256</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>19.6.0.0</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Exadata.Quater3.100</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>AR8MUSSAD768</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v xml:space="preserve">19.7.0.0 </v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Exadata.Full3.400</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>AR8NAFITHA711</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>19.8.0.0</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>AR8NAFITHA721</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>20.0.0.0</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>AR8SAKHR706</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>20.3.0.0</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>AR8SAKHR707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15" t="str">
-            <v>AZ8ISO8859P9E</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16" t="str">
-            <v>BG8MSWIN</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17" t="str">
-            <v>BG8PC437S</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18" t="str">
-            <v>BLT8CP921</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19" t="str">
-            <v>BLT8ISO8859P13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20" t="str">
-            <v>BLT8MSWIN1257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21" t="str">
-            <v>BLT8PC775</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22" t="str">
-            <v>BN8BSCII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23" t="str">
-            <v>CDN8PC863</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24" t="str">
-            <v>CEL8ISO8859P14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25" t="str">
-            <v>CL8ISO8859P5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26" t="str">
-            <v>CL8ISOIR111</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27" t="str">
-            <v>CL8KOI8R</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28" t="str">
-            <v>CL8KOI8U</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29" t="str">
-            <v>CL8MACCYRILLICS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30" t="str">
-            <v>CL8MSWIN1251</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31" t="str">
-            <v>EE8ISO8859P2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32" t="str">
-            <v>EE8MACCES</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33" t="str">
-            <v>EE8MACCROATIANS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34" t="str">
-            <v>EE8MSWIN1250</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35" t="str">
-            <v>EE8PC852</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36" t="str">
-            <v>EL8DEC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37" t="str">
-            <v>EL8ISO8859P7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38" t="str">
-            <v>EL8MACGREEKS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39" t="str">
-            <v>EL8MSWIN1253</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40" t="str">
-            <v>EL8PC437S</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41" t="str">
-            <v>EL8PC851</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42" t="str">
-            <v>EL8PC869</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43" t="str">
-            <v>ET8MSWIN923</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44" t="str">
-            <v>HU8ABMOD</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45" t="str">
-            <v>HU8CWI2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46" t="str">
-            <v>IN8ISCII</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47" t="str">
-            <v>IS8PC861</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48" t="str">
-            <v>IW8ISO8859P8</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49" t="str">
-            <v>IW8MACHEBREWS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50" t="str">
-            <v>IW8MSWIN1255</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51" t="str">
-            <v>IW8PC1507</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52" t="str">
-            <v>JA16EUC</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53" t="str">
-            <v>JA16EUCTILDE</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54" t="str">
-            <v>JA16SJIS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55" t="str">
-            <v>JA16SJISTILDE</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56" t="str">
-            <v>JA16VMS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57" t="str">
-            <v>KO16KSC5601</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="I58" t="str">
-            <v>KO16KSCCS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="I59" t="str">
-            <v>KO16MSWIN949</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="I60" t="str">
-            <v>LA8ISO6937</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="I61" t="str">
-            <v>LA8PASSPORT</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="I62" t="str">
-            <v>LT8MSWIN921</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="I63" t="str">
-            <v>LT8PC772</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="I64" t="str">
-            <v>LT8PC774</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="I65" t="str">
-            <v>LV8PC1117</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="I66" t="str">
-            <v>LV8PC8LR</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="I67" t="str">
-            <v>LV8RST104090</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="I68" t="str">
-            <v>N8PC865</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="I69" t="str">
-            <v>NE8ISO8859P10</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="I70" t="str">
-            <v>NEE8ISO8859P4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="I71" t="str">
-            <v>RU8BESTA</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="I72" t="str">
-            <v>RU8PC855</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="I73" t="str">
-            <v>RU8PC866</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="I74" t="str">
-            <v>SE8ISO8859P3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="I75" t="str">
-            <v>TH8MACTHAIS</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="I76" t="str">
-            <v>TH8TISASCII</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="I77" t="str">
-            <v>TR8DEC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="I78" t="str">
-            <v>TR8MACTURKISHS</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="I79" t="str">
-            <v>TR8MSWIN1254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="I80" t="str">
-            <v>TR8PC857</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="I81" t="str">
-            <v>US7ASCII</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="I82" t="str">
-            <v>US8PC437</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="I83" t="str">
-            <v>UTF8</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="I84" t="str">
-            <v>VN8MSWIN1258</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="I85" t="str">
-            <v>VN8VN3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="I86" t="str">
-            <v>WE8DEC</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87" t="str">
-            <v>WE8DG</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88" t="str">
-            <v>WE8ISO8859P1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89" t="str">
-            <v>WE8ISO8859P15</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90" t="str">
-            <v>WE8ISO8859P9</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91" t="str">
-            <v>WE8MACROMAN8S</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92" t="str">
-            <v>WE8MSWIN1252</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93" t="str">
-            <v>WE8NCR4970</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94" t="str">
-            <v>WE8NEXTSTEP</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95" t="str">
-            <v>WE8PC850</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96" t="str">
-            <v>WE8PC858</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97" t="str">
-            <v>WE8PC860</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98" t="str">
-            <v>WE8ROMAN8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99" t="str">
-            <v>ZHS16CGB231280</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100" t="str">
-            <v>ZHS16GBK</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101" t="str">
-            <v>ZHT16BIG5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102" t="str">
-            <v>ZHT16CCDC</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103" t="str">
-            <v>ZHT16DBT</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104" t="str">
-            <v>ZHT16HKSCS</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105" t="str">
-            <v>ZHT16MSWIN950</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106" t="str">
-            <v>ZHT32EUC</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107" t="str">
-            <v>ZHT32SOPS</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108" t="str">
-            <v>ZHT32TRIS</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="LB Rule Set Dropdown"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="Rule Set Dropdown"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_BM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="drop_down_rule_comp"/>
-      <sheetName val="Database_Dropdown"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23">
-        <row r="2">
-          <cell r="E2">
-            <v>301</v>
-          </cell>
-          <cell r="F2">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>302</v>
-          </cell>
-          <cell r="F3">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>303</v>
-          </cell>
-          <cell r="F4">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>307</v>
-          </cell>
-          <cell r="F5">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>308</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v xml:space="preserve">11.2.0.4 </v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OLTP</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Exadata.Quarter2.92</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>LICENSE_INCLUDED</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>AL16UTF16</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>AL32UTF8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>STANDARD_EDITION</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>12.1.0.2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>DSS</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Exadata.Half2.184</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>BM.DenseIO1.36</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>BRING_YOUR_OWN_LICENSE</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>UTF8</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>AR8ADOS710</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ENTERPRISE_EDITION</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>12.2.0.1</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Exadata.Full2.368</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>AR8ADOS720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>18.0.0.0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Exadata.Quarter1.84</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>AR8APTEC715</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v xml:space="preserve">18.9.0.0 </v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Exadata.Half1.168</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>AR8ARABICMACS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>18.10.0.0</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Exadata.Full1.336</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>AR8ASMO8X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>18.11.0.0</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>AR8ISO8859P6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>19.0.0.0</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Exadata.Half3.200</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>AR8MSWIN1256</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>19.6.0.0</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Exadata.Quater3.100</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>AR8MUSSAD768</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v xml:space="preserve">19.7.0.0 </v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Exadata.Full3.400</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>AR8NAFITHA711</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>19.8.0.0</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>AR8NAFITHA721</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>20.0.0.0</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>AR8SAKHR706</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>20.3.0.0</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>AR8SAKHR707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15" t="str">
-            <v>AZ8ISO8859P9E</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16" t="str">
-            <v>BG8MSWIN</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17" t="str">
-            <v>BG8PC437S</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18" t="str">
-            <v>BLT8CP921</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19" t="str">
-            <v>BLT8ISO8859P13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20" t="str">
-            <v>BLT8MSWIN1257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21" t="str">
-            <v>BLT8PC775</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22" t="str">
-            <v>BN8BSCII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23" t="str">
-            <v>CDN8PC863</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24" t="str">
-            <v>CEL8ISO8859P14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25" t="str">
-            <v>CL8ISO8859P5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26" t="str">
-            <v>CL8ISOIR111</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27" t="str">
-            <v>CL8KOI8R</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28" t="str">
-            <v>CL8KOI8U</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29" t="str">
-            <v>CL8MACCYRILLICS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30" t="str">
-            <v>CL8MSWIN1251</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31" t="str">
-            <v>EE8ISO8859P2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32" t="str">
-            <v>EE8MACCES</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33" t="str">
-            <v>EE8MACCROATIANS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34" t="str">
-            <v>EE8MSWIN1250</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35" t="str">
-            <v>EE8PC852</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36" t="str">
-            <v>EL8DEC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37" t="str">
-            <v>EL8ISO8859P7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38" t="str">
-            <v>EL8MACGREEKS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39" t="str">
-            <v>EL8MSWIN1253</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40" t="str">
-            <v>EL8PC437S</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41" t="str">
-            <v>EL8PC851</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42" t="str">
-            <v>EL8PC869</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43" t="str">
-            <v>ET8MSWIN923</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44" t="str">
-            <v>HU8ABMOD</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45" t="str">
-            <v>HU8CWI2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46" t="str">
-            <v>IN8ISCII</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47" t="str">
-            <v>IS8PC861</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48" t="str">
-            <v>IW8ISO8859P8</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49" t="str">
-            <v>IW8MACHEBREWS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50" t="str">
-            <v>IW8MSWIN1255</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51" t="str">
-            <v>IW8PC1507</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52" t="str">
-            <v>JA16EUC</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53" t="str">
-            <v>JA16EUCTILDE</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54" t="str">
-            <v>JA16SJIS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55" t="str">
-            <v>JA16SJISTILDE</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56" t="str">
-            <v>JA16VMS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57" t="str">
-            <v>KO16KSC5601</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="I58" t="str">
-            <v>KO16KSCCS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="I59" t="str">
-            <v>KO16MSWIN949</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="I60" t="str">
-            <v>LA8ISO6937</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="I61" t="str">
-            <v>LA8PASSPORT</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="I62" t="str">
-            <v>LT8MSWIN921</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="I63" t="str">
-            <v>LT8PC772</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="I64" t="str">
-            <v>LT8PC774</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="I65" t="str">
-            <v>LV8PC1117</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="I66" t="str">
-            <v>LV8PC8LR</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="I67" t="str">
-            <v>LV8RST104090</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="I68" t="str">
-            <v>N8PC865</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="I69" t="str">
-            <v>NE8ISO8859P10</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="I70" t="str">
-            <v>NEE8ISO8859P4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="I71" t="str">
-            <v>RU8BESTA</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="I72" t="str">
-            <v>RU8PC855</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="I73" t="str">
-            <v>RU8PC866</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="I74" t="str">
-            <v>SE8ISO8859P3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="I75" t="str">
-            <v>TH8MACTHAIS</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="I76" t="str">
-            <v>TH8TISASCII</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="I77" t="str">
-            <v>TR8DEC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="I78" t="str">
-            <v>TR8MACTURKISHS</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="I79" t="str">
-            <v>TR8MSWIN1254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="I80" t="str">
-            <v>TR8PC857</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="I81" t="str">
-            <v>US7ASCII</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="I82" t="str">
-            <v>US8PC437</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="I83" t="str">
-            <v>UTF8</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="I84" t="str">
-            <v>VN8MSWIN1258</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="I85" t="str">
-            <v>VN8VN3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="I86" t="str">
-            <v>WE8DEC</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87" t="str">
-            <v>WE8DG</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88" t="str">
-            <v>WE8ISO8859P1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89" t="str">
-            <v>WE8ISO8859P15</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90" t="str">
-            <v>WE8ISO8859P9</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91" t="str">
-            <v>WE8MACROMAN8S</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92" t="str">
-            <v>WE8MSWIN1252</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93" t="str">
-            <v>WE8NCR4970</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94" t="str">
-            <v>WE8NEXTSTEP</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95" t="str">
-            <v>WE8PC850</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96" t="str">
-            <v>WE8PC858</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97" t="str">
-            <v>WE8PC860</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98" t="str">
-            <v>WE8ROMAN8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99" t="str">
-            <v>ZHS16CGB231280</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100" t="str">
-            <v>ZHS16GBK</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101" t="str">
-            <v>ZHT16BIG5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102" t="str">
-            <v>ZHT16CCDC</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103" t="str">
-            <v>ZHT16DBT</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104" t="str">
-            <v>ZHT16HKSCS</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105" t="str">
-            <v>ZHT16MSWIN950</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106" t="str">
-            <v>ZHT32EUC</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107" t="str">
-            <v>ZHT32SOPS</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108" t="str">
-            <v>ZHT32TRIS</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4532,70 +3900,36 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.21875" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>242</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
+    <dataValidation sqref="A1" xr:uid="{00000000-0002-0000-0900-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4608,16 +3942,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4628,12 +3962,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4646,16 +3980,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4666,26 +4000,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.5546875" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="2" max="2" width="82.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>257</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4696,12 +4030,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4722,37 +4056,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>266</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4763,12 +4097,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4784,31 +4118,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:K1" xr:uid="{CCD305E7-3106-4E63-9B55-6816959E0BD9}"/>
+    <dataValidation sqref="A1:K1" xr:uid="{00000000-0002-0000-0F00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4818,8 +4176,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4829,7 +4191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4843,7 +4205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AN50"/>
   <sheetViews>
@@ -4887,130 +4249,130 @@
     <col min="35" max="35" width="13.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="38" max="152" width="28.44140625" style="35" customWidth="1"/>
-    <col min="153" max="16384" width="28.44140625" style="35"/>
+    <col min="38" max="154" width="28.44140625" style="35" customWidth="1"/>
+    <col min="155" max="16384" width="28.44140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="28" customFormat="1" ht="148.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>267</v>
+        <v>57</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>273</v>
+        <v>63</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>274</v>
+        <v>64</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>278</v>
+        <v>68</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>279</v>
+        <v>69</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="AC1" s="27" t="s">
-        <v>294</v>
+        <v>84</v>
       </c>
       <c r="AD1" s="27" t="s">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>298</v>
+        <v>88</v>
       </c>
       <c r="AH1" s="27" t="s">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="AI1" s="27" t="s">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="AJ1" s="27" t="s">
-        <v>301</v>
+        <v>91</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>304</v>
+        <v>94</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>305</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -5018,100 +4380,100 @@
         <v>3</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>306</v>
+        <v>96</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>307</v>
+        <v>97</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>312</v>
+        <v>102</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>313</v>
+        <v>103</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>314</v>
+        <v>104</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>315</v>
+        <v>105</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>316</v>
+        <v>106</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>317</v>
+        <v>107</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>319</v>
+        <v>109</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>320</v>
+        <v>110</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>321</v>
+        <v>111</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>323</v>
+        <v>113</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>324</v>
+        <v>114</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>325</v>
+        <v>115</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>326</v>
+        <v>116</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>327</v>
+        <v>117</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>328</v>
+        <v>118</v>
       </c>
       <c r="Y2" s="30" t="b">
         <v>1</v>
       </c>
       <c r="Z2" s="30" t="s">
-        <v>329</v>
+        <v>119</v>
       </c>
       <c r="AA2" s="30" t="s">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="AB2" s="30" t="s">
-        <v>331</v>
+        <v>121</v>
       </c>
       <c r="AC2" s="30" t="s">
-        <v>316</v>
+        <v>106</v>
       </c>
       <c r="AD2" s="30" t="s">
-        <v>332</v>
+        <v>122</v>
       </c>
       <c r="AE2" s="30" t="s">
-        <v>333</v>
+        <v>123</v>
       </c>
       <c r="AF2" s="32" t="s">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="AG2" s="30" t="s">
-        <v>335</v>
+        <v>125</v>
       </c>
       <c r="AH2" s="30">
         <v>301</v>
@@ -5120,19 +4482,19 @@
         <v>8</v>
       </c>
       <c r="AJ2" s="30" t="s">
-        <v>331</v>
+        <v>121</v>
       </c>
       <c r="AK2" s="29" t="s">
-        <v>336</v>
+        <v>126</v>
       </c>
       <c r="AL2" s="29" t="s">
-        <v>337</v>
+        <v>127</v>
       </c>
       <c r="AM2" s="29" t="b">
         <v>0</v>
       </c>
       <c r="AN2" s="29" t="s">
-        <v>338</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="29" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5140,94 +4502,94 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>339</v>
+        <v>129</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>316</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>345</v>
+        <v>135</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30" t="s">
-        <v>346</v>
+        <v>136</v>
       </c>
       <c r="M3" s="30"/>
       <c r="N3" s="30" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>348</v>
+        <v>138</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>349</v>
+        <v>139</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>351</v>
+        <v>141</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="U3" s="30"/>
       <c r="V3" s="30" t="s">
-        <v>354</v>
+        <v>144</v>
       </c>
       <c r="W3" s="30" t="s">
-        <v>355</v>
+        <v>145</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>356</v>
+        <v>146</v>
       </c>
       <c r="Y3" s="30" t="b">
         <v>0</v>
       </c>
       <c r="Z3" s="30" t="s">
-        <v>357</v>
+        <v>147</v>
       </c>
       <c r="AA3" s="30" t="s">
-        <v>358</v>
+        <v>148</v>
       </c>
       <c r="AB3" s="30" t="s">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="AC3" s="30" t="s">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="AD3" s="30" t="s">
-        <v>361</v>
+        <v>151</v>
       </c>
       <c r="AE3" s="30" t="s">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>363</v>
+        <v>153</v>
       </c>
       <c r="AG3" s="30" t="s">
-        <v>364</v>
+        <v>154</v>
       </c>
       <c r="AH3" s="30">
         <v>302</v>
@@ -5236,19 +4598,19 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="30" t="s">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="AK3" s="29" t="s">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="AL3" s="29" t="s">
-        <v>366</v>
+        <v>156</v>
       </c>
       <c r="AM3" s="29" t="b">
         <v>1</v>
       </c>
       <c r="AN3" s="29" t="s">
-        <v>367</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -5256,76 +4618,76 @@
         <v>5</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" t="s">
-        <v>372</v>
+        <v>162</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30" t="s">
-        <v>351</v>
+        <v>141</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="L4" s="30" t="s">
-        <v>373</v>
+        <v>163</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30" t="s">
-        <v>374</v>
+        <v>164</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="30" t="s">
-        <v>375</v>
+        <v>165</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>377</v>
+        <v>167</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>378</v>
+        <v>168</v>
       </c>
       <c r="U4" s="30"/>
       <c r="V4" s="30"/>
       <c r="W4" s="30"/>
       <c r="X4" s="30" t="s">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="Y4" s="30"/>
       <c r="Z4" s="30" t="s">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="AA4" s="30" t="s">
-        <v>381</v>
+        <v>171</v>
       </c>
       <c r="AB4" s="30"/>
       <c r="AC4" s="30" t="s">
-        <v>382</v>
+        <v>172</v>
       </c>
       <c r="AD4" s="30" t="s">
-        <v>383</v>
+        <v>173</v>
       </c>
       <c r="AE4" s="30" t="s">
-        <v>384</v>
+        <v>174</v>
       </c>
       <c r="AF4" s="32" t="s">
-        <v>385</v>
+        <v>175</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="AH4" s="30">
         <v>303</v>
@@ -5334,7 +4696,7 @@
         <v>32</v>
       </c>
       <c r="AN4" s="29" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -5342,18 +4704,18 @@
         <v>6</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>388</v>
+        <v>178</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" t="s">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
@@ -5361,7 +4723,7 @@
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="P5" s="31"/>
       <c r="Q5" s="30"/>
@@ -5372,19 +4734,19 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="30" t="s">
-        <v>392</v>
+        <v>182</v>
       </c>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="30"/>
       <c r="AD5" s="30" t="s">
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="AE5" s="30" t="s">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="AF5" s="32" t="s">
-        <v>395</v>
+        <v>185</v>
       </c>
       <c r="AG5" s="30"/>
       <c r="AH5" s="30">
@@ -5399,14 +4761,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>396</v>
+        <v>186</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>397</v>
+        <v>187</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" t="s">
-        <v>398</v>
+        <v>188</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -5431,10 +4793,10 @@
       <c r="AB6" s="30"/>
       <c r="AC6" s="30"/>
       <c r="AD6" s="30" t="s">
-        <v>399</v>
+        <v>189</v>
       </c>
       <c r="AE6" s="30" t="s">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="AF6" s="33"/>
       <c r="AG6" s="30"/>
@@ -5448,14 +4810,14 @@
         <v>8</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>401</v>
+        <v>191</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>402</v>
+        <v>192</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" t="s">
-        <v>403</v>
+        <v>193</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -5480,10 +4842,10 @@
       <c r="AB7" s="30"/>
       <c r="AC7" s="30"/>
       <c r="AD7" s="30" t="s">
-        <v>404</v>
+        <v>194</v>
       </c>
       <c r="AE7" s="30" t="s">
-        <v>405</v>
+        <v>195</v>
       </c>
       <c r="AF7" s="33"/>
       <c r="AG7" s="30"/>
@@ -5495,14 +4857,14 @@
         <v>9</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>406</v>
+        <v>196</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>407</v>
+        <v>197</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" t="s">
-        <v>408</v>
+        <v>198</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -5527,10 +4889,10 @@
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
       <c r="AD8" s="30" t="s">
-        <v>409</v>
+        <v>199</v>
       </c>
       <c r="AE8" s="30" t="s">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="AF8" s="33"/>
       <c r="AG8" s="30"/>
@@ -5542,14 +4904,14 @@
         <v>10</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>411</v>
+        <v>201</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>412</v>
+        <v>202</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" t="s">
-        <v>413</v>
+        <v>203</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -5574,10 +4936,10 @@
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
       <c r="AD9" s="30" t="s">
-        <v>414</v>
+        <v>204</v>
       </c>
       <c r="AE9" s="30" t="s">
-        <v>415</v>
+        <v>205</v>
       </c>
       <c r="AF9" s="33"/>
       <c r="AG9" s="30"/>
@@ -5589,14 +4951,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>416</v>
+        <v>206</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>417</v>
+        <v>207</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" t="s">
-        <v>418</v>
+        <v>208</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
@@ -5621,10 +4983,10 @@
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
       <c r="AD10" s="30" t="s">
-        <v>419</v>
+        <v>209</v>
       </c>
       <c r="AE10" s="30" t="s">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="AF10" s="33"/>
       <c r="AG10" s="30"/>
@@ -5636,14 +4998,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>421</v>
+        <v>211</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" t="s">
-        <v>423</v>
+        <v>213</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -5668,10 +5030,10 @@
       <c r="AB11" s="30"/>
       <c r="AC11" s="30"/>
       <c r="AD11" s="30" t="s">
-        <v>424</v>
+        <v>214</v>
       </c>
       <c r="AE11" s="30" t="s">
-        <v>425</v>
+        <v>215</v>
       </c>
       <c r="AF11" s="33"/>
       <c r="AG11" s="30"/>
@@ -5684,7 +5046,7 @@
       </c>
       <c r="F12" s="30"/>
       <c r="G12" t="s">
-        <v>426</v>
+        <v>216</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -5710,7 +5072,7 @@
       <c r="AC12" s="30"/>
       <c r="AD12" s="30"/>
       <c r="AE12" s="30" t="s">
-        <v>427</v>
+        <v>217</v>
       </c>
       <c r="AF12" s="33"/>
       <c r="AG12" s="30"/>
@@ -5723,7 +5085,7 @@
       </c>
       <c r="F13" s="30"/>
       <c r="G13" t="s">
-        <v>428</v>
+        <v>218</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -5749,7 +5111,7 @@
       <c r="AC13" s="30"/>
       <c r="AD13" s="30"/>
       <c r="AE13" s="30" t="s">
-        <v>429</v>
+        <v>219</v>
       </c>
       <c r="AF13" s="33"/>
       <c r="AG13" s="30"/>
@@ -5762,7 +5124,7 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" t="s">
-        <v>430</v>
+        <v>220</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
@@ -5788,7 +5150,7 @@
       <c r="AC14" s="30"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="30" t="s">
-        <v>431</v>
+        <v>221</v>
       </c>
       <c r="AF14" s="33"/>
       <c r="AG14" s="30"/>
@@ -5801,7 +5163,7 @@
       </c>
       <c r="F15" s="30"/>
       <c r="G15" t="s">
-        <v>432</v>
+        <v>222</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
@@ -5827,7 +5189,7 @@
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
       <c r="AE15" s="30" t="s">
-        <v>433</v>
+        <v>223</v>
       </c>
       <c r="AF15" s="33"/>
       <c r="AG15" s="30"/>
@@ -5840,7 +5202,7 @@
       </c>
       <c r="F16" s="30"/>
       <c r="G16" t="s">
-        <v>434</v>
+        <v>224</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
@@ -5866,7 +5228,7 @@
       <c r="AC16" s="30"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="30" t="s">
-        <v>435</v>
+        <v>225</v>
       </c>
       <c r="AF16" s="33"/>
       <c r="AG16" s="30"/>
@@ -5879,7 +5241,7 @@
       </c>
       <c r="F17" s="30"/>
       <c r="G17" t="s">
-        <v>436</v>
+        <v>226</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -5905,7 +5267,7 @@
       <c r="AC17" s="30"/>
       <c r="AD17" s="30"/>
       <c r="AE17" s="30" t="s">
-        <v>437</v>
+        <v>227</v>
       </c>
       <c r="AF17" s="33"/>
       <c r="AG17" s="30"/>
@@ -5918,7 +5280,7 @@
       </c>
       <c r="F18" s="30"/>
       <c r="G18" t="s">
-        <v>438</v>
+        <v>228</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
@@ -5944,7 +5306,7 @@
       <c r="AC18" s="30"/>
       <c r="AD18" s="30"/>
       <c r="AE18" s="30" t="s">
-        <v>439</v>
+        <v>229</v>
       </c>
       <c r="AF18" s="33"/>
       <c r="AG18" s="30"/>
@@ -5957,7 +5319,7 @@
       </c>
       <c r="F19" s="30"/>
       <c r="G19" t="s">
-        <v>440</v>
+        <v>230</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -5983,7 +5345,7 @@
       <c r="AC19" s="30"/>
       <c r="AD19" s="30"/>
       <c r="AE19" s="30" t="s">
-        <v>441</v>
+        <v>231</v>
       </c>
       <c r="AF19" s="33"/>
       <c r="AG19" s="30"/>
@@ -5996,7 +5358,7 @@
       </c>
       <c r="F20" s="30"/>
       <c r="G20" t="s">
-        <v>442</v>
+        <v>232</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -6022,7 +5384,7 @@
       <c r="AC20" s="30"/>
       <c r="AD20" s="30"/>
       <c r="AE20" s="30" t="s">
-        <v>443</v>
+        <v>233</v>
       </c>
       <c r="AF20" s="33"/>
       <c r="AG20" s="30"/>
@@ -6035,7 +5397,7 @@
       </c>
       <c r="F21" s="30"/>
       <c r="G21" t="s">
-        <v>444</v>
+        <v>234</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -6061,7 +5423,7 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="30"/>
       <c r="AE21" s="30" t="s">
-        <v>445</v>
+        <v>235</v>
       </c>
       <c r="AF21" s="33"/>
       <c r="AG21" s="30"/>
@@ -6074,7 +5436,7 @@
       </c>
       <c r="F22" s="30"/>
       <c r="G22" t="s">
-        <v>446</v>
+        <v>236</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -6100,7 +5462,7 @@
       <c r="AC22" s="30"/>
       <c r="AD22" s="30"/>
       <c r="AE22" s="30" t="s">
-        <v>447</v>
+        <v>237</v>
       </c>
       <c r="AF22" s="33"/>
       <c r="AG22" s="30"/>
@@ -6113,7 +5475,7 @@
       </c>
       <c r="F23" s="30"/>
       <c r="G23" t="s">
-        <v>448</v>
+        <v>238</v>
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -6139,7 +5501,7 @@
       <c r="AC23" s="30"/>
       <c r="AD23" s="30"/>
       <c r="AE23" s="30" t="s">
-        <v>449</v>
+        <v>239</v>
       </c>
       <c r="AF23" s="33"/>
       <c r="AG23" s="30"/>
@@ -6152,7 +5514,7 @@
       </c>
       <c r="F24" s="30"/>
       <c r="G24" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -6178,7 +5540,7 @@
       <c r="AC24" s="30"/>
       <c r="AD24" s="30"/>
       <c r="AE24" s="30" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
       <c r="AF24" s="33"/>
       <c r="AG24" s="30"/>
@@ -6191,7 +5553,7 @@
       </c>
       <c r="F25" s="30"/>
       <c r="G25" t="s">
-        <v>452</v>
+        <v>242</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
@@ -6217,7 +5579,7 @@
       <c r="AC25" s="30"/>
       <c r="AD25" s="30"/>
       <c r="AE25" s="30" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
       <c r="AF25" s="33"/>
       <c r="AG25" s="30"/>
@@ -6230,7 +5592,7 @@
       </c>
       <c r="F26" s="30"/>
       <c r="G26" t="s">
-        <v>454</v>
+        <v>244</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -6256,7 +5618,7 @@
       <c r="AC26" s="30"/>
       <c r="AD26" s="30"/>
       <c r="AE26" s="30" t="s">
-        <v>455</v>
+        <v>245</v>
       </c>
       <c r="AF26" s="33"/>
       <c r="AG26" s="30"/>
@@ -6269,7 +5631,7 @@
       </c>
       <c r="F27" s="30"/>
       <c r="G27" t="s">
-        <v>456</v>
+        <v>246</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
@@ -6295,7 +5657,7 @@
       <c r="AC27" s="30"/>
       <c r="AD27" s="30"/>
       <c r="AE27" s="30" t="s">
-        <v>457</v>
+        <v>247</v>
       </c>
       <c r="AF27" s="33"/>
       <c r="AG27" s="30"/>
@@ -6308,7 +5670,7 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" t="s">
-        <v>458</v>
+        <v>248</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -6334,7 +5696,7 @@
       <c r="AC28" s="30"/>
       <c r="AD28" s="30"/>
       <c r="AE28" s="30" t="s">
-        <v>459</v>
+        <v>249</v>
       </c>
       <c r="AF28" s="33"/>
       <c r="AG28" s="30"/>
@@ -6347,7 +5709,7 @@
       </c>
       <c r="F29" s="30"/>
       <c r="G29" t="s">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -6373,7 +5735,7 @@
       <c r="AC29" s="30"/>
       <c r="AD29" s="30"/>
       <c r="AE29" s="30" t="s">
-        <v>461</v>
+        <v>251</v>
       </c>
       <c r="AF29" s="33"/>
       <c r="AG29" s="30"/>
@@ -6386,7 +5748,7 @@
       </c>
       <c r="F30" s="30"/>
       <c r="G30" t="s">
-        <v>462</v>
+        <v>252</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
@@ -6412,7 +5774,7 @@
       <c r="AC30" s="30"/>
       <c r="AD30" s="30"/>
       <c r="AE30" s="30" t="s">
-        <v>463</v>
+        <v>253</v>
       </c>
       <c r="AF30" s="33"/>
       <c r="AG30" s="30"/>
@@ -6425,7 +5787,7 @@
       </c>
       <c r="F31" s="30"/>
       <c r="G31" t="s">
-        <v>464</v>
+        <v>254</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
@@ -6451,7 +5813,7 @@
       <c r="AC31" s="30"/>
       <c r="AD31" s="30"/>
       <c r="AE31" s="30" t="s">
-        <v>465</v>
+        <v>255</v>
       </c>
       <c r="AF31" s="33"/>
       <c r="AG31" s="30"/>
@@ -6464,7 +5826,7 @@
       </c>
       <c r="F32" s="30"/>
       <c r="G32" t="s">
-        <v>466</v>
+        <v>256</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
@@ -6490,7 +5852,7 @@
       <c r="AC32" s="30"/>
       <c r="AD32" s="30"/>
       <c r="AE32" s="30" t="s">
-        <v>467</v>
+        <v>257</v>
       </c>
       <c r="AF32" s="33"/>
       <c r="AG32" s="30"/>
@@ -6503,7 +5865,7 @@
       </c>
       <c r="F33" s="30"/>
       <c r="G33" t="s">
-        <v>468</v>
+        <v>258</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -6529,7 +5891,7 @@
       <c r="AC33" s="30"/>
       <c r="AD33" s="30"/>
       <c r="AE33" s="30" t="s">
-        <v>469</v>
+        <v>259</v>
       </c>
       <c r="AF33" s="33"/>
       <c r="AG33" s="30"/>
@@ -6542,7 +5904,7 @@
       </c>
       <c r="F34" s="30"/>
       <c r="G34" t="s">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
@@ -6568,7 +5930,7 @@
       <c r="AC34" s="30"/>
       <c r="AD34" s="30"/>
       <c r="AE34" s="30" t="s">
-        <v>471</v>
+        <v>261</v>
       </c>
       <c r="AF34" s="33"/>
       <c r="AG34" s="30"/>
@@ -6581,7 +5943,7 @@
       </c>
       <c r="F35" s="30"/>
       <c r="G35" t="s">
-        <v>472</v>
+        <v>262</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -6607,7 +5969,7 @@
       <c r="AC35" s="30"/>
       <c r="AD35" s="30"/>
       <c r="AE35" s="30" t="s">
-        <v>473</v>
+        <v>263</v>
       </c>
       <c r="AF35" s="33"/>
       <c r="AG35" s="30"/>
@@ -6620,7 +5982,7 @@
       </c>
       <c r="F36" s="30"/>
       <c r="G36" t="s">
-        <v>474</v>
+        <v>264</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
@@ -6646,7 +6008,7 @@
       <c r="AC36" s="30"/>
       <c r="AD36" s="30"/>
       <c r="AE36" s="30" t="s">
-        <v>475</v>
+        <v>265</v>
       </c>
       <c r="AF36" s="33"/>
       <c r="AG36" s="30"/>
@@ -6659,7 +6021,7 @@
       </c>
       <c r="F37" s="30"/>
       <c r="G37" t="s">
-        <v>476</v>
+        <v>266</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
@@ -6685,7 +6047,7 @@
       <c r="AC37" s="30"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30" t="s">
-        <v>477</v>
+        <v>267</v>
       </c>
       <c r="AF37" s="33"/>
       <c r="AG37" s="30"/>
@@ -6698,7 +6060,7 @@
       </c>
       <c r="F38" s="30"/>
       <c r="G38" t="s">
-        <v>478</v>
+        <v>268</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
@@ -6724,7 +6086,7 @@
       <c r="AC38" s="30"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30" t="s">
-        <v>479</v>
+        <v>269</v>
       </c>
       <c r="AF38" s="33"/>
       <c r="AG38" s="30"/>
@@ -6737,7 +6099,7 @@
       </c>
       <c r="F39" s="30"/>
       <c r="G39" t="s">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -6763,7 +6125,7 @@
       <c r="AC39" s="30"/>
       <c r="AD39" s="30"/>
       <c r="AE39" s="30" t="s">
-        <v>481</v>
+        <v>271</v>
       </c>
       <c r="AF39" s="33"/>
       <c r="AG39" s="30"/>
@@ -6776,7 +6138,7 @@
       </c>
       <c r="F40" s="30"/>
       <c r="G40" t="s">
-        <v>482</v>
+        <v>272</v>
       </c>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -6801,7 +6163,7 @@
       <c r="AC40" s="30"/>
       <c r="AD40" s="30"/>
       <c r="AE40" s="30" t="s">
-        <v>483</v>
+        <v>273</v>
       </c>
       <c r="AF40" s="33"/>
       <c r="AG40" s="30"/>
@@ -6813,7 +6175,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>484</v>
+        <v>274</v>
       </c>
       <c r="K41" s="30"/>
       <c r="M41" s="30"/>
@@ -6826,7 +6188,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>485</v>
+        <v>275</v>
       </c>
       <c r="K42" s="30"/>
       <c r="M42" s="30"/>
@@ -6838,7 +6200,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>486</v>
+        <v>276</v>
       </c>
       <c r="K43" s="30"/>
       <c r="M43" s="30"/>
@@ -6850,7 +6212,7 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>487</v>
+        <v>277</v>
       </c>
       <c r="K44" s="30"/>
       <c r="M44" s="30"/>
@@ -6911,105 +6273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="92.109375" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="A1:XFD1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:M108"/>
   <sheetViews>
@@ -7035,782 +6299,782 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>488</v>
+        <v>278</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>489</v>
+        <v>279</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>491</v>
+        <v>281</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>492</v>
+        <v>282</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>493</v>
+        <v>283</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>494</v>
+        <v>284</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>495</v>
+        <v>285</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>496</v>
+        <v>286</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>497</v>
+        <v>287</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>498</v>
+        <v>288</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>499</v>
+        <v>289</v>
       </c>
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>501</v>
+        <v>291</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>502</v>
+        <v>292</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>503</v>
+        <v>293</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>504</v>
+        <v>294</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>505</v>
+        <v>295</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>506</v>
+        <v>296</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>507</v>
+        <v>297</v>
       </c>
       <c r="I2" s="18">
         <v>80</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>508</v>
+        <v>298</v>
       </c>
       <c r="K2" s="19">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>365</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>509</v>
+        <v>299</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>511</v>
+        <v>301</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>512</v>
+        <v>302</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>513</v>
+        <v>303</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>514</v>
+        <v>304</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>515</v>
+        <v>305</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>516</v>
+        <v>306</v>
       </c>
       <c r="I3" s="18">
         <v>40</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>517</v>
+        <v>307</v>
       </c>
       <c r="K3" s="19">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>336</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>518</v>
+        <v>308</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>519</v>
+        <v>309</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>520</v>
+        <v>310</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>521</v>
+        <v>311</v>
       </c>
       <c r="F4" s="19"/>
       <c r="H4" s="5" t="s">
-        <v>522</v>
+        <v>312</v>
       </c>
       <c r="L4" t="s">
-        <v>523</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>524</v>
+        <v>314</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>525</v>
+        <v>315</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>526</v>
+        <v>316</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>527</v>
+        <v>317</v>
       </c>
       <c r="F5" s="19"/>
       <c r="H5" s="19" t="s">
-        <v>528</v>
+        <v>318</v>
       </c>
       <c r="L5" t="s">
-        <v>529</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>530</v>
+        <v>320</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>531</v>
+        <v>321</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>532</v>
+        <v>322</v>
       </c>
       <c r="F6" s="19"/>
       <c r="H6" s="19" t="s">
-        <v>533</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>534</v>
+        <v>324</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>535</v>
+        <v>325</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
-        <v>536</v>
+        <v>326</v>
       </c>
       <c r="F7" s="19"/>
       <c r="H7" s="19" t="s">
-        <v>537</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>538</v>
+        <v>328</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>539</v>
+        <v>329</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
-        <v>540</v>
+        <v>330</v>
       </c>
       <c r="F8" s="19"/>
       <c r="H8" s="19" t="s">
-        <v>541</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>542</v>
+        <v>332</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>543</v>
+        <v>333</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>544</v>
+        <v>334</v>
       </c>
       <c r="F9" s="19"/>
       <c r="H9" s="19" t="s">
-        <v>545</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>546</v>
+        <v>336</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>547</v>
+        <v>337</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>548</v>
+        <v>338</v>
       </c>
       <c r="F10" s="19"/>
       <c r="H10" s="19" t="s">
-        <v>549</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>551</v>
+        <v>341</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
-        <v>552</v>
+        <v>342</v>
       </c>
       <c r="F11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>553</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>554</v>
+        <v>344</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>555</v>
+        <v>345</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>556</v>
+        <v>346</v>
       </c>
       <c r="F12" s="19"/>
       <c r="H12" s="19" t="s">
-        <v>557</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>558</v>
+        <v>348</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
-        <v>559</v>
+        <v>349</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>560</v>
+        <v>350</v>
       </c>
       <c r="F13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>561</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>562</v>
+        <v>352</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
-        <v>563</v>
+        <v>353</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="H14" s="19" t="s">
-        <v>564</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15" s="19" t="s">
-        <v>565</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H16" s="19" t="s">
-        <v>566</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="19" t="s">
-        <v>567</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="19" t="s">
-        <v>568</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="19" t="s">
-        <v>569</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="19" t="s">
-        <v>570</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H21" s="19" t="s">
-        <v>571</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="19" t="s">
-        <v>572</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H23" s="19" t="s">
-        <v>573</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H24" s="19" t="s">
-        <v>574</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H25" s="19" t="s">
-        <v>575</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H26" s="19" t="s">
-        <v>576</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H27" s="19" t="s">
-        <v>577</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H28" s="19" t="s">
-        <v>578</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H29" s="19" t="s">
-        <v>579</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H30" s="19" t="s">
-        <v>580</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H31" s="19" t="s">
-        <v>581</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H32" s="19" t="s">
-        <v>582</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H33" s="19" t="s">
-        <v>583</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H34" s="19" t="s">
-        <v>584</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H35" s="19" t="s">
-        <v>585</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H36" s="19" t="s">
-        <v>586</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H37" s="19" t="s">
-        <v>587</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H38" s="19" t="s">
-        <v>588</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H39" s="19" t="s">
-        <v>589</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H40" s="19" t="s">
-        <v>590</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H41" s="19" t="s">
-        <v>591</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H42" s="19" t="s">
-        <v>592</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H43" s="19" t="s">
-        <v>593</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H44" s="19" t="s">
-        <v>594</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H45" s="19" t="s">
-        <v>595</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H46" s="19" t="s">
-        <v>596</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H47" s="19" t="s">
-        <v>597</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H48" s="19" t="s">
-        <v>598</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="19" t="s">
-        <v>599</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50" s="19" t="s">
-        <v>600</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="19" t="s">
-        <v>601</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="19" t="s">
-        <v>602</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H53" s="19" t="s">
-        <v>603</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H54" s="19" t="s">
-        <v>604</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H55" s="19" t="s">
-        <v>605</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H56" s="19" t="s">
-        <v>606</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H57" s="19" t="s">
-        <v>607</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H58" s="19" t="s">
-        <v>608</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H59" s="19" t="s">
-        <v>609</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H60" s="19" t="s">
-        <v>610</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H61" s="19" t="s">
-        <v>611</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H62" s="19" t="s">
-        <v>612</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H63" s="19" t="s">
-        <v>613</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H64" s="19" t="s">
-        <v>614</v>
+        <v>404</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H65" s="19" t="s">
-        <v>615</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H66" s="19" t="s">
-        <v>616</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H67" s="19" t="s">
-        <v>617</v>
+        <v>407</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H68" s="19" t="s">
-        <v>618</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H69" s="19" t="s">
-        <v>619</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H70" s="19" t="s">
-        <v>620</v>
+        <v>410</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H71" s="19" t="s">
-        <v>621</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H72" s="19" t="s">
-        <v>622</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H73" s="19" t="s">
-        <v>623</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H74" s="19" t="s">
-        <v>624</v>
+        <v>414</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H75" s="19" t="s">
-        <v>625</v>
+        <v>415</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H76" s="19" t="s">
-        <v>626</v>
+        <v>416</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H77" s="19" t="s">
-        <v>627</v>
+        <v>417</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H78" s="19" t="s">
-        <v>628</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H79" s="19" t="s">
-        <v>629</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H80" s="19" t="s">
-        <v>630</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H81" s="19" t="s">
-        <v>631</v>
+        <v>421</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H82" s="19" t="s">
-        <v>632</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H83" s="19" t="s">
-        <v>515</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H84" s="19" t="s">
-        <v>633</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H85" s="19" t="s">
-        <v>634</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H86" s="19" t="s">
-        <v>635</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H87" s="19" t="s">
-        <v>636</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H88" s="19" t="s">
-        <v>637</v>
+        <v>427</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H89" s="19" t="s">
-        <v>638</v>
+        <v>428</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H90" s="19" t="s">
-        <v>639</v>
+        <v>429</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H91" s="19" t="s">
-        <v>640</v>
+        <v>430</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H92" s="19" t="s">
-        <v>641</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H93" s="19" t="s">
-        <v>642</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H94" s="19" t="s">
-        <v>643</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H95" s="19" t="s">
-        <v>644</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H96" s="19" t="s">
-        <v>645</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H97" s="19" t="s">
-        <v>646</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H98" s="19" t="s">
-        <v>647</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H99" s="19" t="s">
-        <v>648</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H100" s="19" t="s">
-        <v>649</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H101" s="19" t="s">
-        <v>650</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H102" s="19" t="s">
-        <v>651</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H103" s="19" t="s">
-        <v>652</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H104" s="19" t="s">
-        <v>653</v>
+        <v>443</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H105" s="19" t="s">
-        <v>654</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H106" s="19" t="s">
-        <v>655</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H107" s="19" t="s">
-        <v>656</v>
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H108" s="19" t="s">
-        <v>657</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -7819,7 +7083,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="92.109375" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A1:XFD1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -7839,36 +7146,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>295</v>
+        <v>85</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>296</v>
+        <v>86</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>298</v>
+        <v>88</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>300</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>332</v>
+        <v>122</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>333</v>
+        <v>123</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>335</v>
+        <v>125</v>
       </c>
       <c r="E2" s="11">
         <v>301</v>
@@ -7879,16 +7186,16 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>361</v>
+        <v>151</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>363</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>364</v>
+        <v>154</v>
       </c>
       <c r="E3" s="16">
         <v>302</v>
@@ -7899,16 +7206,16 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>383</v>
+        <v>173</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>384</v>
+        <v>174</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>385</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="E4" s="16">
         <v>303</v>
@@ -7919,13 +7226,13 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>395</v>
+        <v>185</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="16">
@@ -7937,10 +7244,10 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>399</v>
+        <v>189</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="C6" s="10"/>
       <c r="E6" s="16">
@@ -7950,189 +7257,189 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>404</v>
+        <v>194</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>405</v>
+        <v>195</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>409</v>
+        <v>199</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>410</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>414</v>
+        <v>204</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>415</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>419</v>
+        <v>209</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>420</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>424</v>
+        <v>214</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>425</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="16" t="s">
-        <v>427</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>429</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>431</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>433</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>435</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>437</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>439</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>441</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>443</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>445</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>447</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>449</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>451</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>455</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>457</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
-        <v>459</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
-        <v>461</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
-        <v>463</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
-        <v>465</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>467</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>469</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
-        <v>471</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
-        <v>473</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
-        <v>475</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>477</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
-        <v>479</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
-        <v>481</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
-        <v>483</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8144,7 +7451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -8160,16 +7467,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>267</v>
+        <v>57</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>658</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29" t="s">
-        <v>659</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8177,7 +7484,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>660</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8185,7 +7492,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>661</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -8193,7 +7500,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>662</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -8201,7 +7508,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>663</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -8479,10 +7786,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8505,169 +7812,15 @@
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:E1 A2:XFD1048576 G1:XFD1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation sqref="A1:E1 G1:XFD1 A2:XFD1048576" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8697,19 +7850,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>5</v>
@@ -9394,9 +8547,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9420,1687 +8575,24 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="43"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="43"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-      <c r="D102" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="43"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="43"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="43"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="43"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="43"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="43"/>
-      <c r="D108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="43"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="43"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="43"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="43"/>
-      <c r="D111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="43"/>
-      <c r="B112" s="43"/>
-      <c r="C112" s="43"/>
-      <c r="D112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="43"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-      <c r="D113" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="43"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="C115" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="D115" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="43"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="43"/>
-      <c r="D116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="43"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-      <c r="D117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="43"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
-      <c r="D118" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="43"/>
-      <c r="B119" s="43"/>
-      <c r="C119" s="43"/>
-      <c r="D119" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="43"/>
-      <c r="B120" s="43"/>
-      <c r="C120" s="43"/>
-      <c r="D120" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="43"/>
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="43"/>
-      <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
-      <c r="D122" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="43"/>
-      <c r="B123" s="43"/>
-      <c r="C123" s="43"/>
-      <c r="D123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="43"/>
-      <c r="B124" s="43"/>
-      <c r="C124" s="43"/>
-      <c r="D124" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="43"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-      <c r="D125" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="43"/>
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="43"/>
-      <c r="B127" s="43"/>
-      <c r="C127" s="43"/>
-      <c r="D127" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="43"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="43"/>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="43"/>
-      <c r="B130" s="43"/>
-      <c r="C130" s="43"/>
-      <c r="D130" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="43"/>
-      <c r="B131" s="43"/>
-      <c r="C131" s="43"/>
-      <c r="D131" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="43"/>
-      <c r="B132" s="43"/>
-      <c r="C132" s="43"/>
-      <c r="D132" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="43"/>
-      <c r="B133" s="43"/>
-      <c r="C133" s="43"/>
-      <c r="D133" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="43"/>
-      <c r="B134" s="43"/>
-      <c r="C134" s="43"/>
-      <c r="D134" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="43"/>
-      <c r="B135" s="43"/>
-      <c r="C135" s="43"/>
-      <c r="D135" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="43"/>
-      <c r="B136" s="43"/>
-      <c r="C136" s="43"/>
-      <c r="D136" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
-      <c r="D137" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
-      <c r="D138" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="43"/>
-      <c r="B139" s="43"/>
-      <c r="C139" s="43"/>
-      <c r="D139" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="43"/>
-      <c r="B140" s="43"/>
-      <c r="C140" s="43"/>
-      <c r="D140" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="43"/>
-      <c r="B141" s="43"/>
-      <c r="C141" s="43"/>
-      <c r="D141" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="43"/>
-      <c r="B142" s="43"/>
-      <c r="C142" s="43"/>
-      <c r="D142" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="43"/>
-      <c r="B143" s="43"/>
-      <c r="C143" s="43"/>
-      <c r="D143" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="43"/>
-      <c r="B144" s="43"/>
-      <c r="C144" s="43"/>
-      <c r="D144" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C145" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="D145" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="43"/>
-      <c r="B146" s="43"/>
-      <c r="C146" s="43"/>
-      <c r="D146" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B147" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C147" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="D147" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="43"/>
-      <c r="B148" s="43"/>
-      <c r="C148" s="43"/>
-      <c r="D148" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="43"/>
-      <c r="B149" s="43"/>
-      <c r="C149" s="43"/>
-      <c r="D149" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="43"/>
-      <c r="B150" s="43"/>
-      <c r="C150" s="43"/>
-      <c r="D150" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="43"/>
-      <c r="B151" s="43"/>
-      <c r="C151" s="43"/>
-      <c r="D151" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="43"/>
-      <c r="B152" s="43"/>
-      <c r="C152" s="43"/>
-      <c r="D152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="43"/>
-      <c r="B153" s="43"/>
-      <c r="C153" s="43"/>
-      <c r="D153" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="43"/>
-      <c r="B154" s="43"/>
-      <c r="C154" s="43"/>
-      <c r="D154" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="43"/>
-      <c r="B155" s="43"/>
-      <c r="C155" s="43"/>
-      <c r="D155" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="43"/>
-      <c r="B156" s="43"/>
-      <c r="C156" s="43"/>
-      <c r="D156" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="43"/>
-      <c r="B157" s="43"/>
-      <c r="C157" s="43"/>
-      <c r="D157" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="43"/>
-      <c r="B158" s="43"/>
-      <c r="C158" s="43"/>
-      <c r="D158" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="43"/>
-      <c r="B159" s="43"/>
-      <c r="C159" s="43"/>
-      <c r="D159" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="43"/>
-      <c r="B160" s="43"/>
-      <c r="C160" s="43"/>
-      <c r="D160" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="43"/>
-      <c r="B161" s="43"/>
-      <c r="C161" s="43"/>
-      <c r="D161" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="43"/>
-      <c r="B162" s="43"/>
-      <c r="C162" s="43"/>
-      <c r="D162" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="43"/>
-      <c r="B163" s="43"/>
-      <c r="C163" s="43"/>
-      <c r="D163" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B164" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="C164" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D164" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="43"/>
-      <c r="B165" s="43"/>
-      <c r="C165" s="43"/>
-      <c r="D165" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="43"/>
-      <c r="B166" s="43"/>
-      <c r="C166" s="43"/>
-      <c r="D166" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="43"/>
-      <c r="B167" s="43"/>
-      <c r="C167" s="43"/>
-      <c r="D167" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B168" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="C168" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D168" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="43"/>
-      <c r="B169" s="43"/>
-      <c r="C169" s="43"/>
-      <c r="D169" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="43"/>
-      <c r="B170" s="43"/>
-      <c r="C170" s="43"/>
-      <c r="D170" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="43"/>
-      <c r="B171" s="43"/>
-      <c r="C171" s="43"/>
-      <c r="D171" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B172" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C172" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="D172" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="43"/>
-      <c r="B173" s="43"/>
-      <c r="C173" s="43"/>
-      <c r="D173" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="43"/>
-      <c r="B174" s="43"/>
-      <c r="C174" s="43"/>
-      <c r="D174" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="43"/>
-      <c r="B175" s="43"/>
-      <c r="C175" s="43"/>
-      <c r="D175" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="43"/>
-      <c r="B176" s="43"/>
-      <c r="C176" s="43"/>
-      <c r="D176" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="43"/>
-      <c r="B177" s="43"/>
-      <c r="C177" s="43"/>
-      <c r="D177" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="43"/>
-      <c r="B178" s="43"/>
-      <c r="C178" s="43"/>
-      <c r="D178" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="43"/>
-      <c r="B179" s="43"/>
-      <c r="C179" s="43"/>
-      <c r="D179" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="43"/>
-      <c r="B180" s="43"/>
-      <c r="C180" s="43"/>
-      <c r="D180" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="43"/>
-      <c r="B181" s="43"/>
-      <c r="C181" s="43"/>
-      <c r="D181" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="43"/>
-      <c r="B182" s="43"/>
-      <c r="C182" s="43"/>
-      <c r="D182" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="43"/>
-      <c r="B183" s="43"/>
-      <c r="C183" s="43"/>
-      <c r="D183" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="43"/>
-      <c r="B184" s="43"/>
-      <c r="C184" s="43"/>
-      <c r="D184" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="43"/>
-      <c r="B185" s="43"/>
-      <c r="C185" s="43"/>
-      <c r="D185" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="43"/>
-      <c r="B186" s="43"/>
-      <c r="C186" s="43"/>
-      <c r="D186" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="43"/>
-      <c r="B187" s="43"/>
-      <c r="C187" s="43"/>
-      <c r="D187" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="43"/>
-      <c r="B188" s="43"/>
-      <c r="C188" s="43"/>
-      <c r="D188" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="C189" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="D189" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="43"/>
-      <c r="B190" s="43"/>
-      <c r="C190" s="43"/>
-      <c r="D190" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="43"/>
-      <c r="B191" s="43"/>
-      <c r="C191" s="43"/>
-      <c r="D191" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B192" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="C192" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="D192" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="43"/>
-      <c r="B193" s="43"/>
-      <c r="C193" s="43"/>
-      <c r="D193" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="43"/>
-      <c r="B194" s="43"/>
-      <c r="C194" s="43"/>
-      <c r="D194" t="s">
-        <v>237</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="A34:A54"/>
-    <mergeCell ref="B147:B163"/>
-    <mergeCell ref="C147:C163"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C34:C54"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="B164:B167"/>
-    <mergeCell ref="A147:A163"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="A164:A167"/>
-    <mergeCell ref="A55:A84"/>
-    <mergeCell ref="A172:A188"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="B172:B188"/>
-    <mergeCell ref="C2:C31"/>
-    <mergeCell ref="B85:B114"/>
-    <mergeCell ref="C55:C84"/>
-    <mergeCell ref="B55:B84"/>
-    <mergeCell ref="C172:C188"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B2:B31"/>
-    <mergeCell ref="A85:A114"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C85:C114"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A115:A144"/>
-    <mergeCell ref="C168:C171"/>
-    <mergeCell ref="C115:C144"/>
-    <mergeCell ref="B34:B54"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="B115:B144"/>
-  </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="A1:H1 B2:XFD1048576 J1:XFD1" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+    <dataValidation sqref="A1:H1 J1:XFD1 B2:XFD1048576" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -11112,7 +8604,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11126,16 +8618,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>241</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -11151,7 +8643,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11164,16 +8656,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>244</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -11188,8 +8680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11203,19 +8695,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -11228,28 +8720,29 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
+    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-0800-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backend/OCI.xlsx
+++ b/Backend/OCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\OCI_to_AZURE\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7BFC03-BD54-46F3-8624-5206A35B7BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D523C323-1B53-4216-9F7B-63D722FE6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,17 @@
     <sheet name="Route_Table" sheetId="8" r:id="rId8"/>
     <sheet name="RT_Attachment" sheetId="9" r:id="rId9"/>
     <sheet name="RG" sheetId="10" r:id="rId10"/>
-    <sheet name="NAT" sheetId="12" r:id="rId11"/>
-    <sheet name="SGW" sheetId="13" r:id="rId12"/>
-    <sheet name="NSG" sheetId="14" r:id="rId13"/>
-    <sheet name="NSG_Rules" sheetId="15" r:id="rId14"/>
-    <sheet name="security_list_rules" sheetId="16" r:id="rId15"/>
-    <sheet name="Security_List_Associations" sheetId="17" r:id="rId16"/>
-    <sheet name="DRG" sheetId="18" r:id="rId17"/>
-    <sheet name="drop_down_rule_set" sheetId="19" state="hidden" r:id="rId18"/>
-    <sheet name="Database_Dropdown" sheetId="20" state="hidden" r:id="rId19"/>
-    <sheet name="LB Rule Set Dropdown" sheetId="21" state="hidden" r:id="rId20"/>
-    <sheet name="drop_down_rule_comp" sheetId="22" state="hidden" r:id="rId21"/>
+    <sheet name="NAT" sheetId="11" r:id="rId11"/>
+    <sheet name="SGW" sheetId="12" r:id="rId12"/>
+    <sheet name="NSG" sheetId="13" r:id="rId13"/>
+    <sheet name="NSG_Rules" sheetId="14" r:id="rId14"/>
+    <sheet name="security_list_rules" sheetId="15" r:id="rId15"/>
+    <sheet name="Security_List_Associations" sheetId="16" r:id="rId16"/>
+    <sheet name="DRG" sheetId="17" r:id="rId17"/>
+    <sheet name="drop_down_rule_set" sheetId="18" state="hidden" r:id="rId18"/>
+    <sheet name="Database_Dropdown" sheetId="19" state="hidden" r:id="rId19"/>
+    <sheet name="LB Rule Set Dropdown" sheetId="20" state="hidden" r:id="rId20"/>
+    <sheet name="drop_down_rule_comp" sheetId="21" state="hidden" r:id="rId21"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId22"/>
@@ -44,72 +44,72 @@
   </externalReferences>
   <definedNames>
     <definedName name="bm_shapes_drop" localSheetId="18">Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="20">[1]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="17">[2]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="20">[5]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="17">[3]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="bm_shapes_drop">#REF!</definedName>
     <definedName name="char_set" localSheetId="18">Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="20">[1]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="17">[2]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="20">[5]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="17">[3]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="19">#REF!</definedName>
     <definedName name="char_set" localSheetId="3">#REF!</definedName>
     <definedName name="char_set">#REF!</definedName>
-    <definedName name="D3D1000" localSheetId="3">'[3]DBSystems-VM-BM'!#REF!</definedName>
+    <definedName name="D3D1000" localSheetId="3">'[2]DBSystems-VM-BM'!#REF!</definedName>
     <definedName name="D3D1000">#REF!</definedName>
     <definedName name="db_sersion_drop" localSheetId="18">Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="20">[1]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="17">[2]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="20">[5]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="17">[3]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="3">#REF!</definedName>
     <definedName name="db_sersion_drop">#REF!</definedName>
     <definedName name="exa_shapes_drop" localSheetId="18">Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="20">[1]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="17">[2]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="20">[5]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="17">[3]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="exa_shapes_drop">#REF!</definedName>
     <definedName name="Header_Size" localSheetId="18">'[4]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="20">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="20">'[5]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="17">#REF!</definedName>
     <definedName name="Header_Size" localSheetId="19">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="3">'[3]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="3">'[2]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">#REF!</definedName>
     <definedName name="license_type_drop" localSheetId="18">Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="20">[1]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="license_type_drop" localSheetId="17">[2]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="20">[5]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="17">[3]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="3">#REF!</definedName>
     <definedName name="license_type_drop">#REF!</definedName>
     <definedName name="nchar_set" localSheetId="18">Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="20">[1]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="17">[2]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="20">[5]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="17">[3]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="19">#REF!</definedName>
     <definedName name="nchar_set" localSheetId="3">#REF!</definedName>
     <definedName name="nchar_set">#REF!</definedName>
     <definedName name="Response_Code" localSheetId="18">'[4]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="20">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="20">'[5]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="17">#REF!</definedName>
     <definedName name="Response_Code" localSheetId="19">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="3">'[3]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="3">'[2]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="18">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="20">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="17">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="3">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
-    <definedName name="Shape_Option_DB">[5]Database!$B$10:$J$10</definedName>
+    <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
     <definedName name="software_drop" localSheetId="18">Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="20">[1]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="17">[2]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="20">[5]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="17">[3]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="3">#REF!</definedName>
     <definedName name="software_drop">#REF!</definedName>
     <definedName name="VM_Shapes" localSheetId="18">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes">#REF!</definedName>
     <definedName name="VM_shapes_drop" localSheetId="18">Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="20">[1]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="17">[2]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="20">[5]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="17">[3]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="VM_shapes_drop">#REF!</definedName>
     <definedName name="workload_drop" localSheetId="18">Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="20">[1]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="17">[2]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="20">[5]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="17">[3]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="3">#REF!</definedName>
     <definedName name="workload_drop">#REF!</definedName>
   </definedNames>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="459">
   <si>
     <t xml:space="preserve">
 CD3 Automation Toolkit Release - v2024.2.0</t>
@@ -137,6 +137,21 @@
   </si>
   <si>
     <t>Defined Tags</t>
+  </si>
+  <si>
+    <t>devops-nprod-cmp</t>
+  </si>
+  <si>
+    <t>devops-prod-cmp</t>
+  </si>
+  <si>
+    <t>LZdemo-network-cmp</t>
+  </si>
+  <si>
+    <t>nprod-cmp</t>
+  </si>
+  <si>
+    <t>prodUPDATE-cmp</t>
   </si>
   <si>
     <t>U_ids</t>
@@ -1877,41 +1892,60 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Release-Info"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Database"/>
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
       <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
       <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
       <sheetName val="VCN Info"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="ADW_ATP"/>
       <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
+      <sheetName val="AddRouteRules"/>
+      <sheetName val="AddSecRules"/>
       <sheetName val="RouteRulesinOCI"/>
       <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
       <sheetName val="DedicatedVMHosts"/>
       <sheetName val="Instances"/>
       <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="Rule Set Dropdown"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_BM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="drop_down_rule_comp"/>
-      <sheetName val="Database_Dropdown"/>
+      <sheetName val="Tags"/>
+      <sheetName val="TagServer"/>
+      <sheetName val="TagVolume"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="Sheet 2"/>
+      <sheetName val="Data_Validation Values"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -1931,1443 +1965,14 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23">
-        <row r="2">
-          <cell r="E2">
-            <v>301</v>
-          </cell>
-          <cell r="F2">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>302</v>
-          </cell>
-          <cell r="F3">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>303</v>
-          </cell>
-          <cell r="F4">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>307</v>
-          </cell>
-          <cell r="F5">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>308</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v xml:space="preserve">11.2.0.4 </v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OLTP</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Exadata.Quarter2.92</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>LICENSE_INCLUDED</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>AL16UTF16</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>AL32UTF8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>STANDARD_EDITION</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>12.1.0.2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>DSS</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Exadata.Half2.184</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>BM.DenseIO1.36</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>BRING_YOUR_OWN_LICENSE</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>UTF8</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>AR8ADOS710</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ENTERPRISE_EDITION</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>12.2.0.1</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Exadata.Full2.368</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>AR8ADOS720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>18.0.0.0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Exadata.Quarter1.84</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>AR8APTEC715</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v xml:space="preserve">18.9.0.0 </v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Exadata.Half1.168</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>AR8ARABICMACS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>18.10.0.0</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Exadata.Full1.336</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>AR8ASMO8X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>18.11.0.0</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>AR8ISO8859P6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>19.0.0.0</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Exadata.Half3.200</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>AR8MSWIN1256</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>19.6.0.0</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Exadata.Quater3.100</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>AR8MUSSAD768</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v xml:space="preserve">19.7.0.0 </v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Exadata.Full3.400</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>AR8NAFITHA711</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>19.8.0.0</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>AR8NAFITHA721</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>20.0.0.0</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>AR8SAKHR706</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>20.3.0.0</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>AR8SAKHR707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15" t="str">
-            <v>AZ8ISO8859P9E</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16" t="str">
-            <v>BG8MSWIN</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17" t="str">
-            <v>BG8PC437S</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18" t="str">
-            <v>BLT8CP921</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19" t="str">
-            <v>BLT8ISO8859P13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20" t="str">
-            <v>BLT8MSWIN1257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21" t="str">
-            <v>BLT8PC775</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22" t="str">
-            <v>BN8BSCII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23" t="str">
-            <v>CDN8PC863</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24" t="str">
-            <v>CEL8ISO8859P14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25" t="str">
-            <v>CL8ISO8859P5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26" t="str">
-            <v>CL8ISOIR111</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27" t="str">
-            <v>CL8KOI8R</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28" t="str">
-            <v>CL8KOI8U</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29" t="str">
-            <v>CL8MACCYRILLICS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30" t="str">
-            <v>CL8MSWIN1251</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31" t="str">
-            <v>EE8ISO8859P2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32" t="str">
-            <v>EE8MACCES</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33" t="str">
-            <v>EE8MACCROATIANS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34" t="str">
-            <v>EE8MSWIN1250</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35" t="str">
-            <v>EE8PC852</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36" t="str">
-            <v>EL8DEC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37" t="str">
-            <v>EL8ISO8859P7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38" t="str">
-            <v>EL8MACGREEKS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39" t="str">
-            <v>EL8MSWIN1253</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40" t="str">
-            <v>EL8PC437S</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41" t="str">
-            <v>EL8PC851</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42" t="str">
-            <v>EL8PC869</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43" t="str">
-            <v>ET8MSWIN923</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44" t="str">
-            <v>HU8ABMOD</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45" t="str">
-            <v>HU8CWI2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46" t="str">
-            <v>IN8ISCII</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47" t="str">
-            <v>IS8PC861</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48" t="str">
-            <v>IW8ISO8859P8</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49" t="str">
-            <v>IW8MACHEBREWS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50" t="str">
-            <v>IW8MSWIN1255</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51" t="str">
-            <v>IW8PC1507</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52" t="str">
-            <v>JA16EUC</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53" t="str">
-            <v>JA16EUCTILDE</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54" t="str">
-            <v>JA16SJIS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55" t="str">
-            <v>JA16SJISTILDE</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56" t="str">
-            <v>JA16VMS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57" t="str">
-            <v>KO16KSC5601</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="I58" t="str">
-            <v>KO16KSCCS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="I59" t="str">
-            <v>KO16MSWIN949</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="I60" t="str">
-            <v>LA8ISO6937</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="I61" t="str">
-            <v>LA8PASSPORT</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="I62" t="str">
-            <v>LT8MSWIN921</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="I63" t="str">
-            <v>LT8PC772</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="I64" t="str">
-            <v>LT8PC774</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="I65" t="str">
-            <v>LV8PC1117</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="I66" t="str">
-            <v>LV8PC8LR</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="I67" t="str">
-            <v>LV8RST104090</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="I68" t="str">
-            <v>N8PC865</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="I69" t="str">
-            <v>NE8ISO8859P10</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="I70" t="str">
-            <v>NEE8ISO8859P4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="I71" t="str">
-            <v>RU8BESTA</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="I72" t="str">
-            <v>RU8PC855</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="I73" t="str">
-            <v>RU8PC866</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="I74" t="str">
-            <v>SE8ISO8859P3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="I75" t="str">
-            <v>TH8MACTHAIS</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="I76" t="str">
-            <v>TH8TISASCII</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="I77" t="str">
-            <v>TR8DEC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="I78" t="str">
-            <v>TR8MACTURKISHS</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="I79" t="str">
-            <v>TR8MSWIN1254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="I80" t="str">
-            <v>TR8PC857</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="I81" t="str">
-            <v>US7ASCII</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="I82" t="str">
-            <v>US8PC437</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="I83" t="str">
-            <v>UTF8</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="I84" t="str">
-            <v>VN8MSWIN1258</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="I85" t="str">
-            <v>VN8VN3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="I86" t="str">
-            <v>WE8DEC</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87" t="str">
-            <v>WE8DG</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88" t="str">
-            <v>WE8ISO8859P1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89" t="str">
-            <v>WE8ISO8859P15</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90" t="str">
-            <v>WE8ISO8859P9</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91" t="str">
-            <v>WE8MACROMAN8S</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92" t="str">
-            <v>WE8MSWIN1252</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93" t="str">
-            <v>WE8NCR4970</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94" t="str">
-            <v>WE8NEXTSTEP</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95" t="str">
-            <v>WE8PC850</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96" t="str">
-            <v>WE8PC858</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97" t="str">
-            <v>WE8PC860</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98" t="str">
-            <v>WE8ROMAN8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99" t="str">
-            <v>ZHS16CGB231280</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100" t="str">
-            <v>ZHS16GBK</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101" t="str">
-            <v>ZHT16BIG5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102" t="str">
-            <v>ZHT16CCDC</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103" t="str">
-            <v>ZHT16DBT</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104" t="str">
-            <v>ZHT16HKSCS</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105" t="str">
-            <v>ZHT16MSWIN950</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106" t="str">
-            <v>ZHT32EUC</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107" t="str">
-            <v>ZHT32SOPS</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108" t="str">
-            <v>ZHT32TRIS</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_BM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="Database_Dropdown"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v xml:space="preserve">11.2.0.4 </v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OLTP</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Exadata.Quarter2.92</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>LICENSE_INCLUDED</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>AL16UTF16</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>AL32UTF8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>STANDARD_EDITION</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>12.1.0.2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>DSS</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Exadata.Half2.184</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>BM.DenseIO1.36</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>BRING_YOUR_OWN_LICENSE</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>UTF8</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>AR8ADOS710</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ENTERPRISE_EDITION</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>12.2.0.1</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Exadata.Full2.368</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>AR8ADOS720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>18.0.0.0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Exadata.Quarter1.84</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>AR8APTEC715</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v xml:space="preserve">18.9.0.0 </v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Exadata.Half1.168</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>AR8ARABICMACS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>18.10.0.0</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Exadata.Full1.336</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>AR8ASMO8X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>18.11.0.0</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>AR8ISO8859P6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>19.0.0.0</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Exadata.Half3.200</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>AR8MSWIN1256</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>19.6.0.0</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Exadata.Quater3.100</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>AR8MUSSAD768</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v xml:space="preserve">19.7.0.0 </v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Exadata.Full3.400</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>AR8NAFITHA711</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>19.8.0.0</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>AR8NAFITHA721</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>20.0.0.0</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>AR8SAKHR706</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>20.3.0.0</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>AR8SAKHR707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15" t="str">
-            <v>AZ8ISO8859P9E</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16" t="str">
-            <v>BG8MSWIN</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17" t="str">
-            <v>BG8PC437S</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18" t="str">
-            <v>BLT8CP921</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19" t="str">
-            <v>BLT8ISO8859P13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20" t="str">
-            <v>BLT8MSWIN1257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21" t="str">
-            <v>BLT8PC775</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22" t="str">
-            <v>BN8BSCII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23" t="str">
-            <v>CDN8PC863</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24" t="str">
-            <v>CEL8ISO8859P14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25" t="str">
-            <v>CL8ISO8859P5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26" t="str">
-            <v>CL8ISOIR111</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27" t="str">
-            <v>CL8KOI8R</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28" t="str">
-            <v>CL8KOI8U</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29" t="str">
-            <v>CL8MACCYRILLICS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30" t="str">
-            <v>CL8MSWIN1251</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31" t="str">
-            <v>EE8ISO8859P2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32" t="str">
-            <v>EE8MACCES</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33" t="str">
-            <v>EE8MACCROATIANS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34" t="str">
-            <v>EE8MSWIN1250</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35" t="str">
-            <v>EE8PC852</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36" t="str">
-            <v>EL8DEC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37" t="str">
-            <v>EL8ISO8859P7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38" t="str">
-            <v>EL8MACGREEKS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39" t="str">
-            <v>EL8MSWIN1253</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40" t="str">
-            <v>EL8PC437S</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41" t="str">
-            <v>EL8PC851</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42" t="str">
-            <v>EL8PC869</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43" t="str">
-            <v>ET8MSWIN923</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44" t="str">
-            <v>HU8ABMOD</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45" t="str">
-            <v>HU8CWI2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46" t="str">
-            <v>IN8ISCII</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47" t="str">
-            <v>IS8PC861</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48" t="str">
-            <v>IW8ISO8859P8</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49" t="str">
-            <v>IW8MACHEBREWS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50" t="str">
-            <v>IW8MSWIN1255</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51" t="str">
-            <v>IW8PC1507</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52" t="str">
-            <v>JA16EUC</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53" t="str">
-            <v>JA16EUCTILDE</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54" t="str">
-            <v>JA16SJIS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55" t="str">
-            <v>JA16SJISTILDE</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56" t="str">
-            <v>JA16VMS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57" t="str">
-            <v>KO16KSC5601</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="I58" t="str">
-            <v>KO16KSCCS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="I59" t="str">
-            <v>KO16MSWIN949</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="I60" t="str">
-            <v>LA8ISO6937</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="I61" t="str">
-            <v>LA8PASSPORT</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="I62" t="str">
-            <v>LT8MSWIN921</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="I63" t="str">
-            <v>LT8PC772</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="I64" t="str">
-            <v>LT8PC774</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="I65" t="str">
-            <v>LV8PC1117</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="I66" t="str">
-            <v>LV8PC8LR</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="I67" t="str">
-            <v>LV8RST104090</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="I68" t="str">
-            <v>N8PC865</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="I69" t="str">
-            <v>NE8ISO8859P10</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="I70" t="str">
-            <v>NEE8ISO8859P4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="I71" t="str">
-            <v>RU8BESTA</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="I72" t="str">
-            <v>RU8PC855</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="I73" t="str">
-            <v>RU8PC866</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="I74" t="str">
-            <v>SE8ISO8859P3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="I75" t="str">
-            <v>TH8MACTHAIS</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="I76" t="str">
-            <v>TH8TISASCII</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="I77" t="str">
-            <v>TR8DEC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="I78" t="str">
-            <v>TR8MACTURKISHS</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="I79" t="str">
-            <v>TR8MSWIN1254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="I80" t="str">
-            <v>TR8PC857</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="I81" t="str">
-            <v>US7ASCII</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="I82" t="str">
-            <v>US8PC437</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="I83" t="str">
-            <v>UTF8</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="I84" t="str">
-            <v>VN8MSWIN1258</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="I85" t="str">
-            <v>VN8VN3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="I86" t="str">
-            <v>WE8DEC</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87" t="str">
-            <v>WE8DG</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88" t="str">
-            <v>WE8ISO8859P1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89" t="str">
-            <v>WE8ISO8859P15</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90" t="str">
-            <v>WE8ISO8859P9</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91" t="str">
-            <v>WE8MACROMAN8S</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92" t="str">
-            <v>WE8MSWIN1252</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93" t="str">
-            <v>WE8NCR4970</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94" t="str">
-            <v>WE8NEXTSTEP</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95" t="str">
-            <v>WE8PC850</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96" t="str">
-            <v>WE8PC858</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97" t="str">
-            <v>WE8PC860</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98" t="str">
-            <v>WE8ROMAN8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99" t="str">
-            <v>ZHS16CGB231280</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100" t="str">
-            <v>ZHS16GBK</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101" t="str">
-            <v>ZHT16BIG5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102" t="str">
-            <v>ZHT16CCDC</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103" t="str">
-            <v>ZHT16DBT</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104" t="str">
-            <v>ZHT16HKSCS</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105" t="str">
-            <v>ZHT16MSWIN950</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106" t="str">
-            <v>ZHT32EUC</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107" t="str">
-            <v>ZHT32SOPS</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108" t="str">
-            <v>ZHT32TRIS</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3488,77 +2093,41 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LB Rule Set Dropdown"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Database"/>
+      <sheetName val="Release-Info"/>
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
       <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
       <sheetName val="VCNs"/>
       <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
       <sheetName val="Subnets"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="AddRouteRules"/>
-      <sheetName val="AddSecRules"/>
       <sheetName val="RouteRulesinOCI"/>
       <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
       <sheetName val="DedicatedVMHosts"/>
       <sheetName val="Instances"/>
       <sheetName val="BlockVols"/>
-      <sheetName val="Tags"/>
-      <sheetName val="TagServer"/>
-      <sheetName val="TagVolume"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="Sheet 2"/>
-      <sheetName val="Data_Validation Values"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DB_System_VM"/>
+      <sheetName val="DB_System_BM"/>
+      <sheetName val="DB_System_EXA"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="Database_Dropdown"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -3578,8 +2147,1454 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve">11.2.0.4 </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OLTP</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Exadata.Quarter2.92</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>LICENSE_INCLUDED</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>AL16UTF16</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>AL32UTF8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>STANDARD_EDITION</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>12.1.0.2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>DSS</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Exadata.Half2.184</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>BM.DenseIO1.36</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>BRING_YOUR_OWN_LICENSE</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>UTF8</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>AR8ADOS710</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ENTERPRISE_EDITION</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>12.2.0.1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Exadata.Full2.368</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>AR8ADOS720</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>18.0.0.0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Exadata.Quarter1.84</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>AR8APTEC715</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v xml:space="preserve">18.9.0.0 </v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Exadata.Half1.168</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>AR8ARABICMACS</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>18.10.0.0</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Exadata.Full1.336</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>AR8ASMO8X</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>18.11.0.0</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>AR8ISO8859P6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>19.0.0.0</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Exadata.Half3.200</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>AR8MSWIN1256</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>19.6.0.0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Exadata.Quater3.100</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>AR8MUSSAD768</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v xml:space="preserve">19.7.0.0 </v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Exadata.Full3.400</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>AR8NAFITHA711</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>19.8.0.0</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>AR8NAFITHA721</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>20.0.0.0</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>AR8SAKHR706</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>20.3.0.0</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>AR8SAKHR707</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15" t="str">
+            <v>AZ8ISO8859P9E</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16" t="str">
+            <v>BG8MSWIN</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17" t="str">
+            <v>BG8PC437S</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18" t="str">
+            <v>BLT8CP921</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19" t="str">
+            <v>BLT8ISO8859P13</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20" t="str">
+            <v>BLT8MSWIN1257</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21" t="str">
+            <v>BLT8PC775</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22" t="str">
+            <v>BN8BSCII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23" t="str">
+            <v>CDN8PC863</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24" t="str">
+            <v>CEL8ISO8859P14</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25" t="str">
+            <v>CL8ISO8859P5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26" t="str">
+            <v>CL8ISOIR111</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27" t="str">
+            <v>CL8KOI8R</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="I28" t="str">
+            <v>CL8KOI8U</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="I29" t="str">
+            <v>CL8MACCYRILLICS</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30" t="str">
+            <v>CL8MSWIN1251</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31" t="str">
+            <v>EE8ISO8859P2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32" t="str">
+            <v>EE8MACCES</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="I33" t="str">
+            <v>EE8MACCROATIANS</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="I34" t="str">
+            <v>EE8MSWIN1250</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35" t="str">
+            <v>EE8PC852</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36" t="str">
+            <v>EL8DEC</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="I37" t="str">
+            <v>EL8ISO8859P7</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="I38" t="str">
+            <v>EL8MACGREEKS</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="I39" t="str">
+            <v>EL8MSWIN1253</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40" t="str">
+            <v>EL8PC437S</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41" t="str">
+            <v>EL8PC851</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42" t="str">
+            <v>EL8PC869</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43" t="str">
+            <v>ET8MSWIN923</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44" t="str">
+            <v>HU8ABMOD</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45" t="str">
+            <v>HU8CWI2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46" t="str">
+            <v>IN8ISCII</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47" t="str">
+            <v>IS8PC861</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48" t="str">
+            <v>IW8ISO8859P8</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49" t="str">
+            <v>IW8MACHEBREWS</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50" t="str">
+            <v>IW8MSWIN1255</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51" t="str">
+            <v>IW8PC1507</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="I52" t="str">
+            <v>JA16EUC</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53" t="str">
+            <v>JA16EUCTILDE</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="I54" t="str">
+            <v>JA16SJIS</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55" t="str">
+            <v>JA16SJISTILDE</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56" t="str">
+            <v>JA16VMS</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57" t="str">
+            <v>KO16KSC5601</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58" t="str">
+            <v>KO16KSCCS</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59" t="str">
+            <v>KO16MSWIN949</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60" t="str">
+            <v>LA8ISO6937</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61" t="str">
+            <v>LA8PASSPORT</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62" t="str">
+            <v>LT8MSWIN921</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63" t="str">
+            <v>LT8PC772</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64" t="str">
+            <v>LT8PC774</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65" t="str">
+            <v>LV8PC1117</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66" t="str">
+            <v>LV8PC8LR</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67" t="str">
+            <v>LV8RST104090</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68" t="str">
+            <v>N8PC865</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69" t="str">
+            <v>NE8ISO8859P10</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70" t="str">
+            <v>NEE8ISO8859P4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="I71" t="str">
+            <v>RU8BESTA</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="I72" t="str">
+            <v>RU8PC855</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="I73" t="str">
+            <v>RU8PC866</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="I74" t="str">
+            <v>SE8ISO8859P3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="I75" t="str">
+            <v>TH8MACTHAIS</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="I76" t="str">
+            <v>TH8TISASCII</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="I77" t="str">
+            <v>TR8DEC</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="I78" t="str">
+            <v>TR8MACTURKISHS</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="I79" t="str">
+            <v>TR8MSWIN1254</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="I80" t="str">
+            <v>TR8PC857</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="I81" t="str">
+            <v>US7ASCII</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="I82" t="str">
+            <v>US8PC437</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="I83" t="str">
+            <v>UTF8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="I84" t="str">
+            <v>VN8MSWIN1258</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="I85" t="str">
+            <v>VN8VN3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="I86" t="str">
+            <v>WE8DEC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="I87" t="str">
+            <v>WE8DG</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="I88" t="str">
+            <v>WE8ISO8859P1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="I89" t="str">
+            <v>WE8ISO8859P15</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="I90" t="str">
+            <v>WE8ISO8859P9</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="I91" t="str">
+            <v>WE8MACROMAN8S</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="I92" t="str">
+            <v>WE8MSWIN1252</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="I93" t="str">
+            <v>WE8NCR4970</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="I94" t="str">
+            <v>WE8NEXTSTEP</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="I95" t="str">
+            <v>WE8PC850</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="I96" t="str">
+            <v>WE8PC858</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="I97" t="str">
+            <v>WE8PC860</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="I98" t="str">
+            <v>WE8ROMAN8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="I99" t="str">
+            <v>ZHS16CGB231280</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="I100" t="str">
+            <v>ZHS16GBK</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="I101" t="str">
+            <v>ZHT16BIG5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="I102" t="str">
+            <v>ZHT16CCDC</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="I103" t="str">
+            <v>ZHT16DBT</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="I104" t="str">
+            <v>ZHT16HKSCS</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="I105" t="str">
+            <v>ZHT16MSWIN950</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="I106" t="str">
+            <v>ZHT32EUC</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="I107" t="str">
+            <v>ZHT32SOPS</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="I108" t="str">
+            <v>ZHT32TRIS</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="LB Rule Set Dropdown"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release-Info"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="DRGs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="DRGRouteRulesinOCI"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVols"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="Rule Set Dropdown"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DB_System_VM"/>
+      <sheetName val="DB_System_BM"/>
+      <sheetName val="DB_System_EXA"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
+      <sheetName val="Database_Dropdown"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23">
+        <row r="2">
+          <cell r="E2">
+            <v>301</v>
+          </cell>
+          <cell r="F2">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>302</v>
+          </cell>
+          <cell r="F3">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>303</v>
+          </cell>
+          <cell r="F4">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>307</v>
+          </cell>
+          <cell r="F5">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>308</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve">11.2.0.4 </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OLTP</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Exadata.Quarter2.92</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>LICENSE_INCLUDED</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>AL16UTF16</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>AL32UTF8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>STANDARD_EDITION</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>12.1.0.2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>DSS</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Exadata.Half2.184</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>BM.DenseIO1.36</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>BRING_YOUR_OWN_LICENSE</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>UTF8</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>AR8ADOS710</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ENTERPRISE_EDITION</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>12.2.0.1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Exadata.Full2.368</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>AR8ADOS720</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>18.0.0.0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Exadata.Quarter1.84</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>AR8APTEC715</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v xml:space="preserve">18.9.0.0 </v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Exadata.Half1.168</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>AR8ARABICMACS</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>18.10.0.0</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Exadata.Full1.336</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>AR8ASMO8X</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>18.11.0.0</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>AR8ISO8859P6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>19.0.0.0</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Exadata.Half3.200</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>AR8MSWIN1256</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>19.6.0.0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Exadata.Quater3.100</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>AR8MUSSAD768</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v xml:space="preserve">19.7.0.0 </v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Exadata.Full3.400</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>AR8NAFITHA711</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>19.8.0.0</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>AR8NAFITHA721</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>20.0.0.0</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>AR8SAKHR706</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>20.3.0.0</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>AR8SAKHR707</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15" t="str">
+            <v>AZ8ISO8859P9E</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16" t="str">
+            <v>BG8MSWIN</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17" t="str">
+            <v>BG8PC437S</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18" t="str">
+            <v>BLT8CP921</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19" t="str">
+            <v>BLT8ISO8859P13</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20" t="str">
+            <v>BLT8MSWIN1257</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21" t="str">
+            <v>BLT8PC775</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22" t="str">
+            <v>BN8BSCII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23" t="str">
+            <v>CDN8PC863</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24" t="str">
+            <v>CEL8ISO8859P14</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25" t="str">
+            <v>CL8ISO8859P5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26" t="str">
+            <v>CL8ISOIR111</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27" t="str">
+            <v>CL8KOI8R</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="I28" t="str">
+            <v>CL8KOI8U</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="I29" t="str">
+            <v>CL8MACCYRILLICS</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30" t="str">
+            <v>CL8MSWIN1251</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31" t="str">
+            <v>EE8ISO8859P2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32" t="str">
+            <v>EE8MACCES</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="I33" t="str">
+            <v>EE8MACCROATIANS</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="I34" t="str">
+            <v>EE8MSWIN1250</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35" t="str">
+            <v>EE8PC852</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36" t="str">
+            <v>EL8DEC</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="I37" t="str">
+            <v>EL8ISO8859P7</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="I38" t="str">
+            <v>EL8MACGREEKS</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="I39" t="str">
+            <v>EL8MSWIN1253</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40" t="str">
+            <v>EL8PC437S</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41" t="str">
+            <v>EL8PC851</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42" t="str">
+            <v>EL8PC869</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43" t="str">
+            <v>ET8MSWIN923</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44" t="str">
+            <v>HU8ABMOD</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45" t="str">
+            <v>HU8CWI2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46" t="str">
+            <v>IN8ISCII</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47" t="str">
+            <v>IS8PC861</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48" t="str">
+            <v>IW8ISO8859P8</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49" t="str">
+            <v>IW8MACHEBREWS</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50" t="str">
+            <v>IW8MSWIN1255</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51" t="str">
+            <v>IW8PC1507</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="I52" t="str">
+            <v>JA16EUC</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53" t="str">
+            <v>JA16EUCTILDE</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="I54" t="str">
+            <v>JA16SJIS</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55" t="str">
+            <v>JA16SJISTILDE</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56" t="str">
+            <v>JA16VMS</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57" t="str">
+            <v>KO16KSC5601</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58" t="str">
+            <v>KO16KSCCS</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59" t="str">
+            <v>KO16MSWIN949</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60" t="str">
+            <v>LA8ISO6937</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61" t="str">
+            <v>LA8PASSPORT</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62" t="str">
+            <v>LT8MSWIN921</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63" t="str">
+            <v>LT8PC772</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64" t="str">
+            <v>LT8PC774</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65" t="str">
+            <v>LV8PC1117</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66" t="str">
+            <v>LV8PC8LR</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67" t="str">
+            <v>LV8RST104090</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68" t="str">
+            <v>N8PC865</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69" t="str">
+            <v>NE8ISO8859P10</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70" t="str">
+            <v>NEE8ISO8859P4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="I71" t="str">
+            <v>RU8BESTA</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="I72" t="str">
+            <v>RU8PC855</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="I73" t="str">
+            <v>RU8PC866</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="I74" t="str">
+            <v>SE8ISO8859P3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="I75" t="str">
+            <v>TH8MACTHAIS</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="I76" t="str">
+            <v>TH8TISASCII</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="I77" t="str">
+            <v>TR8DEC</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="I78" t="str">
+            <v>TR8MACTURKISHS</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="I79" t="str">
+            <v>TR8MSWIN1254</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="I80" t="str">
+            <v>TR8PC857</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="I81" t="str">
+            <v>US7ASCII</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="I82" t="str">
+            <v>US8PC437</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="I83" t="str">
+            <v>UTF8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="I84" t="str">
+            <v>VN8MSWIN1258</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="I85" t="str">
+            <v>VN8VN3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="I86" t="str">
+            <v>WE8DEC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="I87" t="str">
+            <v>WE8DG</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="I88" t="str">
+            <v>WE8ISO8859P1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="I89" t="str">
+            <v>WE8ISO8859P15</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="I90" t="str">
+            <v>WE8ISO8859P9</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="I91" t="str">
+            <v>WE8MACROMAN8S</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="I92" t="str">
+            <v>WE8MSWIN1252</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="I93" t="str">
+            <v>WE8NCR4970</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="I94" t="str">
+            <v>WE8NEXTSTEP</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="I95" t="str">
+            <v>WE8PC850</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="I96" t="str">
+            <v>WE8PC858</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="I97" t="str">
+            <v>WE8PC860</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="I98" t="str">
+            <v>WE8ROMAN8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="I99" t="str">
+            <v>ZHS16CGB231280</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="I100" t="str">
+            <v>ZHS16GBK</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="I101" t="str">
+            <v>ZHT16BIG5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="I102" t="str">
+            <v>ZHT16CCDC</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="I103" t="str">
+            <v>ZHT16DBT</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="I104" t="str">
+            <v>ZHT16HKSCS</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="I105" t="str">
+            <v>ZHT16MSWIN950</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="I106" t="str">
+            <v>ZHT32EUC</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="I107" t="str">
+            <v>ZHT32SOPS</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="I108" t="str">
+            <v>ZHT32TRIS</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3900,7 +3915,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -3913,7 +3928,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3925,7 +3965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3942,28 +3982,28 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:D1" xr:uid="{00000000-0002-0000-0B00-000000000000}"/>
+    <dataValidation sqref="A1:D1" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3980,28 +4020,28 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:D1" xr:uid="{00000000-0002-0000-0C00-000000000000}"/>
+    <dataValidation sqref="A1:D1" xr:uid="{00000000-0002-0000-0B00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
@@ -4016,22 +4056,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-0D00-000000000000}"/>
+    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-0C00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
@@ -4056,49 +4096,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:K1" xr:uid="{00000000-0002-0000-0E00-000000000000}"/>
+    <dataValidation sqref="A1:K1" xr:uid="{00000000-0002-0000-0D00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4119,49 +4159,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:K1" xr:uid="{00000000-0002-0000-0F00-000000000000}"/>
+    <dataValidation sqref="A1:K1" xr:uid="{00000000-0002-0000-0E00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4177,22 +4217,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-1000-000000000000}"/>
+    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-0F00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4206,7 +4246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4249,130 +4289,130 @@
     <col min="35" max="35" width="13.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="38" max="154" width="28.44140625" style="35" customWidth="1"/>
-    <col min="155" max="16384" width="28.44140625" style="35"/>
+    <col min="38" max="155" width="28.44140625" style="35" customWidth="1"/>
+    <col min="156" max="16384" width="28.44140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="28" customFormat="1" ht="148.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="R1" s="36" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="T1" s="36" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AC1" s="27" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AD1" s="27" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AG1" s="27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AH1" s="27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AI1" s="27" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ1" s="27" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -4380,100 +4420,100 @@
         <v>3</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Y2" s="30" t="b">
         <v>1</v>
       </c>
       <c r="Z2" s="30" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA2" s="30" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AB2" s="30" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AC2" s="30" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AD2" s="30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AE2" s="30" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AF2" s="32" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AG2" s="30" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AH2" s="30">
         <v>301</v>
@@ -4482,19 +4522,19 @@
         <v>8</v>
       </c>
       <c r="AJ2" s="30" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AK2" s="29" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AL2" s="29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AM2" s="29" t="b">
         <v>0</v>
       </c>
       <c r="AN2" s="29" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="29" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4502,94 +4542,94 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M3" s="30"/>
       <c r="N3" s="30" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="U3" s="30"/>
       <c r="V3" s="30" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="W3" s="30" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="30" t="b">
         <v>0</v>
       </c>
       <c r="Z3" s="30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AA3" s="30" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AB3" s="30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AC3" s="30" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AD3" s="30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AE3" s="30" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AF3" s="32" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AG3" s="30" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AH3" s="30">
         <v>302</v>
@@ -4598,19 +4638,19 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AK3" s="29" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AL3" s="29" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AM3" s="29" t="b">
         <v>1</v>
       </c>
       <c r="AN3" s="29" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -4618,76 +4658,76 @@
         <v>5</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="L4" s="30" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="30" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="U4" s="30"/>
       <c r="V4" s="30"/>
       <c r="W4" s="30"/>
       <c r="X4" s="30" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Y4" s="30"/>
       <c r="Z4" s="30" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AA4" s="30" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB4" s="30"/>
       <c r="AC4" s="30" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AD4" s="30" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AE4" s="30" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AF4" s="32" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AG4" s="30" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AH4" s="30">
         <v>303</v>
@@ -4696,7 +4736,7 @@
         <v>32</v>
       </c>
       <c r="AN4" s="29" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -4704,18 +4744,18 @@
         <v>6</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
@@ -4723,7 +4763,7 @@
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P5" s="31"/>
       <c r="Q5" s="30"/>
@@ -4734,19 +4774,19 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="30" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="30"/>
       <c r="AD5" s="30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AE5" s="30" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AF5" s="32" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AG5" s="30"/>
       <c r="AH5" s="30">
@@ -4761,14 +4801,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -4793,10 +4833,10 @@
       <c r="AB6" s="30"/>
       <c r="AC6" s="30"/>
       <c r="AD6" s="30" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AE6" s="30" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AF6" s="33"/>
       <c r="AG6" s="30"/>
@@ -4810,14 +4850,14 @@
         <v>8</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -4842,10 +4882,10 @@
       <c r="AB7" s="30"/>
       <c r="AC7" s="30"/>
       <c r="AD7" s="30" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AE7" s="30" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AF7" s="33"/>
       <c r="AG7" s="30"/>
@@ -4857,14 +4897,14 @@
         <v>9</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -4889,10 +4929,10 @@
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
       <c r="AD8" s="30" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AE8" s="30" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AF8" s="33"/>
       <c r="AG8" s="30"/>
@@ -4904,14 +4944,14 @@
         <v>10</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -4936,10 +4976,10 @@
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
       <c r="AD9" s="30" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AE9" s="30" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AF9" s="33"/>
       <c r="AG9" s="30"/>
@@ -4951,14 +4991,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
@@ -4983,10 +5023,10 @@
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
       <c r="AD10" s="30" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AE10" s="30" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AF10" s="33"/>
       <c r="AG10" s="30"/>
@@ -4998,14 +5038,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -5030,10 +5070,10 @@
       <c r="AB11" s="30"/>
       <c r="AC11" s="30"/>
       <c r="AD11" s="30" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AE11" s="30" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AF11" s="33"/>
       <c r="AG11" s="30"/>
@@ -5046,7 +5086,7 @@
       </c>
       <c r="F12" s="30"/>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -5072,7 +5112,7 @@
       <c r="AC12" s="30"/>
       <c r="AD12" s="30"/>
       <c r="AE12" s="30" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AF12" s="33"/>
       <c r="AG12" s="30"/>
@@ -5085,7 +5125,7 @@
       </c>
       <c r="F13" s="30"/>
       <c r="G13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -5111,7 +5151,7 @@
       <c r="AC13" s="30"/>
       <c r="AD13" s="30"/>
       <c r="AE13" s="30" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AF13" s="33"/>
       <c r="AG13" s="30"/>
@@ -5124,7 +5164,7 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
@@ -5150,7 +5190,7 @@
       <c r="AC14" s="30"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="30" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AF14" s="33"/>
       <c r="AG14" s="30"/>
@@ -5163,7 +5203,7 @@
       </c>
       <c r="F15" s="30"/>
       <c r="G15" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
@@ -5189,7 +5229,7 @@
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
       <c r="AE15" s="30" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AF15" s="33"/>
       <c r="AG15" s="30"/>
@@ -5202,7 +5242,7 @@
       </c>
       <c r="F16" s="30"/>
       <c r="G16" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
@@ -5228,7 +5268,7 @@
       <c r="AC16" s="30"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="30" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AF16" s="33"/>
       <c r="AG16" s="30"/>
@@ -5241,7 +5281,7 @@
       </c>
       <c r="F17" s="30"/>
       <c r="G17" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -5267,7 +5307,7 @@
       <c r="AC17" s="30"/>
       <c r="AD17" s="30"/>
       <c r="AE17" s="30" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AF17" s="33"/>
       <c r="AG17" s="30"/>
@@ -5280,7 +5320,7 @@
       </c>
       <c r="F18" s="30"/>
       <c r="G18" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
@@ -5306,7 +5346,7 @@
       <c r="AC18" s="30"/>
       <c r="AD18" s="30"/>
       <c r="AE18" s="30" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AF18" s="33"/>
       <c r="AG18" s="30"/>
@@ -5319,7 +5359,7 @@
       </c>
       <c r="F19" s="30"/>
       <c r="G19" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -5345,7 +5385,7 @@
       <c r="AC19" s="30"/>
       <c r="AD19" s="30"/>
       <c r="AE19" s="30" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AF19" s="33"/>
       <c r="AG19" s="30"/>
@@ -5358,7 +5398,7 @@
       </c>
       <c r="F20" s="30"/>
       <c r="G20" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -5384,7 +5424,7 @@
       <c r="AC20" s="30"/>
       <c r="AD20" s="30"/>
       <c r="AE20" s="30" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AF20" s="33"/>
       <c r="AG20" s="30"/>
@@ -5397,7 +5437,7 @@
       </c>
       <c r="F21" s="30"/>
       <c r="G21" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -5423,7 +5463,7 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="30"/>
       <c r="AE21" s="30" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AF21" s="33"/>
       <c r="AG21" s="30"/>
@@ -5436,7 +5476,7 @@
       </c>
       <c r="F22" s="30"/>
       <c r="G22" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -5462,7 +5502,7 @@
       <c r="AC22" s="30"/>
       <c r="AD22" s="30"/>
       <c r="AE22" s="30" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AF22" s="33"/>
       <c r="AG22" s="30"/>
@@ -5475,7 +5515,7 @@
       </c>
       <c r="F23" s="30"/>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -5501,7 +5541,7 @@
       <c r="AC23" s="30"/>
       <c r="AD23" s="30"/>
       <c r="AE23" s="30" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AF23" s="33"/>
       <c r="AG23" s="30"/>
@@ -5514,7 +5554,7 @@
       </c>
       <c r="F24" s="30"/>
       <c r="G24" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -5540,7 +5580,7 @@
       <c r="AC24" s="30"/>
       <c r="AD24" s="30"/>
       <c r="AE24" s="30" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AF24" s="33"/>
       <c r="AG24" s="30"/>
@@ -5553,7 +5593,7 @@
       </c>
       <c r="F25" s="30"/>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
@@ -5579,7 +5619,7 @@
       <c r="AC25" s="30"/>
       <c r="AD25" s="30"/>
       <c r="AE25" s="30" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AF25" s="33"/>
       <c r="AG25" s="30"/>
@@ -5592,7 +5632,7 @@
       </c>
       <c r="F26" s="30"/>
       <c r="G26" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -5618,7 +5658,7 @@
       <c r="AC26" s="30"/>
       <c r="AD26" s="30"/>
       <c r="AE26" s="30" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AF26" s="33"/>
       <c r="AG26" s="30"/>
@@ -5631,7 +5671,7 @@
       </c>
       <c r="F27" s="30"/>
       <c r="G27" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
@@ -5657,7 +5697,7 @@
       <c r="AC27" s="30"/>
       <c r="AD27" s="30"/>
       <c r="AE27" s="30" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AF27" s="33"/>
       <c r="AG27" s="30"/>
@@ -5670,7 +5710,7 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -5696,7 +5736,7 @@
       <c r="AC28" s="30"/>
       <c r="AD28" s="30"/>
       <c r="AE28" s="30" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AF28" s="33"/>
       <c r="AG28" s="30"/>
@@ -5709,7 +5749,7 @@
       </c>
       <c r="F29" s="30"/>
       <c r="G29" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -5735,7 +5775,7 @@
       <c r="AC29" s="30"/>
       <c r="AD29" s="30"/>
       <c r="AE29" s="30" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AF29" s="33"/>
       <c r="AG29" s="30"/>
@@ -5748,7 +5788,7 @@
       </c>
       <c r="F30" s="30"/>
       <c r="G30" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
@@ -5774,7 +5814,7 @@
       <c r="AC30" s="30"/>
       <c r="AD30" s="30"/>
       <c r="AE30" s="30" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AF30" s="33"/>
       <c r="AG30" s="30"/>
@@ -5787,7 +5827,7 @@
       </c>
       <c r="F31" s="30"/>
       <c r="G31" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
@@ -5813,7 +5853,7 @@
       <c r="AC31" s="30"/>
       <c r="AD31" s="30"/>
       <c r="AE31" s="30" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AF31" s="33"/>
       <c r="AG31" s="30"/>
@@ -5826,7 +5866,7 @@
       </c>
       <c r="F32" s="30"/>
       <c r="G32" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
@@ -5852,7 +5892,7 @@
       <c r="AC32" s="30"/>
       <c r="AD32" s="30"/>
       <c r="AE32" s="30" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AF32" s="33"/>
       <c r="AG32" s="30"/>
@@ -5865,7 +5905,7 @@
       </c>
       <c r="F33" s="30"/>
       <c r="G33" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -5891,7 +5931,7 @@
       <c r="AC33" s="30"/>
       <c r="AD33" s="30"/>
       <c r="AE33" s="30" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AF33" s="33"/>
       <c r="AG33" s="30"/>
@@ -5904,7 +5944,7 @@
       </c>
       <c r="F34" s="30"/>
       <c r="G34" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
@@ -5930,7 +5970,7 @@
       <c r="AC34" s="30"/>
       <c r="AD34" s="30"/>
       <c r="AE34" s="30" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AF34" s="33"/>
       <c r="AG34" s="30"/>
@@ -5943,7 +5983,7 @@
       </c>
       <c r="F35" s="30"/>
       <c r="G35" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -5969,7 +6009,7 @@
       <c r="AC35" s="30"/>
       <c r="AD35" s="30"/>
       <c r="AE35" s="30" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AF35" s="33"/>
       <c r="AG35" s="30"/>
@@ -5982,7 +6022,7 @@
       </c>
       <c r="F36" s="30"/>
       <c r="G36" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
@@ -6008,7 +6048,7 @@
       <c r="AC36" s="30"/>
       <c r="AD36" s="30"/>
       <c r="AE36" s="30" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AF36" s="33"/>
       <c r="AG36" s="30"/>
@@ -6021,7 +6061,7 @@
       </c>
       <c r="F37" s="30"/>
       <c r="G37" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
@@ -6047,7 +6087,7 @@
       <c r="AC37" s="30"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AF37" s="33"/>
       <c r="AG37" s="30"/>
@@ -6060,7 +6100,7 @@
       </c>
       <c r="F38" s="30"/>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
@@ -6086,7 +6126,7 @@
       <c r="AC38" s="30"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AF38" s="33"/>
       <c r="AG38" s="30"/>
@@ -6099,7 +6139,7 @@
       </c>
       <c r="F39" s="30"/>
       <c r="G39" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -6125,7 +6165,7 @@
       <c r="AC39" s="30"/>
       <c r="AD39" s="30"/>
       <c r="AE39" s="30" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AF39" s="33"/>
       <c r="AG39" s="30"/>
@@ -6138,7 +6178,7 @@
       </c>
       <c r="F40" s="30"/>
       <c r="G40" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -6163,7 +6203,7 @@
       <c r="AC40" s="30"/>
       <c r="AD40" s="30"/>
       <c r="AE40" s="30" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AF40" s="33"/>
       <c r="AG40" s="30"/>
@@ -6175,7 +6215,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K41" s="30"/>
       <c r="M41" s="30"/>
@@ -6188,7 +6228,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K42" s="30"/>
       <c r="M42" s="30"/>
@@ -6200,7 +6240,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K43" s="30"/>
       <c r="M43" s="30"/>
@@ -6212,7 +6252,7 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K44" s="30"/>
       <c r="M44" s="30"/>
@@ -6274,7 +6314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -6299,782 +6339,782 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I2" s="18">
         <v>80</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K2" s="19">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I3" s="18">
         <v>40</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K3" s="19">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F4" s="19"/>
       <c r="H4" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F5" s="19"/>
       <c r="H5" s="19" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L5" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F6" s="19"/>
       <c r="H6" s="19" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F7" s="19"/>
       <c r="H7" s="19" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F8" s="19"/>
       <c r="H8" s="19" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F9" s="19"/>
       <c r="H9" s="19" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F10" s="19"/>
       <c r="H10" s="19" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F12" s="19"/>
       <c r="H12" s="19" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="H14" s="19" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15" s="19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H16" s="19" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="19" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="19" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="19" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="19" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H21" s="19" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="19" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H23" s="19" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H24" s="19" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H25" s="19" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H26" s="19" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H27" s="19" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H28" s="19" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H29" s="19" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H30" s="19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H31" s="19" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H32" s="19" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H33" s="19" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H34" s="19" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H35" s="19" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H36" s="19" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H37" s="19" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H38" s="19" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H39" s="19" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H40" s="19" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H41" s="19" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H42" s="19" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H43" s="19" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H44" s="19" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H45" s="19" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H46" s="19" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H47" s="19" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H48" s="19" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="19" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50" s="19" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="19" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="19" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H53" s="19" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H54" s="19" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H55" s="19" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H56" s="19" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H57" s="19" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H58" s="19" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H59" s="19" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H60" s="19" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H61" s="19" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H62" s="19" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H63" s="19" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H64" s="19" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H65" s="19" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H66" s="19" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H67" s="19" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H68" s="19" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H69" s="19" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H70" s="19" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H71" s="19" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H72" s="19" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H73" s="19" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H74" s="19" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H75" s="19" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H76" s="19" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H77" s="19" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H78" s="19" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H79" s="19" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H80" s="19" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H81" s="19" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H82" s="19" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H83" s="19" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H84" s="19" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H85" s="19" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H86" s="19" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H87" s="19" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H88" s="19" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H89" s="19" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H90" s="19" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H91" s="19" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H92" s="19" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H93" s="19" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H94" s="19" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H95" s="19" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H96" s="19" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H97" s="19" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H98" s="19" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H99" s="19" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H100" s="19" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H101" s="19" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H102" s="19" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H103" s="19" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H104" s="19" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H105" s="19" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H106" s="19" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H107" s="19" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H108" s="19" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -7087,8 +7127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7127,7 +7167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7146,36 +7186,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E2" s="11">
         <v>301</v>
@@ -7186,16 +7226,16 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E3" s="16">
         <v>302</v>
@@ -7206,16 +7246,16 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E4" s="16">
         <v>303</v>
@@ -7226,13 +7266,13 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="16">
@@ -7244,10 +7284,10 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C6" s="10"/>
       <c r="E6" s="16">
@@ -7257,189 +7297,189 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="16" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7452,7 +7492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7467,16 +7507,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7484,7 +7524,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7492,7 +7532,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7500,7 +7540,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7508,7 +7548,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7812,10 +7852,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7850,19 +7890,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>5</v>
@@ -8549,8 +8589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8575,16 +8615,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>5</v>
@@ -8618,16 +8658,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -8656,16 +8696,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -8695,19 +8735,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -8734,10 +8774,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/OCI.xlsx
+++ b/Backend/OCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\OCI_to_AZURE\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D523C323-1B53-4216-9F7B-63D722FE6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C3FE4A-C284-4634-BE0B-F75DD48435DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="NSG_Rules" sheetId="14" r:id="rId14"/>
     <sheet name="security_list_rules" sheetId="15" r:id="rId15"/>
     <sheet name="Security_List_Associations" sheetId="16" r:id="rId16"/>
-    <sheet name="DRG" sheetId="17" r:id="rId17"/>
+    <sheet name="IGW" sheetId="17" r:id="rId17"/>
     <sheet name="drop_down_rule_set" sheetId="18" state="hidden" r:id="rId18"/>
     <sheet name="Database_Dropdown" sheetId="19" state="hidden" r:id="rId19"/>
     <sheet name="LB Rule Set Dropdown" sheetId="20" state="hidden" r:id="rId20"/>
@@ -44,72 +44,72 @@
   </externalReferences>
   <definedNames>
     <definedName name="bm_shapes_drop" localSheetId="18">Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="20">[5]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="17">[3]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="20">[1]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="17">[2]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="bm_shapes_drop">#REF!</definedName>
     <definedName name="char_set" localSheetId="18">Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="20">[5]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="17">[3]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="20">[1]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="17">[2]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="19">#REF!</definedName>
     <definedName name="char_set" localSheetId="3">#REF!</definedName>
     <definedName name="char_set">#REF!</definedName>
-    <definedName name="D3D1000" localSheetId="3">'[2]DBSystems-VM-BM'!#REF!</definedName>
+    <definedName name="D3D1000" localSheetId="3">'[3]DBSystems-VM-BM'!#REF!</definedName>
     <definedName name="D3D1000">#REF!</definedName>
     <definedName name="db_sersion_drop" localSheetId="18">Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="20">[5]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="17">[3]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="20">[1]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="17">[2]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="3">#REF!</definedName>
     <definedName name="db_sersion_drop">#REF!</definedName>
     <definedName name="exa_shapes_drop" localSheetId="18">Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="20">[5]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="17">[3]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="20">[1]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="17">[2]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="exa_shapes_drop">#REF!</definedName>
     <definedName name="Header_Size" localSheetId="18">'[4]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="20">'[5]Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="20">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="17">#REF!</definedName>
     <definedName name="Header_Size" localSheetId="19">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="3">'[2]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="3">'[3]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">#REF!</definedName>
     <definedName name="license_type_drop" localSheetId="18">Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="20">[5]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="license_type_drop" localSheetId="17">[3]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="20">[1]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="17">[2]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="3">#REF!</definedName>
     <definedName name="license_type_drop">#REF!</definedName>
     <definedName name="nchar_set" localSheetId="18">Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="20">[5]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="17">[3]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="20">[1]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="17">[2]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="19">#REF!</definedName>
     <definedName name="nchar_set" localSheetId="3">#REF!</definedName>
     <definedName name="nchar_set">#REF!</definedName>
     <definedName name="Response_Code" localSheetId="18">'[4]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="20">'[5]Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="20">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="17">#REF!</definedName>
     <definedName name="Response_Code" localSheetId="19">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="3">'[2]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="3">'[3]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="18">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="20">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="17">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="3">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
-    <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
+    <definedName name="Shape_Option_DB">[5]Database!$B$10:$J$10</definedName>
     <definedName name="software_drop" localSheetId="18">Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="20">[5]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="17">[3]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="20">[1]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="17">[2]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="3">#REF!</definedName>
     <definedName name="software_drop">#REF!</definedName>
     <definedName name="VM_Shapes" localSheetId="18">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes">#REF!</definedName>
     <definedName name="VM_shapes_drop" localSheetId="18">Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="20">[5]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="17">[3]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="20">[1]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="17">[2]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="VM_shapes_drop">#REF!</definedName>
     <definedName name="workload_drop" localSheetId="18">Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="20">[5]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="17">[3]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="20">[1]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="17">[2]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="3">#REF!</definedName>
     <definedName name="workload_drop">#REF!</definedName>
   </definedNames>
@@ -1892,60 +1892,41 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Database"/>
+      <sheetName val="Release-Info"/>
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
       <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
       <sheetName val="VCNs"/>
+      <sheetName val="DRGs"/>
       <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
       <sheetName val="Subnets"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="AddRouteRules"/>
-      <sheetName val="AddSecRules"/>
+      <sheetName val="DRGRouteRulesinOCI"/>
       <sheetName val="RouteRulesinOCI"/>
       <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
       <sheetName val="DedicatedVMHosts"/>
       <sheetName val="Instances"/>
       <sheetName val="BlockVols"/>
-      <sheetName val="Tags"/>
-      <sheetName val="TagServer"/>
-      <sheetName val="TagVolume"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="Sheet 2"/>
-      <sheetName val="Data_Validation Values"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="Rule Set Dropdown"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DB_System_VM"/>
+      <sheetName val="DB_System_BM"/>
+      <sheetName val="DB_System_EXA"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
+      <sheetName val="Database_Dropdown"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -1965,14 +1946,1443 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23">
+        <row r="2">
+          <cell r="E2">
+            <v>301</v>
+          </cell>
+          <cell r="F2">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>302</v>
+          </cell>
+          <cell r="F3">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>303</v>
+          </cell>
+          <cell r="F4">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>307</v>
+          </cell>
+          <cell r="F5">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>308</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve">11.2.0.4 </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OLTP</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Exadata.Quarter2.92</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>LICENSE_INCLUDED</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>AL16UTF16</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>AL32UTF8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>STANDARD_EDITION</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>12.1.0.2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>DSS</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Exadata.Half2.184</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>BM.DenseIO1.36</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>BRING_YOUR_OWN_LICENSE</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>UTF8</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>AR8ADOS710</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ENTERPRISE_EDITION</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>12.2.0.1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Exadata.Full2.368</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>AR8ADOS720</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>18.0.0.0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Exadata.Quarter1.84</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>AR8APTEC715</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v xml:space="preserve">18.9.0.0 </v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Exadata.Half1.168</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>AR8ARABICMACS</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>18.10.0.0</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Exadata.Full1.336</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>AR8ASMO8X</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>18.11.0.0</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>AR8ISO8859P6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>19.0.0.0</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Exadata.Half3.200</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>AR8MSWIN1256</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>19.6.0.0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Exadata.Quater3.100</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>AR8MUSSAD768</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v xml:space="preserve">19.7.0.0 </v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Exadata.Full3.400</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>AR8NAFITHA711</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>19.8.0.0</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>AR8NAFITHA721</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>20.0.0.0</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>AR8SAKHR706</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>20.3.0.0</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>AR8SAKHR707</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15" t="str">
+            <v>AZ8ISO8859P9E</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16" t="str">
+            <v>BG8MSWIN</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17" t="str">
+            <v>BG8PC437S</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18" t="str">
+            <v>BLT8CP921</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19" t="str">
+            <v>BLT8ISO8859P13</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20" t="str">
+            <v>BLT8MSWIN1257</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21" t="str">
+            <v>BLT8PC775</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22" t="str">
+            <v>BN8BSCII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23" t="str">
+            <v>CDN8PC863</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24" t="str">
+            <v>CEL8ISO8859P14</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25" t="str">
+            <v>CL8ISO8859P5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26" t="str">
+            <v>CL8ISOIR111</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27" t="str">
+            <v>CL8KOI8R</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="I28" t="str">
+            <v>CL8KOI8U</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="I29" t="str">
+            <v>CL8MACCYRILLICS</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30" t="str">
+            <v>CL8MSWIN1251</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31" t="str">
+            <v>EE8ISO8859P2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32" t="str">
+            <v>EE8MACCES</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="I33" t="str">
+            <v>EE8MACCROATIANS</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="I34" t="str">
+            <v>EE8MSWIN1250</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35" t="str">
+            <v>EE8PC852</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36" t="str">
+            <v>EL8DEC</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="I37" t="str">
+            <v>EL8ISO8859P7</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="I38" t="str">
+            <v>EL8MACGREEKS</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="I39" t="str">
+            <v>EL8MSWIN1253</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40" t="str">
+            <v>EL8PC437S</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41" t="str">
+            <v>EL8PC851</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42" t="str">
+            <v>EL8PC869</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43" t="str">
+            <v>ET8MSWIN923</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44" t="str">
+            <v>HU8ABMOD</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45" t="str">
+            <v>HU8CWI2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46" t="str">
+            <v>IN8ISCII</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47" t="str">
+            <v>IS8PC861</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48" t="str">
+            <v>IW8ISO8859P8</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49" t="str">
+            <v>IW8MACHEBREWS</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50" t="str">
+            <v>IW8MSWIN1255</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51" t="str">
+            <v>IW8PC1507</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="I52" t="str">
+            <v>JA16EUC</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53" t="str">
+            <v>JA16EUCTILDE</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="I54" t="str">
+            <v>JA16SJIS</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55" t="str">
+            <v>JA16SJISTILDE</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56" t="str">
+            <v>JA16VMS</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57" t="str">
+            <v>KO16KSC5601</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58" t="str">
+            <v>KO16KSCCS</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59" t="str">
+            <v>KO16MSWIN949</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60" t="str">
+            <v>LA8ISO6937</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61" t="str">
+            <v>LA8PASSPORT</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62" t="str">
+            <v>LT8MSWIN921</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63" t="str">
+            <v>LT8PC772</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64" t="str">
+            <v>LT8PC774</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65" t="str">
+            <v>LV8PC1117</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66" t="str">
+            <v>LV8PC8LR</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67" t="str">
+            <v>LV8RST104090</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68" t="str">
+            <v>N8PC865</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69" t="str">
+            <v>NE8ISO8859P10</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70" t="str">
+            <v>NEE8ISO8859P4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="I71" t="str">
+            <v>RU8BESTA</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="I72" t="str">
+            <v>RU8PC855</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="I73" t="str">
+            <v>RU8PC866</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="I74" t="str">
+            <v>SE8ISO8859P3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="I75" t="str">
+            <v>TH8MACTHAIS</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="I76" t="str">
+            <v>TH8TISASCII</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="I77" t="str">
+            <v>TR8DEC</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="I78" t="str">
+            <v>TR8MACTURKISHS</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="I79" t="str">
+            <v>TR8MSWIN1254</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="I80" t="str">
+            <v>TR8PC857</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="I81" t="str">
+            <v>US7ASCII</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="I82" t="str">
+            <v>US8PC437</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="I83" t="str">
+            <v>UTF8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="I84" t="str">
+            <v>VN8MSWIN1258</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="I85" t="str">
+            <v>VN8VN3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="I86" t="str">
+            <v>WE8DEC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="I87" t="str">
+            <v>WE8DG</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="I88" t="str">
+            <v>WE8ISO8859P1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="I89" t="str">
+            <v>WE8ISO8859P15</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="I90" t="str">
+            <v>WE8ISO8859P9</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="I91" t="str">
+            <v>WE8MACROMAN8S</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="I92" t="str">
+            <v>WE8MSWIN1252</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="I93" t="str">
+            <v>WE8NCR4970</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="I94" t="str">
+            <v>WE8NEXTSTEP</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="I95" t="str">
+            <v>WE8PC850</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="I96" t="str">
+            <v>WE8PC858</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="I97" t="str">
+            <v>WE8PC860</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="I98" t="str">
+            <v>WE8ROMAN8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="I99" t="str">
+            <v>ZHS16CGB231280</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="I100" t="str">
+            <v>ZHS16GBK</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="I101" t="str">
+            <v>ZHT16BIG5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="I102" t="str">
+            <v>ZHT16CCDC</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="I103" t="str">
+            <v>ZHT16DBT</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="I104" t="str">
+            <v>ZHT16HKSCS</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="I105" t="str">
+            <v>ZHT16MSWIN950</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="I106" t="str">
+            <v>ZHT32EUC</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="I107" t="str">
+            <v>ZHT32SOPS</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="I108" t="str">
+            <v>ZHT32TRIS</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release-Info"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVols"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DB_System_VM"/>
+      <sheetName val="DB_System_BM"/>
+      <sheetName val="DB_System_EXA"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="Database_Dropdown"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve">11.2.0.4 </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OLTP</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Exadata.Quarter2.92</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>LICENSE_INCLUDED</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>AL16UTF16</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>AL32UTF8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>STANDARD_EDITION</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>12.1.0.2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>DSS</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Exadata.Half2.184</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>BM.DenseIO1.36</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>BRING_YOUR_OWN_LICENSE</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>UTF8</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>AR8ADOS710</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ENTERPRISE_EDITION</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>12.2.0.1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Exadata.Full2.368</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>AR8ADOS720</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>18.0.0.0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Exadata.Quarter1.84</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>AR8APTEC715</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v xml:space="preserve">18.9.0.0 </v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Exadata.Half1.168</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>AR8ARABICMACS</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>18.10.0.0</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Exadata.Full1.336</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>AR8ASMO8X</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>18.11.0.0</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>AR8ISO8859P6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>19.0.0.0</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Exadata.Half3.200</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>AR8MSWIN1256</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>19.6.0.0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Exadata.Quater3.100</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>AR8MUSSAD768</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v xml:space="preserve">19.7.0.0 </v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Exadata.Full3.400</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>AR8NAFITHA711</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>19.8.0.0</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>AR8NAFITHA721</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>20.0.0.0</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>AR8SAKHR706</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>20.3.0.0</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>AR8SAKHR707</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15" t="str">
+            <v>AZ8ISO8859P9E</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16" t="str">
+            <v>BG8MSWIN</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17" t="str">
+            <v>BG8PC437S</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18" t="str">
+            <v>BLT8CP921</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19" t="str">
+            <v>BLT8ISO8859P13</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20" t="str">
+            <v>BLT8MSWIN1257</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21" t="str">
+            <v>BLT8PC775</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22" t="str">
+            <v>BN8BSCII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23" t="str">
+            <v>CDN8PC863</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24" t="str">
+            <v>CEL8ISO8859P14</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25" t="str">
+            <v>CL8ISO8859P5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26" t="str">
+            <v>CL8ISOIR111</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27" t="str">
+            <v>CL8KOI8R</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="I28" t="str">
+            <v>CL8KOI8U</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="I29" t="str">
+            <v>CL8MACCYRILLICS</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30" t="str">
+            <v>CL8MSWIN1251</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31" t="str">
+            <v>EE8ISO8859P2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32" t="str">
+            <v>EE8MACCES</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="I33" t="str">
+            <v>EE8MACCROATIANS</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="I34" t="str">
+            <v>EE8MSWIN1250</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35" t="str">
+            <v>EE8PC852</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36" t="str">
+            <v>EL8DEC</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="I37" t="str">
+            <v>EL8ISO8859P7</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="I38" t="str">
+            <v>EL8MACGREEKS</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="I39" t="str">
+            <v>EL8MSWIN1253</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40" t="str">
+            <v>EL8PC437S</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41" t="str">
+            <v>EL8PC851</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42" t="str">
+            <v>EL8PC869</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43" t="str">
+            <v>ET8MSWIN923</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44" t="str">
+            <v>HU8ABMOD</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45" t="str">
+            <v>HU8CWI2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46" t="str">
+            <v>IN8ISCII</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47" t="str">
+            <v>IS8PC861</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48" t="str">
+            <v>IW8ISO8859P8</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49" t="str">
+            <v>IW8MACHEBREWS</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50" t="str">
+            <v>IW8MSWIN1255</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51" t="str">
+            <v>IW8PC1507</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="I52" t="str">
+            <v>JA16EUC</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53" t="str">
+            <v>JA16EUCTILDE</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="I54" t="str">
+            <v>JA16SJIS</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55" t="str">
+            <v>JA16SJISTILDE</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56" t="str">
+            <v>JA16VMS</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57" t="str">
+            <v>KO16KSC5601</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58" t="str">
+            <v>KO16KSCCS</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59" t="str">
+            <v>KO16MSWIN949</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60" t="str">
+            <v>LA8ISO6937</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61" t="str">
+            <v>LA8PASSPORT</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62" t="str">
+            <v>LT8MSWIN921</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63" t="str">
+            <v>LT8PC772</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64" t="str">
+            <v>LT8PC774</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65" t="str">
+            <v>LV8PC1117</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66" t="str">
+            <v>LV8PC8LR</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67" t="str">
+            <v>LV8RST104090</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68" t="str">
+            <v>N8PC865</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69" t="str">
+            <v>NE8ISO8859P10</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70" t="str">
+            <v>NEE8ISO8859P4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="I71" t="str">
+            <v>RU8BESTA</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="I72" t="str">
+            <v>RU8PC855</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="I73" t="str">
+            <v>RU8PC866</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="I74" t="str">
+            <v>SE8ISO8859P3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="I75" t="str">
+            <v>TH8MACTHAIS</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="I76" t="str">
+            <v>TH8TISASCII</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="I77" t="str">
+            <v>TR8DEC</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="I78" t="str">
+            <v>TR8MACTURKISHS</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="I79" t="str">
+            <v>TR8MSWIN1254</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="I80" t="str">
+            <v>TR8PC857</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="I81" t="str">
+            <v>US7ASCII</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="I82" t="str">
+            <v>US8PC437</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="I83" t="str">
+            <v>UTF8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="I84" t="str">
+            <v>VN8MSWIN1258</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="I85" t="str">
+            <v>VN8VN3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="I86" t="str">
+            <v>WE8DEC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="I87" t="str">
+            <v>WE8DG</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="I88" t="str">
+            <v>WE8ISO8859P1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="I89" t="str">
+            <v>WE8ISO8859P15</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="I90" t="str">
+            <v>WE8ISO8859P9</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="I91" t="str">
+            <v>WE8MACROMAN8S</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="I92" t="str">
+            <v>WE8MSWIN1252</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="I93" t="str">
+            <v>WE8NCR4970</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="I94" t="str">
+            <v>WE8NEXTSTEP</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="I95" t="str">
+            <v>WE8PC850</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="I96" t="str">
+            <v>WE8PC858</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="I97" t="str">
+            <v>WE8PC860</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="I98" t="str">
+            <v>WE8ROMAN8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="I99" t="str">
+            <v>ZHS16CGB231280</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="I100" t="str">
+            <v>ZHS16GBK</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="I101" t="str">
+            <v>ZHT16BIG5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="I102" t="str">
+            <v>ZHT16CCDC</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="I103" t="str">
+            <v>ZHT16DBT</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="I104" t="str">
+            <v>ZHT16HKSCS</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="I105" t="str">
+            <v>ZHT16MSWIN950</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="I106" t="str">
+            <v>ZHT32EUC</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="I107" t="str">
+            <v>ZHT32SOPS</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="I108" t="str">
+            <v>ZHT32TRIS</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2093,41 +3503,77 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Release-Info"/>
+      <sheetName val="LB Rule Set Dropdown"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Database"/>
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
       <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
       <sheetName val="VCNs"/>
       <sheetName val="VCN Info"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="ADW_ATP"/>
       <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
+      <sheetName val="AddRouteRules"/>
+      <sheetName val="AddSecRules"/>
       <sheetName val="RouteRulesinOCI"/>
       <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
       <sheetName val="DedicatedVMHosts"/>
       <sheetName val="Instances"/>
       <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_BM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="Database_Dropdown"/>
+      <sheetName val="Tags"/>
+      <sheetName val="TagServer"/>
+      <sheetName val="TagVolume"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="Sheet 2"/>
+      <sheetName val="Data_Validation Values"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -2147,1454 +3593,8 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v xml:space="preserve">11.2.0.4 </v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OLTP</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Exadata.Quarter2.92</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>LICENSE_INCLUDED</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>AL16UTF16</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>AL32UTF8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>STANDARD_EDITION</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>12.1.0.2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>DSS</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Exadata.Half2.184</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>BM.DenseIO1.36</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>BRING_YOUR_OWN_LICENSE</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>UTF8</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>AR8ADOS710</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ENTERPRISE_EDITION</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>12.2.0.1</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Exadata.Full2.368</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>AR8ADOS720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>18.0.0.0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Exadata.Quarter1.84</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>AR8APTEC715</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v xml:space="preserve">18.9.0.0 </v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Exadata.Half1.168</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>AR8ARABICMACS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>18.10.0.0</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Exadata.Full1.336</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>AR8ASMO8X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>18.11.0.0</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>AR8ISO8859P6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>19.0.0.0</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Exadata.Half3.200</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>AR8MSWIN1256</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>19.6.0.0</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Exadata.Quater3.100</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>AR8MUSSAD768</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v xml:space="preserve">19.7.0.0 </v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Exadata.Full3.400</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>AR8NAFITHA711</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>19.8.0.0</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>AR8NAFITHA721</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>20.0.0.0</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>AR8SAKHR706</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>20.3.0.0</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>AR8SAKHR707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15" t="str">
-            <v>AZ8ISO8859P9E</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16" t="str">
-            <v>BG8MSWIN</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17" t="str">
-            <v>BG8PC437S</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18" t="str">
-            <v>BLT8CP921</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19" t="str">
-            <v>BLT8ISO8859P13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20" t="str">
-            <v>BLT8MSWIN1257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21" t="str">
-            <v>BLT8PC775</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22" t="str">
-            <v>BN8BSCII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23" t="str">
-            <v>CDN8PC863</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24" t="str">
-            <v>CEL8ISO8859P14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25" t="str">
-            <v>CL8ISO8859P5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26" t="str">
-            <v>CL8ISOIR111</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27" t="str">
-            <v>CL8KOI8R</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28" t="str">
-            <v>CL8KOI8U</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29" t="str">
-            <v>CL8MACCYRILLICS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30" t="str">
-            <v>CL8MSWIN1251</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31" t="str">
-            <v>EE8ISO8859P2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32" t="str">
-            <v>EE8MACCES</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33" t="str">
-            <v>EE8MACCROATIANS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34" t="str">
-            <v>EE8MSWIN1250</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35" t="str">
-            <v>EE8PC852</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36" t="str">
-            <v>EL8DEC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37" t="str">
-            <v>EL8ISO8859P7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38" t="str">
-            <v>EL8MACGREEKS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39" t="str">
-            <v>EL8MSWIN1253</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40" t="str">
-            <v>EL8PC437S</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41" t="str">
-            <v>EL8PC851</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42" t="str">
-            <v>EL8PC869</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43" t="str">
-            <v>ET8MSWIN923</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44" t="str">
-            <v>HU8ABMOD</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45" t="str">
-            <v>HU8CWI2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46" t="str">
-            <v>IN8ISCII</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47" t="str">
-            <v>IS8PC861</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48" t="str">
-            <v>IW8ISO8859P8</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49" t="str">
-            <v>IW8MACHEBREWS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50" t="str">
-            <v>IW8MSWIN1255</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51" t="str">
-            <v>IW8PC1507</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52" t="str">
-            <v>JA16EUC</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53" t="str">
-            <v>JA16EUCTILDE</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54" t="str">
-            <v>JA16SJIS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55" t="str">
-            <v>JA16SJISTILDE</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56" t="str">
-            <v>JA16VMS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57" t="str">
-            <v>KO16KSC5601</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="I58" t="str">
-            <v>KO16KSCCS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="I59" t="str">
-            <v>KO16MSWIN949</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="I60" t="str">
-            <v>LA8ISO6937</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="I61" t="str">
-            <v>LA8PASSPORT</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="I62" t="str">
-            <v>LT8MSWIN921</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="I63" t="str">
-            <v>LT8PC772</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="I64" t="str">
-            <v>LT8PC774</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="I65" t="str">
-            <v>LV8PC1117</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="I66" t="str">
-            <v>LV8PC8LR</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="I67" t="str">
-            <v>LV8RST104090</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="I68" t="str">
-            <v>N8PC865</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="I69" t="str">
-            <v>NE8ISO8859P10</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="I70" t="str">
-            <v>NEE8ISO8859P4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="I71" t="str">
-            <v>RU8BESTA</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="I72" t="str">
-            <v>RU8PC855</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="I73" t="str">
-            <v>RU8PC866</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="I74" t="str">
-            <v>SE8ISO8859P3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="I75" t="str">
-            <v>TH8MACTHAIS</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="I76" t="str">
-            <v>TH8TISASCII</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="I77" t="str">
-            <v>TR8DEC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="I78" t="str">
-            <v>TR8MACTURKISHS</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="I79" t="str">
-            <v>TR8MSWIN1254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="I80" t="str">
-            <v>TR8PC857</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="I81" t="str">
-            <v>US7ASCII</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="I82" t="str">
-            <v>US8PC437</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="I83" t="str">
-            <v>UTF8</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="I84" t="str">
-            <v>VN8MSWIN1258</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="I85" t="str">
-            <v>VN8VN3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="I86" t="str">
-            <v>WE8DEC</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87" t="str">
-            <v>WE8DG</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88" t="str">
-            <v>WE8ISO8859P1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89" t="str">
-            <v>WE8ISO8859P15</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90" t="str">
-            <v>WE8ISO8859P9</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91" t="str">
-            <v>WE8MACROMAN8S</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92" t="str">
-            <v>WE8MSWIN1252</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93" t="str">
-            <v>WE8NCR4970</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94" t="str">
-            <v>WE8NEXTSTEP</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95" t="str">
-            <v>WE8PC850</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96" t="str">
-            <v>WE8PC858</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97" t="str">
-            <v>WE8PC860</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98" t="str">
-            <v>WE8ROMAN8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99" t="str">
-            <v>ZHS16CGB231280</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100" t="str">
-            <v>ZHS16GBK</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101" t="str">
-            <v>ZHT16BIG5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102" t="str">
-            <v>ZHT16CCDC</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103" t="str">
-            <v>ZHT16DBT</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104" t="str">
-            <v>ZHT16HKSCS</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105" t="str">
-            <v>ZHT16MSWIN950</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106" t="str">
-            <v>ZHT32EUC</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107" t="str">
-            <v>ZHT32SOPS</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108" t="str">
-            <v>ZHT32TRIS</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="LB Rule Set Dropdown"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="Rule Set Dropdown"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_BM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="drop_down_rule_comp"/>
-      <sheetName val="Database_Dropdown"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23">
-        <row r="2">
-          <cell r="E2">
-            <v>301</v>
-          </cell>
-          <cell r="F2">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>302</v>
-          </cell>
-          <cell r="F3">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>303</v>
-          </cell>
-          <cell r="F4">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>307</v>
-          </cell>
-          <cell r="F5">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>308</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v xml:space="preserve">11.2.0.4 </v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OLTP</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Exadata.Quarter2.92</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>LICENSE_INCLUDED</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>AL16UTF16</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>AL32UTF8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>STANDARD_EDITION</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>12.1.0.2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>DSS</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Exadata.Half2.184</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>BM.DenseIO1.36</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>BRING_YOUR_OWN_LICENSE</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>UTF8</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>AR8ADOS710</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ENTERPRISE_EDITION</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>12.2.0.1</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Exadata.Full2.368</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>AR8ADOS720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>18.0.0.0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Exadata.Quarter1.84</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>AR8APTEC715</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v xml:space="preserve">18.9.0.0 </v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Exadata.Half1.168</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>AR8ARABICMACS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>18.10.0.0</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Exadata.Full1.336</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>AR8ASMO8X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>18.11.0.0</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>AR8ISO8859P6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>19.0.0.0</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Exadata.Half3.200</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>AR8MSWIN1256</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>19.6.0.0</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Exadata.Quater3.100</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>AR8MUSSAD768</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v xml:space="preserve">19.7.0.0 </v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Exadata.Full3.400</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>AR8NAFITHA711</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>19.8.0.0</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>AR8NAFITHA721</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>20.0.0.0</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>AR8SAKHR706</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>20.3.0.0</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>AR8SAKHR707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15" t="str">
-            <v>AZ8ISO8859P9E</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16" t="str">
-            <v>BG8MSWIN</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17" t="str">
-            <v>BG8PC437S</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18" t="str">
-            <v>BLT8CP921</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19" t="str">
-            <v>BLT8ISO8859P13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20" t="str">
-            <v>BLT8MSWIN1257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21" t="str">
-            <v>BLT8PC775</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22" t="str">
-            <v>BN8BSCII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23" t="str">
-            <v>CDN8PC863</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24" t="str">
-            <v>CEL8ISO8859P14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25" t="str">
-            <v>CL8ISO8859P5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26" t="str">
-            <v>CL8ISOIR111</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27" t="str">
-            <v>CL8KOI8R</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28" t="str">
-            <v>CL8KOI8U</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29" t="str">
-            <v>CL8MACCYRILLICS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30" t="str">
-            <v>CL8MSWIN1251</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31" t="str">
-            <v>EE8ISO8859P2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32" t="str">
-            <v>EE8MACCES</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33" t="str">
-            <v>EE8MACCROATIANS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34" t="str">
-            <v>EE8MSWIN1250</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35" t="str">
-            <v>EE8PC852</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36" t="str">
-            <v>EL8DEC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37" t="str">
-            <v>EL8ISO8859P7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38" t="str">
-            <v>EL8MACGREEKS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39" t="str">
-            <v>EL8MSWIN1253</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40" t="str">
-            <v>EL8PC437S</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41" t="str">
-            <v>EL8PC851</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42" t="str">
-            <v>EL8PC869</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43" t="str">
-            <v>ET8MSWIN923</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44" t="str">
-            <v>HU8ABMOD</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45" t="str">
-            <v>HU8CWI2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46" t="str">
-            <v>IN8ISCII</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47" t="str">
-            <v>IS8PC861</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48" t="str">
-            <v>IW8ISO8859P8</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49" t="str">
-            <v>IW8MACHEBREWS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50" t="str">
-            <v>IW8MSWIN1255</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51" t="str">
-            <v>IW8PC1507</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52" t="str">
-            <v>JA16EUC</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53" t="str">
-            <v>JA16EUCTILDE</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54" t="str">
-            <v>JA16SJIS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55" t="str">
-            <v>JA16SJISTILDE</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56" t="str">
-            <v>JA16VMS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57" t="str">
-            <v>KO16KSC5601</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="I58" t="str">
-            <v>KO16KSCCS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="I59" t="str">
-            <v>KO16MSWIN949</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="I60" t="str">
-            <v>LA8ISO6937</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="I61" t="str">
-            <v>LA8PASSPORT</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="I62" t="str">
-            <v>LT8MSWIN921</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="I63" t="str">
-            <v>LT8PC772</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="I64" t="str">
-            <v>LT8PC774</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="I65" t="str">
-            <v>LV8PC1117</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="I66" t="str">
-            <v>LV8PC8LR</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="I67" t="str">
-            <v>LV8RST104090</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="I68" t="str">
-            <v>N8PC865</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="I69" t="str">
-            <v>NE8ISO8859P10</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="I70" t="str">
-            <v>NEE8ISO8859P4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="I71" t="str">
-            <v>RU8BESTA</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="I72" t="str">
-            <v>RU8PC855</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="I73" t="str">
-            <v>RU8PC866</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="I74" t="str">
-            <v>SE8ISO8859P3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="I75" t="str">
-            <v>TH8MACTHAIS</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="I76" t="str">
-            <v>TH8TISASCII</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="I77" t="str">
-            <v>TR8DEC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="I78" t="str">
-            <v>TR8MACTURKISHS</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="I79" t="str">
-            <v>TR8MSWIN1254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="I80" t="str">
-            <v>TR8PC857</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="I81" t="str">
-            <v>US7ASCII</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="I82" t="str">
-            <v>US8PC437</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="I83" t="str">
-            <v>UTF8</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="I84" t="str">
-            <v>VN8MSWIN1258</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="I85" t="str">
-            <v>VN8VN3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="I86" t="str">
-            <v>WE8DEC</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87" t="str">
-            <v>WE8DG</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88" t="str">
-            <v>WE8ISO8859P1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89" t="str">
-            <v>WE8ISO8859P15</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90" t="str">
-            <v>WE8ISO8859P9</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91" t="str">
-            <v>WE8MACROMAN8S</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92" t="str">
-            <v>WE8MSWIN1252</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93" t="str">
-            <v>WE8NCR4970</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94" t="str">
-            <v>WE8NEXTSTEP</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95" t="str">
-            <v>WE8PC850</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96" t="str">
-            <v>WE8PC858</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97" t="str">
-            <v>WE8PC860</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98" t="str">
-            <v>WE8ROMAN8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99" t="str">
-            <v>ZHS16CGB231280</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100" t="str">
-            <v>ZHS16GBK</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101" t="str">
-            <v>ZHT16BIG5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102" t="str">
-            <v>ZHT16CCDC</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103" t="str">
-            <v>ZHT16DBT</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104" t="str">
-            <v>ZHT16HKSCS</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105" t="str">
-            <v>ZHT16MSWIN950</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106" t="str">
-            <v>ZHT32EUC</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107" t="str">
-            <v>ZHT32SOPS</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108" t="str">
-            <v>ZHT32TRIS</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4235,7 +4235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7127,7 +7127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Backend/OCI.xlsx
+++ b/Backend/OCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\OCI_to_AZURE\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C3FE4A-C284-4634-BE0B-F75DD48435DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36008694-FCC5-40EC-9B5C-B1CB0C035B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -23,93 +23,94 @@
     <sheet name="Route_Table" sheetId="8" r:id="rId8"/>
     <sheet name="RT_Attachment" sheetId="9" r:id="rId9"/>
     <sheet name="RG" sheetId="10" r:id="rId10"/>
-    <sheet name="NAT" sheetId="11" r:id="rId11"/>
-    <sheet name="SGW" sheetId="12" r:id="rId12"/>
-    <sheet name="NSG" sheetId="13" r:id="rId13"/>
-    <sheet name="NSG_Rules" sheetId="14" r:id="rId14"/>
-    <sheet name="security_list_rules" sheetId="15" r:id="rId15"/>
-    <sheet name="Security_List_Associations" sheetId="16" r:id="rId16"/>
-    <sheet name="IGW" sheetId="17" r:id="rId17"/>
-    <sheet name="drop_down_rule_set" sheetId="18" state="hidden" r:id="rId18"/>
-    <sheet name="Database_Dropdown" sheetId="19" state="hidden" r:id="rId19"/>
-    <sheet name="LB Rule Set Dropdown" sheetId="20" state="hidden" r:id="rId20"/>
-    <sheet name="drop_down_rule_comp" sheetId="21" state="hidden" r:id="rId21"/>
+    <sheet name="Region" sheetId="11" r:id="rId11"/>
+    <sheet name="NAT" sheetId="12" r:id="rId12"/>
+    <sheet name="SGW" sheetId="13" r:id="rId13"/>
+    <sheet name="NSG" sheetId="14" r:id="rId14"/>
+    <sheet name="NSG_Rules" sheetId="15" r:id="rId15"/>
+    <sheet name="security_list_rules" sheetId="16" r:id="rId16"/>
+    <sheet name="Security_List_Associations" sheetId="17" r:id="rId17"/>
+    <sheet name="IGW" sheetId="18" r:id="rId18"/>
+    <sheet name="drop_down_rule_set" sheetId="19" state="hidden" r:id="rId19"/>
+    <sheet name="Database_Dropdown" sheetId="20" state="hidden" r:id="rId20"/>
+    <sheet name="LB Rule Set Dropdown" sheetId="21" state="hidden" r:id="rId21"/>
+    <sheet name="drop_down_rule_comp" sheetId="22" state="hidden" r:id="rId22"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
     <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
-    <definedName name="bm_shapes_drop" localSheetId="18">Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="20">[1]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="17">[2]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="19">Database_Dropdown!#REF!</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="21">[5]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="18">[3]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="bm_shapes_drop">#REF!</definedName>
-    <definedName name="char_set" localSheetId="18">Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="20">[1]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="17">[2]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="19">#REF!</definedName>
+    <definedName name="char_set" localSheetId="19">Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="21">[5]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="18">[3]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="20">#REF!</definedName>
     <definedName name="char_set" localSheetId="3">#REF!</definedName>
     <definedName name="char_set">#REF!</definedName>
-    <definedName name="D3D1000" localSheetId="3">'[3]DBSystems-VM-BM'!#REF!</definedName>
+    <definedName name="D3D1000" localSheetId="3">'[2]DBSystems-VM-BM'!#REF!</definedName>
     <definedName name="D3D1000">#REF!</definedName>
-    <definedName name="db_sersion_drop" localSheetId="18">Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="20">[1]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="17">[2]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="19">Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="21">[5]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="18">[3]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="3">#REF!</definedName>
     <definedName name="db_sersion_drop">#REF!</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="18">Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="20">[1]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="17">[2]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="19">Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="21">[5]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="18">[3]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="exa_shapes_drop">#REF!</definedName>
-    <definedName name="Header_Size" localSheetId="18">'[4]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="20">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="17">#REF!</definedName>
-    <definedName name="Header_Size" localSheetId="19">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="3">'[3]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="19">'[4]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="21">'[5]Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="18">#REF!</definedName>
+    <definedName name="Header_Size" localSheetId="20">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="3">'[2]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">#REF!</definedName>
-    <definedName name="license_type_drop" localSheetId="18">Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="20">[1]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="license_type_drop" localSheetId="17">[2]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="19">Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="21">[5]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="18">[3]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="3">#REF!</definedName>
     <definedName name="license_type_drop">#REF!</definedName>
-    <definedName name="nchar_set" localSheetId="18">Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="20">[1]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="17">[2]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="19">#REF!</definedName>
+    <definedName name="nchar_set" localSheetId="19">Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="21">[5]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="18">[3]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="20">#REF!</definedName>
     <definedName name="nchar_set" localSheetId="3">#REF!</definedName>
     <definedName name="nchar_set">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="18">'[4]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="20">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="17">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="19">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="3">'[3]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="19">'[4]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="21">'[5]Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="18">#REF!</definedName>
+    <definedName name="Response_Code" localSheetId="20">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="3">'[2]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="19">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="21">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="18">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="20">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="17">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="3">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
-    <definedName name="Shape_Option_DB">[5]Database!$B$10:$J$10</definedName>
-    <definedName name="software_drop" localSheetId="18">Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="20">[1]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="17">[2]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="Shape_Option_DB">[1]Database!$B$10:$J$10</definedName>
+    <definedName name="software_drop" localSheetId="19">Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="21">[5]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="18">[3]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="3">#REF!</definedName>
     <definedName name="software_drop">#REF!</definedName>
-    <definedName name="VM_Shapes" localSheetId="18">Database_Dropdown!$A$2:$A$12</definedName>
+    <definedName name="VM_Shapes" localSheetId="19">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes">#REF!</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="18">Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="20">[1]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="17">[2]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="19">Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="21">[5]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="18">[3]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="VM_shapes_drop">#REF!</definedName>
-    <definedName name="workload_drop" localSheetId="18">Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="20">[1]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="17">[2]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="19">Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="21">[5]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="18">[3]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="3">#REF!</definedName>
     <definedName name="workload_drop">#REF!</definedName>
   </definedNames>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="455">
   <si>
     <t xml:space="preserve">
 CD3 Automation Toolkit Release - v2024.2.0</t>
@@ -139,21 +140,6 @@
     <t>Defined Tags</t>
   </si>
   <si>
-    <t>devops-nprod-cmp</t>
-  </si>
-  <si>
-    <t>devops-prod-cmp</t>
-  </si>
-  <si>
-    <t>LZdemo-network-cmp</t>
-  </si>
-  <si>
-    <t>nprod-cmp</t>
-  </si>
-  <si>
-    <t>prodUPDATE-cmp</t>
-  </si>
-  <si>
     <t>U_ids</t>
   </si>
   <si>
@@ -221,6 +207,9 @@
   </si>
   <si>
     <t>Network_Region</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
   <si>
     <t>NAT_GW_Name</t>
@@ -1892,41 +1881,60 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Release-Info"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Database"/>
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
       <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
       <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
       <sheetName val="VCN Info"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="ADW_ATP"/>
       <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
+      <sheetName val="AddRouteRules"/>
+      <sheetName val="AddSecRules"/>
       <sheetName val="RouteRulesinOCI"/>
       <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
       <sheetName val="DedicatedVMHosts"/>
       <sheetName val="Instances"/>
       <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="Rule Set Dropdown"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_BM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="drop_down_rule_comp"/>
-      <sheetName val="Database_Dropdown"/>
+      <sheetName val="Tags"/>
+      <sheetName val="TagServer"/>
+      <sheetName val="TagVolume"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="Sheet 2"/>
+      <sheetName val="Data_Validation Values"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -1946,1443 +1954,14 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23">
-        <row r="2">
-          <cell r="E2">
-            <v>301</v>
-          </cell>
-          <cell r="F2">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>302</v>
-          </cell>
-          <cell r="F3">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>303</v>
-          </cell>
-          <cell r="F4">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>307</v>
-          </cell>
-          <cell r="F5">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>308</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v xml:space="preserve">11.2.0.4 </v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OLTP</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Exadata.Quarter2.92</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>LICENSE_INCLUDED</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>AL16UTF16</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>AL32UTF8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>STANDARD_EDITION</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>12.1.0.2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>DSS</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Exadata.Half2.184</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>BM.DenseIO1.36</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>BRING_YOUR_OWN_LICENSE</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>UTF8</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>AR8ADOS710</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ENTERPRISE_EDITION</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>12.2.0.1</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Exadata.Full2.368</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>AR8ADOS720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>18.0.0.0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Exadata.Quarter1.84</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>AR8APTEC715</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v xml:space="preserve">18.9.0.0 </v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Exadata.Half1.168</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>AR8ARABICMACS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>18.10.0.0</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Exadata.Full1.336</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>AR8ASMO8X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>18.11.0.0</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>AR8ISO8859P6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>19.0.0.0</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Exadata.Half3.200</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>AR8MSWIN1256</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>19.6.0.0</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Exadata.Quater3.100</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>AR8MUSSAD768</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v xml:space="preserve">19.7.0.0 </v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Exadata.Full3.400</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>AR8NAFITHA711</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>19.8.0.0</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>AR8NAFITHA721</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>20.0.0.0</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>AR8SAKHR706</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>20.3.0.0</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>AR8SAKHR707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15" t="str">
-            <v>AZ8ISO8859P9E</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16" t="str">
-            <v>BG8MSWIN</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17" t="str">
-            <v>BG8PC437S</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18" t="str">
-            <v>BLT8CP921</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19" t="str">
-            <v>BLT8ISO8859P13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20" t="str">
-            <v>BLT8MSWIN1257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21" t="str">
-            <v>BLT8PC775</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22" t="str">
-            <v>BN8BSCII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23" t="str">
-            <v>CDN8PC863</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24" t="str">
-            <v>CEL8ISO8859P14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25" t="str">
-            <v>CL8ISO8859P5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26" t="str">
-            <v>CL8ISOIR111</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27" t="str">
-            <v>CL8KOI8R</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28" t="str">
-            <v>CL8KOI8U</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29" t="str">
-            <v>CL8MACCYRILLICS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30" t="str">
-            <v>CL8MSWIN1251</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31" t="str">
-            <v>EE8ISO8859P2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32" t="str">
-            <v>EE8MACCES</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33" t="str">
-            <v>EE8MACCROATIANS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34" t="str">
-            <v>EE8MSWIN1250</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35" t="str">
-            <v>EE8PC852</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36" t="str">
-            <v>EL8DEC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37" t="str">
-            <v>EL8ISO8859P7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38" t="str">
-            <v>EL8MACGREEKS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39" t="str">
-            <v>EL8MSWIN1253</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40" t="str">
-            <v>EL8PC437S</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41" t="str">
-            <v>EL8PC851</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42" t="str">
-            <v>EL8PC869</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43" t="str">
-            <v>ET8MSWIN923</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44" t="str">
-            <v>HU8ABMOD</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45" t="str">
-            <v>HU8CWI2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46" t="str">
-            <v>IN8ISCII</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47" t="str">
-            <v>IS8PC861</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48" t="str">
-            <v>IW8ISO8859P8</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49" t="str">
-            <v>IW8MACHEBREWS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50" t="str">
-            <v>IW8MSWIN1255</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51" t="str">
-            <v>IW8PC1507</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52" t="str">
-            <v>JA16EUC</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53" t="str">
-            <v>JA16EUCTILDE</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54" t="str">
-            <v>JA16SJIS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55" t="str">
-            <v>JA16SJISTILDE</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56" t="str">
-            <v>JA16VMS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57" t="str">
-            <v>KO16KSC5601</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="I58" t="str">
-            <v>KO16KSCCS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="I59" t="str">
-            <v>KO16MSWIN949</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="I60" t="str">
-            <v>LA8ISO6937</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="I61" t="str">
-            <v>LA8PASSPORT</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="I62" t="str">
-            <v>LT8MSWIN921</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="I63" t="str">
-            <v>LT8PC772</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="I64" t="str">
-            <v>LT8PC774</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="I65" t="str">
-            <v>LV8PC1117</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="I66" t="str">
-            <v>LV8PC8LR</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="I67" t="str">
-            <v>LV8RST104090</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="I68" t="str">
-            <v>N8PC865</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="I69" t="str">
-            <v>NE8ISO8859P10</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="I70" t="str">
-            <v>NEE8ISO8859P4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="I71" t="str">
-            <v>RU8BESTA</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="I72" t="str">
-            <v>RU8PC855</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="I73" t="str">
-            <v>RU8PC866</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="I74" t="str">
-            <v>SE8ISO8859P3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="I75" t="str">
-            <v>TH8MACTHAIS</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="I76" t="str">
-            <v>TH8TISASCII</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="I77" t="str">
-            <v>TR8DEC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="I78" t="str">
-            <v>TR8MACTURKISHS</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="I79" t="str">
-            <v>TR8MSWIN1254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="I80" t="str">
-            <v>TR8PC857</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="I81" t="str">
-            <v>US7ASCII</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="I82" t="str">
-            <v>US8PC437</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="I83" t="str">
-            <v>UTF8</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="I84" t="str">
-            <v>VN8MSWIN1258</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="I85" t="str">
-            <v>VN8VN3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="I86" t="str">
-            <v>WE8DEC</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87" t="str">
-            <v>WE8DG</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88" t="str">
-            <v>WE8ISO8859P1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89" t="str">
-            <v>WE8ISO8859P15</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90" t="str">
-            <v>WE8ISO8859P9</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91" t="str">
-            <v>WE8MACROMAN8S</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92" t="str">
-            <v>WE8MSWIN1252</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93" t="str">
-            <v>WE8NCR4970</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94" t="str">
-            <v>WE8NEXTSTEP</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95" t="str">
-            <v>WE8PC850</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96" t="str">
-            <v>WE8PC858</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97" t="str">
-            <v>WE8PC860</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98" t="str">
-            <v>WE8ROMAN8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99" t="str">
-            <v>ZHS16CGB231280</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100" t="str">
-            <v>ZHS16GBK</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101" t="str">
-            <v>ZHT16BIG5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102" t="str">
-            <v>ZHT16CCDC</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103" t="str">
-            <v>ZHT16DBT</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104" t="str">
-            <v>ZHT16HKSCS</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105" t="str">
-            <v>ZHT16MSWIN950</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106" t="str">
-            <v>ZHT32EUC</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107" t="str">
-            <v>ZHT32SOPS</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108" t="str">
-            <v>ZHT32TRIS</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_BM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="Database_Dropdown"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v xml:space="preserve">11.2.0.4 </v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OLTP</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Exadata.Quarter2.92</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>LICENSE_INCLUDED</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>AL16UTF16</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>AL32UTF8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>STANDARD_EDITION</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>12.1.0.2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>DSS</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Exadata.Half2.184</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>BM.DenseIO1.36</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>BRING_YOUR_OWN_LICENSE</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>UTF8</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>AR8ADOS710</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ENTERPRISE_EDITION</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>12.2.0.1</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Exadata.Full2.368</v>
-          </cell>
-          <cell r="I4" t="str">
-            <v>AR8ADOS720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>18.0.0.0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Exadata.Quarter1.84</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>AR8APTEC715</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v xml:space="preserve">18.9.0.0 </v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Exadata.Half1.168</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>AR8ARABICMACS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>18.10.0.0</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Exadata.Full1.336</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>AR8ASMO8X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>18.11.0.0</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="I8" t="str">
-            <v>AR8ISO8859P6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>19.0.0.0</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Exadata.Half3.200</v>
-          </cell>
-          <cell r="I9" t="str">
-            <v>AR8MSWIN1256</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>19.6.0.0</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Exadata.Quater3.100</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>AR8MUSSAD768</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v xml:space="preserve">19.7.0.0 </v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Exadata.Full3.400</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>AR8NAFITHA711</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>19.8.0.0</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>AR8NAFITHA721</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>20.0.0.0</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>AR8SAKHR706</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>20.3.0.0</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>AR8SAKHR707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15" t="str">
-            <v>AZ8ISO8859P9E</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16" t="str">
-            <v>BG8MSWIN</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17" t="str">
-            <v>BG8PC437S</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18" t="str">
-            <v>BLT8CP921</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19" t="str">
-            <v>BLT8ISO8859P13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20" t="str">
-            <v>BLT8MSWIN1257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21" t="str">
-            <v>BLT8PC775</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22" t="str">
-            <v>BN8BSCII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23" t="str">
-            <v>CDN8PC863</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24" t="str">
-            <v>CEL8ISO8859P14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25" t="str">
-            <v>CL8ISO8859P5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26" t="str">
-            <v>CL8ISOIR111</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27" t="str">
-            <v>CL8KOI8R</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28" t="str">
-            <v>CL8KOI8U</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29" t="str">
-            <v>CL8MACCYRILLICS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30" t="str">
-            <v>CL8MSWIN1251</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31" t="str">
-            <v>EE8ISO8859P2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32" t="str">
-            <v>EE8MACCES</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33" t="str">
-            <v>EE8MACCROATIANS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34" t="str">
-            <v>EE8MSWIN1250</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35" t="str">
-            <v>EE8PC852</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36" t="str">
-            <v>EL8DEC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37" t="str">
-            <v>EL8ISO8859P7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38" t="str">
-            <v>EL8MACGREEKS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39" t="str">
-            <v>EL8MSWIN1253</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40" t="str">
-            <v>EL8PC437S</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41" t="str">
-            <v>EL8PC851</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42" t="str">
-            <v>EL8PC869</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43" t="str">
-            <v>ET8MSWIN923</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44" t="str">
-            <v>HU8ABMOD</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45" t="str">
-            <v>HU8CWI2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46" t="str">
-            <v>IN8ISCII</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47" t="str">
-            <v>IS8PC861</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48" t="str">
-            <v>IW8ISO8859P8</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49" t="str">
-            <v>IW8MACHEBREWS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50" t="str">
-            <v>IW8MSWIN1255</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51" t="str">
-            <v>IW8PC1507</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52" t="str">
-            <v>JA16EUC</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53" t="str">
-            <v>JA16EUCTILDE</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54" t="str">
-            <v>JA16SJIS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55" t="str">
-            <v>JA16SJISTILDE</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56" t="str">
-            <v>JA16VMS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57" t="str">
-            <v>KO16KSC5601</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="I58" t="str">
-            <v>KO16KSCCS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="I59" t="str">
-            <v>KO16MSWIN949</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="I60" t="str">
-            <v>LA8ISO6937</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="I61" t="str">
-            <v>LA8PASSPORT</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="I62" t="str">
-            <v>LT8MSWIN921</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="I63" t="str">
-            <v>LT8PC772</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="I64" t="str">
-            <v>LT8PC774</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="I65" t="str">
-            <v>LV8PC1117</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="I66" t="str">
-            <v>LV8PC8LR</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="I67" t="str">
-            <v>LV8RST104090</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="I68" t="str">
-            <v>N8PC865</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="I69" t="str">
-            <v>NE8ISO8859P10</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="I70" t="str">
-            <v>NEE8ISO8859P4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="I71" t="str">
-            <v>RU8BESTA</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="I72" t="str">
-            <v>RU8PC855</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="I73" t="str">
-            <v>RU8PC866</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="I74" t="str">
-            <v>SE8ISO8859P3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="I75" t="str">
-            <v>TH8MACTHAIS</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="I76" t="str">
-            <v>TH8TISASCII</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="I77" t="str">
-            <v>TR8DEC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="I78" t="str">
-            <v>TR8MACTURKISHS</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="I79" t="str">
-            <v>TR8MSWIN1254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="I80" t="str">
-            <v>TR8PC857</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="I81" t="str">
-            <v>US7ASCII</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="I82" t="str">
-            <v>US8PC437</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="I83" t="str">
-            <v>UTF8</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="I84" t="str">
-            <v>VN8MSWIN1258</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="I85" t="str">
-            <v>VN8VN3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="I86" t="str">
-            <v>WE8DEC</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87" t="str">
-            <v>WE8DG</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88" t="str">
-            <v>WE8ISO8859P1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89" t="str">
-            <v>WE8ISO8859P15</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90" t="str">
-            <v>WE8ISO8859P9</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91" t="str">
-            <v>WE8MACROMAN8S</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92" t="str">
-            <v>WE8MSWIN1252</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93" t="str">
-            <v>WE8NCR4970</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94" t="str">
-            <v>WE8NEXTSTEP</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95" t="str">
-            <v>WE8PC850</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96" t="str">
-            <v>WE8PC858</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97" t="str">
-            <v>WE8PC860</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98" t="str">
-            <v>WE8ROMAN8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99" t="str">
-            <v>ZHS16CGB231280</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100" t="str">
-            <v>ZHS16GBK</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101" t="str">
-            <v>ZHT16BIG5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102" t="str">
-            <v>ZHT16CCDC</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103" t="str">
-            <v>ZHT16DBT</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104" t="str">
-            <v>ZHT16HKSCS</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105" t="str">
-            <v>ZHT16MSWIN950</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106" t="str">
-            <v>ZHT32EUC</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107" t="str">
-            <v>ZHT32SOPS</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108" t="str">
-            <v>ZHT32TRIS</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3503,77 +2082,41 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LB Rule Set Dropdown"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Database"/>
+      <sheetName val="Release-Info"/>
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
       <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
       <sheetName val="VCNs"/>
       <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
       <sheetName val="Subnets"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="AddRouteRules"/>
-      <sheetName val="AddSecRules"/>
       <sheetName val="RouteRulesinOCI"/>
       <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
       <sheetName val="DedicatedVMHosts"/>
       <sheetName val="Instances"/>
       <sheetName val="BlockVols"/>
-      <sheetName val="Tags"/>
-      <sheetName val="TagServer"/>
-      <sheetName val="TagVolume"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="Sheet 2"/>
-      <sheetName val="Data_Validation Values"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DB_System_VM"/>
+      <sheetName val="DB_System_BM"/>
+      <sheetName val="DB_System_EXA"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="Database_Dropdown"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -3593,8 +2136,1454 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve">11.2.0.4 </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OLTP</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Exadata.Quarter2.92</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>LICENSE_INCLUDED</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>AL16UTF16</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>AL32UTF8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>STANDARD_EDITION</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>12.1.0.2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>DSS</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Exadata.Half2.184</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>BM.DenseIO1.36</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>BRING_YOUR_OWN_LICENSE</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>UTF8</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>AR8ADOS710</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ENTERPRISE_EDITION</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>12.2.0.1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Exadata.Full2.368</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>AR8ADOS720</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>18.0.0.0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Exadata.Quarter1.84</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>AR8APTEC715</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v xml:space="preserve">18.9.0.0 </v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Exadata.Half1.168</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>AR8ARABICMACS</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>18.10.0.0</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Exadata.Full1.336</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>AR8ASMO8X</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>18.11.0.0</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>AR8ISO8859P6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>19.0.0.0</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Exadata.Half3.200</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>AR8MSWIN1256</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>19.6.0.0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Exadata.Quater3.100</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>AR8MUSSAD768</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v xml:space="preserve">19.7.0.0 </v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Exadata.Full3.400</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>AR8NAFITHA711</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>19.8.0.0</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>AR8NAFITHA721</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>20.0.0.0</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>AR8SAKHR706</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>20.3.0.0</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>AR8SAKHR707</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15" t="str">
+            <v>AZ8ISO8859P9E</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16" t="str">
+            <v>BG8MSWIN</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17" t="str">
+            <v>BG8PC437S</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18" t="str">
+            <v>BLT8CP921</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19" t="str">
+            <v>BLT8ISO8859P13</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20" t="str">
+            <v>BLT8MSWIN1257</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21" t="str">
+            <v>BLT8PC775</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22" t="str">
+            <v>BN8BSCII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23" t="str">
+            <v>CDN8PC863</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24" t="str">
+            <v>CEL8ISO8859P14</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25" t="str">
+            <v>CL8ISO8859P5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26" t="str">
+            <v>CL8ISOIR111</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27" t="str">
+            <v>CL8KOI8R</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="I28" t="str">
+            <v>CL8KOI8U</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="I29" t="str">
+            <v>CL8MACCYRILLICS</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30" t="str">
+            <v>CL8MSWIN1251</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31" t="str">
+            <v>EE8ISO8859P2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32" t="str">
+            <v>EE8MACCES</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="I33" t="str">
+            <v>EE8MACCROATIANS</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="I34" t="str">
+            <v>EE8MSWIN1250</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35" t="str">
+            <v>EE8PC852</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36" t="str">
+            <v>EL8DEC</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="I37" t="str">
+            <v>EL8ISO8859P7</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="I38" t="str">
+            <v>EL8MACGREEKS</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="I39" t="str">
+            <v>EL8MSWIN1253</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40" t="str">
+            <v>EL8PC437S</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41" t="str">
+            <v>EL8PC851</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42" t="str">
+            <v>EL8PC869</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43" t="str">
+            <v>ET8MSWIN923</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44" t="str">
+            <v>HU8ABMOD</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45" t="str">
+            <v>HU8CWI2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46" t="str">
+            <v>IN8ISCII</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47" t="str">
+            <v>IS8PC861</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48" t="str">
+            <v>IW8ISO8859P8</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49" t="str">
+            <v>IW8MACHEBREWS</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50" t="str">
+            <v>IW8MSWIN1255</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51" t="str">
+            <v>IW8PC1507</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="I52" t="str">
+            <v>JA16EUC</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53" t="str">
+            <v>JA16EUCTILDE</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="I54" t="str">
+            <v>JA16SJIS</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55" t="str">
+            <v>JA16SJISTILDE</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56" t="str">
+            <v>JA16VMS</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57" t="str">
+            <v>KO16KSC5601</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58" t="str">
+            <v>KO16KSCCS</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59" t="str">
+            <v>KO16MSWIN949</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60" t="str">
+            <v>LA8ISO6937</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61" t="str">
+            <v>LA8PASSPORT</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62" t="str">
+            <v>LT8MSWIN921</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63" t="str">
+            <v>LT8PC772</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64" t="str">
+            <v>LT8PC774</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65" t="str">
+            <v>LV8PC1117</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66" t="str">
+            <v>LV8PC8LR</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67" t="str">
+            <v>LV8RST104090</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68" t="str">
+            <v>N8PC865</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69" t="str">
+            <v>NE8ISO8859P10</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70" t="str">
+            <v>NEE8ISO8859P4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="I71" t="str">
+            <v>RU8BESTA</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="I72" t="str">
+            <v>RU8PC855</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="I73" t="str">
+            <v>RU8PC866</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="I74" t="str">
+            <v>SE8ISO8859P3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="I75" t="str">
+            <v>TH8MACTHAIS</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="I76" t="str">
+            <v>TH8TISASCII</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="I77" t="str">
+            <v>TR8DEC</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="I78" t="str">
+            <v>TR8MACTURKISHS</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="I79" t="str">
+            <v>TR8MSWIN1254</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="I80" t="str">
+            <v>TR8PC857</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="I81" t="str">
+            <v>US7ASCII</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="I82" t="str">
+            <v>US8PC437</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="I83" t="str">
+            <v>UTF8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="I84" t="str">
+            <v>VN8MSWIN1258</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="I85" t="str">
+            <v>VN8VN3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="I86" t="str">
+            <v>WE8DEC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="I87" t="str">
+            <v>WE8DG</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="I88" t="str">
+            <v>WE8ISO8859P1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="I89" t="str">
+            <v>WE8ISO8859P15</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="I90" t="str">
+            <v>WE8ISO8859P9</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="I91" t="str">
+            <v>WE8MACROMAN8S</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="I92" t="str">
+            <v>WE8MSWIN1252</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="I93" t="str">
+            <v>WE8NCR4970</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="I94" t="str">
+            <v>WE8NEXTSTEP</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="I95" t="str">
+            <v>WE8PC850</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="I96" t="str">
+            <v>WE8PC858</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="I97" t="str">
+            <v>WE8PC860</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="I98" t="str">
+            <v>WE8ROMAN8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="I99" t="str">
+            <v>ZHS16CGB231280</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="I100" t="str">
+            <v>ZHS16GBK</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="I101" t="str">
+            <v>ZHT16BIG5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="I102" t="str">
+            <v>ZHT16CCDC</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="I103" t="str">
+            <v>ZHT16DBT</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="I104" t="str">
+            <v>ZHT16HKSCS</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="I105" t="str">
+            <v>ZHT16MSWIN950</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="I106" t="str">
+            <v>ZHT32EUC</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="I107" t="str">
+            <v>ZHT32SOPS</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="I108" t="str">
+            <v>ZHT32TRIS</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="LB Rule Set Dropdown"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release-Info"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="DRGs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="DRGRouteRulesinOCI"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVols"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="Rule Set Dropdown"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DB_System_VM"/>
+      <sheetName val="DB_System_BM"/>
+      <sheetName val="DB_System_EXA"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
+      <sheetName val="Database_Dropdown"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23">
+        <row r="2">
+          <cell r="E2">
+            <v>301</v>
+          </cell>
+          <cell r="F2">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>302</v>
+          </cell>
+          <cell r="F3">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>303</v>
+          </cell>
+          <cell r="F4">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>307</v>
+          </cell>
+          <cell r="F5">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>308</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve">11.2.0.4 </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OLTP</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Exadata.Quarter2.92</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>LICENSE_INCLUDED</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>AL16UTF16</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>AL32UTF8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>STANDARD_EDITION</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>12.1.0.2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>DSS</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Exadata.Half2.184</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>BM.DenseIO1.36</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>BRING_YOUR_OWN_LICENSE</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>UTF8</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>AR8ADOS710</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ENTERPRISE_EDITION</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>12.2.0.1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Exadata.Full2.368</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>AR8ADOS720</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ENTERPROSE_EDITION_HIGH_PERFORMANCE</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>18.0.0.0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Exadata.Quarter1.84</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>AR8APTEC715</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v xml:space="preserve">18.9.0.0 </v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Exadata.Half1.168</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>AR8ARABICMACS</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>18.10.0.0</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Exadata.Full1.336</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>AR8ASMO8X</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>18.11.0.0</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>AR8ISO8859P6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>19.0.0.0</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Exadata.Half3.200</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>AR8MSWIN1256</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>19.6.0.0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Exadata.Quater3.100</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>AR8MUSSAD768</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v xml:space="preserve">19.7.0.0 </v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Exadata.Full3.400</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>AR8NAFITHA711</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>19.8.0.0</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>AR8NAFITHA721</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>20.0.0.0</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>AR8SAKHR706</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>20.3.0.0</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>AR8SAKHR707</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15" t="str">
+            <v>AZ8ISO8859P9E</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16" t="str">
+            <v>BG8MSWIN</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17" t="str">
+            <v>BG8PC437S</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18" t="str">
+            <v>BLT8CP921</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19" t="str">
+            <v>BLT8ISO8859P13</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20" t="str">
+            <v>BLT8MSWIN1257</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21" t="str">
+            <v>BLT8PC775</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22" t="str">
+            <v>BN8BSCII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23" t="str">
+            <v>CDN8PC863</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24" t="str">
+            <v>CEL8ISO8859P14</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25" t="str">
+            <v>CL8ISO8859P5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26" t="str">
+            <v>CL8ISOIR111</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27" t="str">
+            <v>CL8KOI8R</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="I28" t="str">
+            <v>CL8KOI8U</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="I29" t="str">
+            <v>CL8MACCYRILLICS</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30" t="str">
+            <v>CL8MSWIN1251</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31" t="str">
+            <v>EE8ISO8859P2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32" t="str">
+            <v>EE8MACCES</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="I33" t="str">
+            <v>EE8MACCROATIANS</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="I34" t="str">
+            <v>EE8MSWIN1250</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35" t="str">
+            <v>EE8PC852</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36" t="str">
+            <v>EL8DEC</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="I37" t="str">
+            <v>EL8ISO8859P7</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="I38" t="str">
+            <v>EL8MACGREEKS</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="I39" t="str">
+            <v>EL8MSWIN1253</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40" t="str">
+            <v>EL8PC437S</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41" t="str">
+            <v>EL8PC851</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42" t="str">
+            <v>EL8PC869</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43" t="str">
+            <v>ET8MSWIN923</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44" t="str">
+            <v>HU8ABMOD</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45" t="str">
+            <v>HU8CWI2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46" t="str">
+            <v>IN8ISCII</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47" t="str">
+            <v>IS8PC861</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48" t="str">
+            <v>IW8ISO8859P8</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49" t="str">
+            <v>IW8MACHEBREWS</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50" t="str">
+            <v>IW8MSWIN1255</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51" t="str">
+            <v>IW8PC1507</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="I52" t="str">
+            <v>JA16EUC</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53" t="str">
+            <v>JA16EUCTILDE</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="I54" t="str">
+            <v>JA16SJIS</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55" t="str">
+            <v>JA16SJISTILDE</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56" t="str">
+            <v>JA16VMS</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57" t="str">
+            <v>KO16KSC5601</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58" t="str">
+            <v>KO16KSCCS</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59" t="str">
+            <v>KO16MSWIN949</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60" t="str">
+            <v>LA8ISO6937</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61" t="str">
+            <v>LA8PASSPORT</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62" t="str">
+            <v>LT8MSWIN921</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63" t="str">
+            <v>LT8PC772</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64" t="str">
+            <v>LT8PC774</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65" t="str">
+            <v>LV8PC1117</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66" t="str">
+            <v>LV8PC8LR</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67" t="str">
+            <v>LV8RST104090</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68" t="str">
+            <v>N8PC865</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69" t="str">
+            <v>NE8ISO8859P10</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70" t="str">
+            <v>NEE8ISO8859P4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="I71" t="str">
+            <v>RU8BESTA</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="I72" t="str">
+            <v>RU8PC855</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="I73" t="str">
+            <v>RU8PC866</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="I74" t="str">
+            <v>SE8ISO8859P3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="I75" t="str">
+            <v>TH8MACTHAIS</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="I76" t="str">
+            <v>TH8TISASCII</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="I77" t="str">
+            <v>TR8DEC</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="I78" t="str">
+            <v>TR8MACTURKISHS</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="I79" t="str">
+            <v>TR8MSWIN1254</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="I80" t="str">
+            <v>TR8PC857</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="I81" t="str">
+            <v>US7ASCII</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="I82" t="str">
+            <v>US8PC437</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="I83" t="str">
+            <v>UTF8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="I84" t="str">
+            <v>VN8MSWIN1258</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="I85" t="str">
+            <v>VN8VN3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="I86" t="str">
+            <v>WE8DEC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="I87" t="str">
+            <v>WE8DG</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="I88" t="str">
+            <v>WE8ISO8859P1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="I89" t="str">
+            <v>WE8ISO8859P15</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="I90" t="str">
+            <v>WE8ISO8859P9</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="I91" t="str">
+            <v>WE8MACROMAN8S</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="I92" t="str">
+            <v>WE8MSWIN1252</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="I93" t="str">
+            <v>WE8NCR4970</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="I94" t="str">
+            <v>WE8NEXTSTEP</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="I95" t="str">
+            <v>WE8PC850</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="I96" t="str">
+            <v>WE8PC858</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="I97" t="str">
+            <v>WE8PC860</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="I98" t="str">
+            <v>WE8ROMAN8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="I99" t="str">
+            <v>ZHS16CGB231280</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="I100" t="str">
+            <v>ZHS16GBK</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="I101" t="str">
+            <v>ZHT16BIG5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="I102" t="str">
+            <v>ZHT16CCDC</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="I103" t="str">
+            <v>ZHT16DBT</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="I104" t="str">
+            <v>ZHT16HKSCS</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="I105" t="str">
+            <v>ZHT16MSWIN950</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="I106" t="str">
+            <v>ZHT32EUC</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="I107" t="str">
+            <v>ZHT32SOPS</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="I108" t="str">
+            <v>ZHT32TRIS</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3915,10 +3904,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3928,32 +3917,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3966,10 +3930,36 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A1" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3982,32 +3972,32 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:D1" xr:uid="{00000000-0002-0000-0A00-000000000000}"/>
+    <dataValidation sqref="A1:D1" xr:uid="{00000000-0002-0000-0B00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4020,32 +4010,32 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:D1" xr:uid="{00000000-0002-0000-0B00-000000000000}"/>
+    <dataValidation sqref="A1:D1" xr:uid="{00000000-0002-0000-0C00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4056,26 +4046,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-0C00-000000000000}"/>
+    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-0D00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4096,53 +4086,53 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:K1" xr:uid="{00000000-0002-0000-0D00-000000000000}"/>
+    <dataValidation sqref="A1:K1" xr:uid="{00000000-0002-0000-0E00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4159,53 +4149,53 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:K1" xr:uid="{00000000-0002-0000-0E00-000000000000}"/>
+    <dataValidation sqref="A1:K1" xr:uid="{00000000-0002-0000-0F00-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4217,27 +4207,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-0F00-000000000000}"/>
+    <dataValidation sqref="A1:B1" xr:uid="{00000000-0002-0000-1000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -4245,8 +4233,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4289,130 +4277,130 @@
     <col min="35" max="35" width="13.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="38" max="155" width="28.44140625" style="35" customWidth="1"/>
-    <col min="156" max="16384" width="28.44140625" style="35"/>
+    <col min="38" max="158" width="28.44140625" style="35" customWidth="1"/>
+    <col min="159" max="16384" width="28.44140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="28" customFormat="1" ht="148.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>67</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="V1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="W1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="X1" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="AC1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AH1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AN1" s="27" t="s">
         <v>96</v>
-      </c>
-      <c r="AK1" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL1" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM1" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN1" s="27" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -4420,100 +4408,100 @@
         <v>3</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="G2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="L2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="M2" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="N2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="O2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="P2" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="Q2" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="R2" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="S2" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="T2" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="U2" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="V2" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="W2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="X2" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="V2" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>123</v>
       </c>
       <c r="Y2" s="30" t="b">
         <v>1</v>
       </c>
       <c r="Z2" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AF2" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AG2" s="30" t="s">
         <v>126</v>
-      </c>
-      <c r="AC2" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD2" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE2" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF2" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG2" s="30" t="s">
-        <v>130</v>
       </c>
       <c r="AH2" s="30">
         <v>301</v>
@@ -4522,19 +4510,19 @@
         <v>8</v>
       </c>
       <c r="AJ2" s="30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AK2" s="29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AL2" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AM2" s="29" t="b">
         <v>0</v>
       </c>
       <c r="AN2" s="29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="29" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4542,94 +4530,94 @@
         <v>4</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="H3" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="I3" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="30" t="s">
         <v>136</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>140</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M3" s="30"/>
       <c r="N3" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="R3" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="S3" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="T3" s="30" t="s">
         <v>144</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="T3" s="30" t="s">
-        <v>148</v>
       </c>
       <c r="U3" s="30"/>
       <c r="V3" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="W3" s="30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Y3" s="30" t="b">
         <v>0</v>
       </c>
       <c r="Z3" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC3" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD3" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="AA3" s="30" t="s">
+      <c r="AE3" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="AB3" s="30" t="s">
+      <c r="AF3" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="AC3" s="30" t="s">
+      <c r="AG3" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="AD3" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE3" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF3" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG3" s="30" t="s">
-        <v>159</v>
       </c>
       <c r="AH3" s="30">
         <v>302</v>
@@ -4638,19 +4626,19 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AK3" s="29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AL3" s="29" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AM3" s="29" t="b">
         <v>1</v>
       </c>
       <c r="AN3" s="29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -4658,76 +4646,76 @@
         <v>5</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="L4" s="30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="U4" s="30"/>
       <c r="V4" s="30"/>
       <c r="W4" s="30"/>
       <c r="X4" s="30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y4" s="30"/>
       <c r="Z4" s="30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA4" s="30" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AB4" s="30"/>
       <c r="AC4" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE4" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF4" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG4" s="30" t="s">
         <v>177</v>
-      </c>
-      <c r="AD4" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE4" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF4" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG4" s="30" t="s">
-        <v>181</v>
       </c>
       <c r="AH4" s="30">
         <v>303</v>
@@ -4736,7 +4724,7 @@
         <v>32</v>
       </c>
       <c r="AN4" s="29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -4744,18 +4732,18 @@
         <v>6</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
@@ -4763,7 +4751,7 @@
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P5" s="31"/>
       <c r="Q5" s="30"/>
@@ -4774,19 +4762,19 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="30"/>
       <c r="AD5" s="30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AE5" s="30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AF5" s="32" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG5" s="30"/>
       <c r="AH5" s="30">
@@ -4801,14 +4789,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -4833,10 +4821,10 @@
       <c r="AB6" s="30"/>
       <c r="AC6" s="30"/>
       <c r="AD6" s="30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AE6" s="30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AF6" s="33"/>
       <c r="AG6" s="30"/>
@@ -4850,14 +4838,14 @@
         <v>8</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -4882,10 +4870,10 @@
       <c r="AB7" s="30"/>
       <c r="AC7" s="30"/>
       <c r="AD7" s="30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AE7" s="30" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF7" s="33"/>
       <c r="AG7" s="30"/>
@@ -4897,14 +4885,14 @@
         <v>9</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -4929,10 +4917,10 @@
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
       <c r="AD8" s="30" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AE8" s="30" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AF8" s="33"/>
       <c r="AG8" s="30"/>
@@ -4944,14 +4932,14 @@
         <v>10</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -4976,10 +4964,10 @@
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
       <c r="AD9" s="30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AE9" s="30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AF9" s="33"/>
       <c r="AG9" s="30"/>
@@ -4991,14 +4979,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
@@ -5023,10 +5011,10 @@
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
       <c r="AD10" s="30" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AE10" s="30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AF10" s="33"/>
       <c r="AG10" s="30"/>
@@ -5038,14 +5026,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -5070,10 +5058,10 @@
       <c r="AB11" s="30"/>
       <c r="AC11" s="30"/>
       <c r="AD11" s="30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AE11" s="30" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF11" s="33"/>
       <c r="AG11" s="30"/>
@@ -5086,7 +5074,7 @@
       </c>
       <c r="F12" s="30"/>
       <c r="G12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -5112,7 +5100,7 @@
       <c r="AC12" s="30"/>
       <c r="AD12" s="30"/>
       <c r="AE12" s="30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AF12" s="33"/>
       <c r="AG12" s="30"/>
@@ -5125,7 +5113,7 @@
       </c>
       <c r="F13" s="30"/>
       <c r="G13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -5151,7 +5139,7 @@
       <c r="AC13" s="30"/>
       <c r="AD13" s="30"/>
       <c r="AE13" s="30" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF13" s="33"/>
       <c r="AG13" s="30"/>
@@ -5164,7 +5152,7 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
@@ -5190,7 +5178,7 @@
       <c r="AC14" s="30"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AF14" s="33"/>
       <c r="AG14" s="30"/>
@@ -5203,7 +5191,7 @@
       </c>
       <c r="F15" s="30"/>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
@@ -5229,7 +5217,7 @@
       <c r="AC15" s="30"/>
       <c r="AD15" s="30"/>
       <c r="AE15" s="30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AF15" s="33"/>
       <c r="AG15" s="30"/>
@@ -5242,7 +5230,7 @@
       </c>
       <c r="F16" s="30"/>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
@@ -5268,7 +5256,7 @@
       <c r="AC16" s="30"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="30" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF16" s="33"/>
       <c r="AG16" s="30"/>
@@ -5281,7 +5269,7 @@
       </c>
       <c r="F17" s="30"/>
       <c r="G17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -5307,7 +5295,7 @@
       <c r="AC17" s="30"/>
       <c r="AD17" s="30"/>
       <c r="AE17" s="30" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AF17" s="33"/>
       <c r="AG17" s="30"/>
@@ -5320,7 +5308,7 @@
       </c>
       <c r="F18" s="30"/>
       <c r="G18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
@@ -5346,7 +5334,7 @@
       <c r="AC18" s="30"/>
       <c r="AD18" s="30"/>
       <c r="AE18" s="30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AF18" s="33"/>
       <c r="AG18" s="30"/>
@@ -5359,7 +5347,7 @@
       </c>
       <c r="F19" s="30"/>
       <c r="G19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -5385,7 +5373,7 @@
       <c r="AC19" s="30"/>
       <c r="AD19" s="30"/>
       <c r="AE19" s="30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AF19" s="33"/>
       <c r="AG19" s="30"/>
@@ -5398,7 +5386,7 @@
       </c>
       <c r="F20" s="30"/>
       <c r="G20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -5424,7 +5412,7 @@
       <c r="AC20" s="30"/>
       <c r="AD20" s="30"/>
       <c r="AE20" s="30" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AF20" s="33"/>
       <c r="AG20" s="30"/>
@@ -5437,7 +5425,7 @@
       </c>
       <c r="F21" s="30"/>
       <c r="G21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -5463,7 +5451,7 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="30"/>
       <c r="AE21" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AF21" s="33"/>
       <c r="AG21" s="30"/>
@@ -5476,7 +5464,7 @@
       </c>
       <c r="F22" s="30"/>
       <c r="G22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -5502,7 +5490,7 @@
       <c r="AC22" s="30"/>
       <c r="AD22" s="30"/>
       <c r="AE22" s="30" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AF22" s="33"/>
       <c r="AG22" s="30"/>
@@ -5515,7 +5503,7 @@
       </c>
       <c r="F23" s="30"/>
       <c r="G23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -5541,7 +5529,7 @@
       <c r="AC23" s="30"/>
       <c r="AD23" s="30"/>
       <c r="AE23" s="30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AF23" s="33"/>
       <c r="AG23" s="30"/>
@@ -5554,7 +5542,7 @@
       </c>
       <c r="F24" s="30"/>
       <c r="G24" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -5580,7 +5568,7 @@
       <c r="AC24" s="30"/>
       <c r="AD24" s="30"/>
       <c r="AE24" s="30" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AF24" s="33"/>
       <c r="AG24" s="30"/>
@@ -5593,7 +5581,7 @@
       </c>
       <c r="F25" s="30"/>
       <c r="G25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
@@ -5619,7 +5607,7 @@
       <c r="AC25" s="30"/>
       <c r="AD25" s="30"/>
       <c r="AE25" s="30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AF25" s="33"/>
       <c r="AG25" s="30"/>
@@ -5632,7 +5620,7 @@
       </c>
       <c r="F26" s="30"/>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
@@ -5658,7 +5646,7 @@
       <c r="AC26" s="30"/>
       <c r="AD26" s="30"/>
       <c r="AE26" s="30" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AF26" s="33"/>
       <c r="AG26" s="30"/>
@@ -5671,7 +5659,7 @@
       </c>
       <c r="F27" s="30"/>
       <c r="G27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
@@ -5697,7 +5685,7 @@
       <c r="AC27" s="30"/>
       <c r="AD27" s="30"/>
       <c r="AE27" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AF27" s="33"/>
       <c r="AG27" s="30"/>
@@ -5710,7 +5698,7 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -5736,7 +5724,7 @@
       <c r="AC28" s="30"/>
       <c r="AD28" s="30"/>
       <c r="AE28" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AF28" s="33"/>
       <c r="AG28" s="30"/>
@@ -5749,7 +5737,7 @@
       </c>
       <c r="F29" s="30"/>
       <c r="G29" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -5775,7 +5763,7 @@
       <c r="AC29" s="30"/>
       <c r="AD29" s="30"/>
       <c r="AE29" s="30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AF29" s="33"/>
       <c r="AG29" s="30"/>
@@ -5788,7 +5776,7 @@
       </c>
       <c r="F30" s="30"/>
       <c r="G30" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
@@ -5814,7 +5802,7 @@
       <c r="AC30" s="30"/>
       <c r="AD30" s="30"/>
       <c r="AE30" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AF30" s="33"/>
       <c r="AG30" s="30"/>
@@ -5827,7 +5815,7 @@
       </c>
       <c r="F31" s="30"/>
       <c r="G31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
@@ -5853,7 +5841,7 @@
       <c r="AC31" s="30"/>
       <c r="AD31" s="30"/>
       <c r="AE31" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AF31" s="33"/>
       <c r="AG31" s="30"/>
@@ -5866,7 +5854,7 @@
       </c>
       <c r="F32" s="30"/>
       <c r="G32" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
@@ -5892,7 +5880,7 @@
       <c r="AC32" s="30"/>
       <c r="AD32" s="30"/>
       <c r="AE32" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AF32" s="33"/>
       <c r="AG32" s="30"/>
@@ -5905,7 +5893,7 @@
       </c>
       <c r="F33" s="30"/>
       <c r="G33" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -5931,7 +5919,7 @@
       <c r="AC33" s="30"/>
       <c r="AD33" s="30"/>
       <c r="AE33" s="30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AF33" s="33"/>
       <c r="AG33" s="30"/>
@@ -5944,7 +5932,7 @@
       </c>
       <c r="F34" s="30"/>
       <c r="G34" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
@@ -5970,7 +5958,7 @@
       <c r="AC34" s="30"/>
       <c r="AD34" s="30"/>
       <c r="AE34" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AF34" s="33"/>
       <c r="AG34" s="30"/>
@@ -5983,7 +5971,7 @@
       </c>
       <c r="F35" s="30"/>
       <c r="G35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -6009,7 +5997,7 @@
       <c r="AC35" s="30"/>
       <c r="AD35" s="30"/>
       <c r="AE35" s="30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AF35" s="33"/>
       <c r="AG35" s="30"/>
@@ -6022,7 +6010,7 @@
       </c>
       <c r="F36" s="30"/>
       <c r="G36" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
@@ -6048,7 +6036,7 @@
       <c r="AC36" s="30"/>
       <c r="AD36" s="30"/>
       <c r="AE36" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AF36" s="33"/>
       <c r="AG36" s="30"/>
@@ -6061,7 +6049,7 @@
       </c>
       <c r="F37" s="30"/>
       <c r="G37" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
@@ -6087,7 +6075,7 @@
       <c r="AC37" s="30"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AF37" s="33"/>
       <c r="AG37" s="30"/>
@@ -6100,7 +6088,7 @@
       </c>
       <c r="F38" s="30"/>
       <c r="G38" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
@@ -6126,7 +6114,7 @@
       <c r="AC38" s="30"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AF38" s="33"/>
       <c r="AG38" s="30"/>
@@ -6139,7 +6127,7 @@
       </c>
       <c r="F39" s="30"/>
       <c r="G39" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
@@ -6165,7 +6153,7 @@
       <c r="AC39" s="30"/>
       <c r="AD39" s="30"/>
       <c r="AE39" s="30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AF39" s="33"/>
       <c r="AG39" s="30"/>
@@ -6178,7 +6166,7 @@
       </c>
       <c r="F40" s="30"/>
       <c r="G40" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -6203,7 +6191,7 @@
       <c r="AC40" s="30"/>
       <c r="AD40" s="30"/>
       <c r="AE40" s="30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AF40" s="33"/>
       <c r="AG40" s="30"/>
@@ -6215,7 +6203,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K41" s="30"/>
       <c r="M41" s="30"/>
@@ -6228,7 +6216,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K42" s="30"/>
       <c r="M42" s="30"/>
@@ -6240,7 +6228,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K43" s="30"/>
       <c r="M43" s="30"/>
@@ -6252,7 +6240,7 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K44" s="30"/>
       <c r="M44" s="30"/>
@@ -6313,8 +6301,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="92.109375" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A1:XFD1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -6339,782 +6370,782 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="H1" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="I1" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="J1" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>290</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>294</v>
       </c>
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="G2" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>298</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>302</v>
       </c>
       <c r="I2" s="18">
         <v>80</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K2" s="19">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="G3" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>307</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>311</v>
       </c>
       <c r="I3" s="18">
         <v>40</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K3" s="19">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F4" s="19"/>
       <c r="H4" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F5" s="19"/>
       <c r="H5" s="19" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F6" s="19"/>
       <c r="H6" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F7" s="19"/>
       <c r="H7" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F8" s="19"/>
       <c r="H8" s="19" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F9" s="19"/>
       <c r="H9" s="19" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F10" s="19"/>
       <c r="H10" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F11" s="19"/>
       <c r="H11" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F12" s="19"/>
       <c r="H12" s="19" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F13" s="19"/>
       <c r="H13" s="19" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="H14" s="19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H15" s="19" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H16" s="19" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="19" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="19" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="19" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H21" s="19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="19" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H23" s="19" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H24" s="19" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H25" s="19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H26" s="19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H27" s="19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H28" s="19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H29" s="19" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H30" s="19" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H31" s="19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H32" s="19" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H33" s="19" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H34" s="19" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H35" s="19" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H36" s="19" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H37" s="19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H38" s="19" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H39" s="19" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H40" s="19" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H41" s="19" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H42" s="19" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H43" s="19" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H44" s="19" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H45" s="19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H46" s="19" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H47" s="19" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H48" s="19" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H49" s="19" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50" s="19" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H51" s="19" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H52" s="19" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H53" s="19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H54" s="19" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H55" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H56" s="19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H57" s="19" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H58" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H59" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H60" s="19" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H61" s="19" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H62" s="19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H63" s="19" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H64" s="19" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H65" s="19" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H66" s="19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H67" s="19" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H68" s="19" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H69" s="19" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H70" s="19" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H71" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H72" s="19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H73" s="19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H74" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H75" s="19" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H76" s="19" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H77" s="19" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H78" s="19" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H79" s="19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H80" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H81" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H82" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H83" s="19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H84" s="19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H85" s="19" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H86" s="19" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H87" s="19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H88" s="19" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H89" s="19" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H90" s="19" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H91" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H92" s="19" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H93" s="19" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H94" s="19" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H95" s="19" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H96" s="19" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H97" s="19" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H98" s="19" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H99" s="19" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H100" s="19" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H101" s="19" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H102" s="19" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H103" s="19" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H104" s="19" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H105" s="19" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H106" s="19" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H107" s="19" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H108" s="19" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -7123,51 +7154,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="92.109375" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="A1:XFD1048576" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7186,36 +7174,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="F1" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E2" s="11">
         <v>301</v>
@@ -7226,16 +7214,16 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E3" s="16">
         <v>302</v>
@@ -7246,16 +7234,16 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E4" s="16">
         <v>303</v>
@@ -7266,13 +7254,13 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="16">
@@ -7284,10 +7272,10 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C6" s="10"/>
       <c r="E6" s="16">
@@ -7297,189 +7285,189 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7491,8 +7479,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7507,16 +7495,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7524,7 +7512,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7532,7 +7520,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7540,7 +7528,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7548,7 +7536,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7852,15 +7840,15 @@
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:E1 G1:XFD1 A2:XFD1048576" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation sqref="A1:E1 A2:XFD1048576 G1:XFD1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7890,19 +7878,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>5</v>
@@ -8615,16 +8603,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>5</v>
@@ -8632,7 +8620,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:H1 J1:XFD1 B2:XFD1048576" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+    <dataValidation sqref="A1:H1 B2:XFD1048576 J1:XFD1" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8644,7 +8632,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8658,16 +8646,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -8683,7 +8671,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8696,16 +8684,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -8721,7 +8709,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8735,19 +8723,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -8763,7 +8751,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8774,10 +8762,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/OCI.xlsx
+++ b/Backend/OCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Khaterchi\Desktop\OCI_to_AZURE\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36008694-FCC5-40EC-9B5C-B1CB0C035B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3490B9AA-9CCD-4FBA-99F2-43D181DF2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1308" windowWidth="17280" windowHeight="8964" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -4225,7 +4225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -4277,8 +4277,8 @@
     <col min="35" max="35" width="13.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="38" max="158" width="28.44140625" style="35" customWidth="1"/>
-    <col min="159" max="16384" width="28.44140625" style="35"/>
+    <col min="38" max="162" width="28.44140625" style="35" customWidth="1"/>
+    <col min="163" max="16384" width="28.44140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="28" customFormat="1" ht="148.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6305,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7817,7 +7817,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7848,7 +7848,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:E1 A2:XFD1048576 G1:XFD1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation sqref="A1:E1 G1:XFD1 A2:XFD1048576" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8578,7 +8578,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8620,7 +8620,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A1:H1 B2:XFD1048576 J1:XFD1" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+    <dataValidation sqref="A1:H1 J1:XFD1 B2:XFD1048576" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
